--- a/PIT3/Schema Publication Changelog.xlsx
+++ b/PIT3/Schema Publication Changelog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="285" windowWidth="15390" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="7425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,19 @@
     <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$5</definedName>
+    <definedName name="_Toc520203303" localSheetId="3">'1.0 Release Candidate 2'!$C$8</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="444">
   <si>
     <t>Document</t>
   </si>
@@ -2411,9 +2411,6 @@
     <t>Added "maximum time" line</t>
   </si>
   <si>
-    <t>1.0 Release Candidate 2</t>
-  </si>
-  <si>
     <t>Enums</t>
   </si>
   <si>
@@ -2467,32 +2464,6 @@
     <t>Added</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Updated date pattern on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">employmentStartDate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to be a date and not a datetime</t>
-    </r>
-  </si>
-  <si>
     <t>New section addded for Returns Reconciliation examples</t>
   </si>
   <si>
@@ -2505,100 +2476,10 @@
     <t xml:space="preserve">All Enums capitalised to match REST API </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EmployeeASC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>property added</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EmployeeASC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>property added to payslip object</t>
-    </r>
-  </si>
-  <si>
     <t>Reflect addition of Returns Reconciliation to schema and new payslip property</t>
   </si>
   <si>
     <t>Payroll Submission: Data Items</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>payslip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' changed to '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>submission item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
   </si>
   <si>
     <t>Payroll Scenario Examples</t>
@@ -3177,12 +3058,155 @@
   <si>
     <t>Updates multiple sections on new features</t>
   </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>PIT Current Version</t>
+  </si>
+  <si>
+    <t>Guides and useful info</t>
+  </si>
+  <si>
+    <t>PAYE PIT Help Desk User Guide</t>
+  </si>
+  <si>
+    <t>All Versions</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Added description of differences between PIT &amp; PIT Next Version</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Updated screenshot with new registration page &amp; noted new drop down</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EmployeeASC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property added</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payslip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' changed to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>submission item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EmployeeASC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property added to payslip object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updated date pattern on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">employmentStartDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be a date and not a datetime</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3309,6 +3333,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3777,7 +3830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4023,47 +4076,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4071,97 +4090,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4209,38 +4139,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4263,6 +4163,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4284,77 +4244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4362,32 +4256,148 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4792,12 +4802,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4820,12 +4830,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4865,10 +4875,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="152">
+      <c r="B7" s="109">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4882,8 +4892,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="153"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4895,8 +4905,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="153"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4908,8 +4918,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
-      <c r="B10" s="153"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -4921,8 +4931,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="153"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4934,8 +4944,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4947,10 +4957,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="152">
+      <c r="B13" s="109">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4964,8 +4974,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5011,12 +5021,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5056,21 +5066,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="156">
+      <c r="B21" s="113">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5084,8 +5094,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="154"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5108,18 +5118,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="156">
+      <c r="B25" s="113">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5133,8 +5143,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="153"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5146,8 +5156,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5159,8 +5169,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
-      <c r="B28" s="153"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5172,8 +5182,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
-      <c r="B29" s="153"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5185,8 +5195,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5198,8 +5208,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="153"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5211,8 +5221,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
-      <c r="B32" s="154"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5336,12 +5346,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5401,7 +5411,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5411,7 +5421,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5521,10 +5531,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5535,8 +5545,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5545,8 +5555,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5555,8 +5565,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5565,8 +5575,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5575,8 +5585,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5585,10 +5595,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5599,8 +5609,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5609,8 +5619,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5619,10 +5629,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="127" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5633,8 +5643,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5643,8 +5653,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5653,8 +5663,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5663,8 +5673,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5673,8 +5683,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5683,8 +5693,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5693,8 +5703,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5703,26 +5713,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="165" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="172" t="s">
+      <c r="D24" s="119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="165"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="172"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5733,8 +5743,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="162"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5761,28 +5771,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="175" t="s">
+      <c r="D30" s="122" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="175"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="122"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="163"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5791,8 +5801,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5801,8 +5811,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5811,8 +5821,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5821,8 +5831,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="163"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5831,26 +5841,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="162"/>
-      <c r="C37" s="176" t="s">
+      <c r="A37" s="134"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="178" t="s">
+      <c r="D37" s="125" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="163"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="178"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="125"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5861,8 +5871,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5889,10 +5899,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="163" t="s">
+      <c r="A43" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5901,8 +5911,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="163"/>
-      <c r="B44" s="162"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="132"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5911,10 +5921,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="162" t="s">
+      <c r="B45" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5923,8 +5933,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="170"/>
-      <c r="B46" s="162"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="132"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5933,8 +5943,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="170"/>
-      <c r="B47" s="162"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="132"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5943,8 +5953,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="171"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5953,10 +5963,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="127" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10060,8 +10070,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="166"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14165,8 +14175,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="166"/>
-      <c r="B51" s="166"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18270,8 +18280,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22375,12 +22385,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="174" t="s">
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="122" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26480,10 +26490,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="122"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30601,10 +30611,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="167" t="s">
+      <c r="A57" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="166" t="s">
+      <c r="B57" s="127" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30615,8 +30625,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="167"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30625,8 +30635,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="167"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30635,8 +30645,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="167"/>
-      <c r="B60" s="166"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30645,8 +30655,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="167"/>
-      <c r="B61" s="166"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30655,8 +30665,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="167"/>
-      <c r="B62" s="166"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30665,8 +30675,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="167"/>
-      <c r="B63" s="166"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30675,16 +30685,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="167"/>
-      <c r="B64" s="166"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="167"/>
-      <c r="B65" s="166"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30693,16 +30703,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="167"/>
-      <c r="B66" s="166"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="167"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30711,8 +30721,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="167"/>
-      <c r="B68" s="166"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30721,8 +30731,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
-      <c r="B69" s="166"/>
+      <c r="A69" s="126"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30731,8 +30741,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="167"/>
-      <c r="B70" s="166"/>
+      <c r="A70" s="126"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30741,8 +30751,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="167"/>
-      <c r="B71" s="166"/>
+      <c r="A71" s="126"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30751,8 +30761,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="167"/>
-      <c r="B72" s="166"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30761,16 +30771,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="167"/>
-      <c r="B73" s="166"/>
+      <c r="A73" s="126"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="167"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30779,18 +30789,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="167"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="168" t="s">
+      <c r="A75" s="126"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="128" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="167"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="168"/>
+      <c r="A76" s="126"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="128"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -30814,8 +30824,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30824,29 +30834,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -30861,6 +30855,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30914,10 +30924,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="132" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30928,133 +30938,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="188" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="142" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="187"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="142"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187" t="s">
+      <c r="C10" s="145"/>
+      <c r="D10" s="142" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="164"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="142"/>
     </row>
     <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="164"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="142"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="187" t="s">
+      <c r="C13" s="144"/>
+      <c r="D13" s="142" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="187"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="142"/>
     </row>
     <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="189"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="189"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="189"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="189"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="189"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="189"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="189"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="189"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="189"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31152,10 +31162,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="193" t="s">
+      <c r="B32" s="139" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31166,26 +31176,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="191"/>
-      <c r="B33" s="194"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="191"/>
-      <c r="B34" s="194"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="191"/>
-      <c r="B35" s="194"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="192"/>
-      <c r="B36" s="195"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31214,10 +31224,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="132" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31228,8 +31238,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31238,84 +31248,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="186" t="s">
+      <c r="C41" s="145" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="165" t="s">
+      <c r="D41" s="118" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="165"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="118"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="186" t="s">
+      <c r="A43" s="133"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="168" t="s">
+      <c r="D43" s="128" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="168"/>
+      <c r="A44" s="133"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="128"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="182"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="167"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="179" t="s">
+      <c r="A46" s="126"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="146" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="167"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="180"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="147"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="167"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="184"/>
-      <c r="D48" s="180"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="147"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="167"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="180"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="147"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="181"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="148"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31338,10 +31348,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="127" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31352,8 +31362,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31362,8 +31372,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31372,9 +31382,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="166"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="185" t="s">
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="152" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31382,16 +31392,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="185"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="152"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31400,8 +31410,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31410,9 +31420,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="166"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="185" t="s">
+      <c r="A60" s="127"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="152" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31420,25 +31430,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="185"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="152"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="166"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="185"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="152"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="166"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="186" t="s">
+      <c r="A63" s="127"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="145" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31446,30 +31456,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="166"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="186"/>
-      <c r="D64" s="168" t="s">
+      <c r="A64" s="127"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="128" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="186"/>
-      <c r="D65" s="168"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="128"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="166"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="168"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="128"/>
     </row>
     <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="166"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="186"/>
-      <c r="D67" s="168"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="128"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31525,23 +31535,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31558,6 +31551,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31566,10 +31576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149:B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31585,7 +31595,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>38</v>
@@ -31595,1722 +31605,1756 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="160" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="206" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" s="162" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="207"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="100" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="160" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="155" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="156" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="100" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="163" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="164"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="166" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="167" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="168" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="167" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="167" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="167" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="168" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="164" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="165" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="163"/>
+      <c r="D16" s="80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="164"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="169" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="170" t="s">
+        <v>399</v>
+      </c>
+      <c r="D19" s="171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="163"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="163"/>
+      <c r="D21" s="174" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="175"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="170" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="163" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="175"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="163" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="175"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="177" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="175"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="171" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="175"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="170" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" s="171" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="178"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="171" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="180" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="171" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="180" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="171"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="181" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="171"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="182"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="170" t="s">
+        <v>399</v>
+      </c>
+      <c r="D31" s="171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="181" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="183"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="183"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="163" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="163" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="183"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="182"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="163" t="s">
+        <v>368</v>
+      </c>
+      <c r="D38" s="171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="163" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="171" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="185"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="185"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="186" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="171" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="185"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="186" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="171" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="185"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="186" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="171" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="185"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="186" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="185"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="186" t="s">
+        <v>376</v>
+      </c>
+      <c r="D45" s="187" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="188"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="167" t="s">
+        <v>354</v>
+      </c>
+      <c r="D46" s="171" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="189" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="190"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="171" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="190"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="157" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="190"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="191" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="190"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="170" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="190"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="170">
+        <v>2.1</v>
+      </c>
+      <c r="D52" s="163" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="190"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="163" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="190"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="187" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" s="211" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3" s="111" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="190"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="171" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="190"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="192" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="193" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="190"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="170">
+        <v>2.1</v>
+      </c>
+      <c r="D57" s="163" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="190"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="163" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="190"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="163" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="184" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C60" s="163" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="163" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="185"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="191" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="163" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="188"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="163" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" s="163" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="58" t="s">
+    <row r="63" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="181" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C63" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="163"/>
+    </row>
+    <row r="64" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="183"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="170" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="163" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="183"/>
+      <c r="B65" s="176"/>
+      <c r="C65" s="170">
+        <v>2.1</v>
+      </c>
+      <c r="D65" s="163" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="183"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="170" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="163" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="183"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="163" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="160"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="161"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="167" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="170" t="s">
+        <v>432</v>
+      </c>
+      <c r="C69" s="170" t="s">
+        <v>379</v>
+      </c>
+      <c r="D69" s="171"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="189" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" s="163"/>
+      <c r="D70" s="80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="190"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="190"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="171" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="190"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="163" t="s">
+        <v>419</v>
+      </c>
+      <c r="D73" s="171" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="190"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="163" t="s">
+        <v>424</v>
+      </c>
+      <c r="D74" s="171" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" s="165" t="s">
+        <v>432</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="D75" s="171" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="164"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="163" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="163" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="164"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="194" t="s">
+        <v>409</v>
+      </c>
+      <c r="D77" s="181" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="164"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="194" t="s">
+        <v>410</v>
+      </c>
+      <c r="D78" s="183"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="164"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="183"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="164"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="194" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" s="182"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="167" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="170" t="s">
+        <v>432</v>
+      </c>
+      <c r="C81" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C82" s="163" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="185"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="163" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="185"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="163" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="185"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="171" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="185"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="163" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="185"/>
+      <c r="B87" s="176"/>
+      <c r="C87" s="163" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" s="163" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="185"/>
+      <c r="B88" s="176"/>
+      <c r="C88" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="185"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="171" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="185"/>
+      <c r="B90" s="176"/>
+      <c r="C90" s="171" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="171" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="185"/>
+      <c r="B91" s="176"/>
+      <c r="C91" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="168" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="185"/>
+      <c r="B92" s="176"/>
+      <c r="C92" s="186" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="185"/>
+      <c r="B93" s="176"/>
+      <c r="C93" s="163" t="s">
+        <v>307</v>
+      </c>
+      <c r="D93" s="163" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="185"/>
+      <c r="B94" s="176"/>
+      <c r="C94" s="171" t="s">
+        <v>308</v>
+      </c>
+      <c r="D94" s="171" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="185"/>
+      <c r="B95" s="176"/>
+      <c r="C95" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="D95" s="171" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="185"/>
+      <c r="B96" s="176"/>
+      <c r="C96" s="171" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" s="171" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="185"/>
+      <c r="B97" s="176"/>
+      <c r="C97" s="163" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="163" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="185"/>
+      <c r="B98" s="176"/>
+      <c r="C98" s="171" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="171" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="185"/>
+      <c r="B99" s="176"/>
+      <c r="C99" s="171" t="s">
+        <v>314</v>
+      </c>
+      <c r="D99" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="185"/>
+      <c r="B100" s="176"/>
+      <c r="C100" s="163"/>
+      <c r="D100" s="97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="185"/>
+      <c r="B101" s="176"/>
+      <c r="C101" s="171" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="185"/>
+      <c r="B102" s="176"/>
+      <c r="C102" s="171" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="185"/>
+      <c r="B103" s="176"/>
+      <c r="C103" s="171" t="s">
+        <v>334</v>
+      </c>
+      <c r="D103" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="185"/>
+      <c r="B104" s="176"/>
+      <c r="C104" s="171" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="185"/>
+      <c r="B105" s="176"/>
+      <c r="C105" s="171" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="171" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="185"/>
+      <c r="B106" s="176"/>
+      <c r="C106" s="187" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="187" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="185"/>
+      <c r="B107" s="176"/>
+      <c r="C107" s="171" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" s="171" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="185"/>
+      <c r="B108" s="176"/>
+      <c r="C108" s="171" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="185" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58" t="s">
+      <c r="D108" s="171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="185"/>
+      <c r="B109" s="176"/>
+      <c r="C109" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D109" s="196" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="185"/>
+      <c r="B110" s="176"/>
+      <c r="C110" s="171" t="s">
+        <v>352</v>
+      </c>
+      <c r="D110" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="185"/>
+      <c r="B111" s="176"/>
+      <c r="C111" s="171" t="s">
+        <v>353</v>
+      </c>
+      <c r="D111" s="171" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="185"/>
+      <c r="B112" s="176"/>
+      <c r="C112" s="171" t="s">
+        <v>359</v>
+      </c>
+      <c r="D112" s="171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="185"/>
+      <c r="B113" s="176"/>
+      <c r="C113" s="171" t="s">
+        <v>361</v>
+      </c>
+      <c r="D113" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="185"/>
+      <c r="B114" s="176"/>
+      <c r="C114" s="171" t="s">
+        <v>367</v>
+      </c>
+      <c r="D114" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="185"/>
+      <c r="B115" s="176"/>
+      <c r="C115" s="171" t="s">
+        <v>359</v>
+      </c>
+      <c r="D115" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="185"/>
+      <c r="B116" s="176"/>
+      <c r="C116" s="187" t="s">
+        <v>380</v>
+      </c>
+      <c r="D116" s="187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="185"/>
+      <c r="B117" s="176"/>
+      <c r="C117" s="163" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" s="163" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="185"/>
+      <c r="B118" s="176"/>
+      <c r="C118" s="163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="163" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="185"/>
+      <c r="B119" s="176"/>
+      <c r="C119" s="163" t="s">
+        <v>388</v>
+      </c>
+      <c r="D119" s="163" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="185"/>
+      <c r="B120" s="176"/>
+      <c r="C120" s="163" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" s="163" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="185"/>
+      <c r="B121" s="176"/>
+      <c r="C121" s="163" t="s">
+        <v>390</v>
+      </c>
+      <c r="D121" s="163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="185"/>
+      <c r="B122" s="176"/>
+      <c r="C122" s="163" t="s">
+        <v>391</v>
+      </c>
+      <c r="D122" s="163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="185"/>
+      <c r="B123" s="176"/>
+      <c r="C123" s="163" t="s">
+        <v>394</v>
+      </c>
+      <c r="D123" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="185"/>
+      <c r="B124" s="176"/>
+      <c r="C124" s="163" t="s">
+        <v>404</v>
+      </c>
+      <c r="D124" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="185"/>
+      <c r="B125" s="176"/>
+      <c r="C125" s="163" t="s">
+        <v>405</v>
+      </c>
+      <c r="D125" s="163" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="185"/>
+      <c r="B126" s="176"/>
+      <c r="C126" s="163" t="s">
+        <v>422</v>
+      </c>
+      <c r="D126" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="185"/>
+      <c r="B127" s="176"/>
+      <c r="C127" s="163" t="s">
+        <v>423</v>
+      </c>
+      <c r="D127" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="188"/>
+      <c r="B128" s="179"/>
+      <c r="C128" s="163" t="s">
+        <v>426</v>
+      </c>
+      <c r="D128" s="163" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="197" t="s">
+        <v>416</v>
+      </c>
+      <c r="B129" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="167" t="s">
+        <v>304</v>
+      </c>
+      <c r="B130" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C130" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="167" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C131" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="160"/>
+      <c r="C132" s="160"/>
+      <c r="D132" s="161"/>
+    </row>
+    <row r="133" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="189" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C133" s="163"/>
+      <c r="D133" s="80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="190"/>
+      <c r="B134" s="176"/>
+      <c r="C134" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="D134" s="163" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="190"/>
+      <c r="B135" s="176"/>
+      <c r="C135" s="70">
+        <v>10.1</v>
+      </c>
+      <c r="D135" s="163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="190"/>
+      <c r="B136" s="176"/>
+      <c r="C136" s="70">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D136" s="163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="190"/>
+      <c r="B137" s="176"/>
+      <c r="C137" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" s="95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="190"/>
+      <c r="B138" s="176"/>
+      <c r="C138" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="D138" s="95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="190"/>
+      <c r="B139" s="176"/>
+      <c r="C139" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="95" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="190"/>
+      <c r="B140" s="176"/>
+      <c r="C140" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="D140" s="95" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="198"/>
+      <c r="B141" s="179"/>
+      <c r="C141" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="173" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C142" s="98"/>
+      <c r="D142" s="199" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="176"/>
+      <c r="B143" s="176"/>
+      <c r="C143" s="200" t="s">
+        <v>428</v>
+      </c>
+      <c r="D143" s="102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="168" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="129" t="s">
+      <c r="B144" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C144" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" s="171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="201" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" s="160"/>
+      <c r="C145" s="202"/>
+      <c r="D145" s="202"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="167" t="s">
+        <v>248</v>
+      </c>
+      <c r="B146" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="203" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" s="163" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="189" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" s="163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="190"/>
+      <c r="B148" s="176"/>
+      <c r="C148" s="163" t="s">
+        <v>300</v>
+      </c>
+      <c r="D148" s="171" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="190"/>
+      <c r="B149" s="176"/>
+      <c r="C149" s="203" t="s">
+        <v>281</v>
+      </c>
+      <c r="D149" s="163" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="198"/>
+      <c r="B150" s="179"/>
+      <c r="C150" s="203" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="163" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="202" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" s="202"/>
+      <c r="C151" s="202"/>
+      <c r="D151" s="202"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" s="173" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" s="203" t="s">
+        <v>260</v>
+      </c>
+      <c r="D152" s="163" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="190"/>
+      <c r="B153" s="176"/>
+      <c r="C153" s="203" t="s">
+        <v>260</v>
+      </c>
+      <c r="D153" s="163" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="198"/>
+      <c r="B154" s="179"/>
+      <c r="C154" s="163"/>
+      <c r="D154" s="163" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="204" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="173" t="s">
+        <v>266</v>
+      </c>
+      <c r="C155" s="191" t="s">
+        <v>259</v>
+      </c>
+      <c r="D155" s="163" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="205"/>
+      <c r="B156" s="179"/>
+      <c r="C156" s="191"/>
+      <c r="D156" s="163" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="204" t="s">
+        <v>286</v>
+      </c>
+      <c r="B157" s="173" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" s="191"/>
+      <c r="D157" s="191" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="205"/>
+      <c r="B158" s="179"/>
+      <c r="C158" s="163"/>
+      <c r="D158" s="163" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="204" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="173" t="s">
+        <v>266</v>
+      </c>
+      <c r="C159" s="191" t="s">
+        <v>259</v>
+      </c>
+      <c r="D159" s="163" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="205"/>
+      <c r="B160" s="179"/>
+      <c r="C160" s="163"/>
+      <c r="D160" s="163" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="202" t="s">
+        <v>268</v>
+      </c>
+      <c r="B161" s="202"/>
+      <c r="C161" s="202"/>
+      <c r="D161" s="202"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="163"/>
+      <c r="B162" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C162" s="163" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
-        <v>377</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="102" t="s">
+      <c r="D162" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="202" t="s">
+        <v>274</v>
+      </c>
+      <c r="B163" s="202"/>
+      <c r="C163" s="202"/>
+      <c r="D163" s="202"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="163"/>
+      <c r="B164" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C164" s="163" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" s="139" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="138" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="165" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="185" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="108" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="136" t="s">
-        <v>404</v>
-      </c>
-      <c r="D16" s="98" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="58"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="212" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="119" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="213"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="118" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="213"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="118" t="s">
-        <v>359</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="124" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="131" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="135" t="s">
-        <v>371</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="214"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="135" t="s">
-        <v>359</v>
-      </c>
-      <c r="D24" s="98" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="127" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="98" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="127" t="s">
-        <v>351</v>
-      </c>
-      <c r="B26" s="126" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="98"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="208" t="s">
-        <v>369</v>
-      </c>
-      <c r="B27" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="98"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="215"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="136" t="s">
-        <v>404</v>
-      </c>
-      <c r="D28" s="98" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="208" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="209"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="209"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" s="98" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
-      <c r="B35" s="199"/>
-      <c r="C35" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="D35" s="98" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="169" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="D36" s="98" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="170"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="170"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="D38" s="98" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="170"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="106" t="s">
-        <v>359</v>
-      </c>
-      <c r="D39" s="98" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="170"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="D40" s="98" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="170"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="106" t="s">
-        <v>371</v>
-      </c>
-      <c r="D41" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="170"/>
-      <c r="B42" s="202"/>
-      <c r="C42" s="106" t="s">
-        <v>381</v>
-      </c>
-      <c r="D42" s="113" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="171"/>
-      <c r="B43" s="199"/>
-      <c r="C43" s="96" t="s">
-        <v>359</v>
-      </c>
-      <c r="D43" s="98" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="176" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="219" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="101" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="98" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="204"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="203" t="s">
-        <v>240</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="202"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="204"/>
-      <c r="B48" s="202"/>
-      <c r="C48" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="204"/>
-      <c r="B49" s="202"/>
-      <c r="C49" s="103">
-        <v>2.1</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="204"/>
-      <c r="B50" s="202"/>
-      <c r="C50" s="103" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="204"/>
-      <c r="B51" s="202"/>
-      <c r="C51" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="D51" s="113" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="204"/>
-      <c r="B52" s="202"/>
-      <c r="C52" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="98" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="204"/>
-      <c r="B53" s="202"/>
-      <c r="C53" s="134" t="s">
-        <v>378</v>
-      </c>
-      <c r="D53" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="204"/>
-      <c r="B54" s="202"/>
-      <c r="C54" s="136">
-        <v>2.1</v>
-      </c>
-      <c r="D54" s="58" t="s">
+      <c r="D164" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="163"/>
+      <c r="B165" s="70"/>
+      <c r="C165" s="163" t="s">
+        <v>396</v>
+      </c>
+      <c r="D165" s="171" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="204"/>
-      <c r="B55" s="202"/>
-      <c r="C55" s="136" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="204"/>
-      <c r="B56" s="202"/>
-      <c r="C56" s="141" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="205" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" s="58" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="206"/>
-      <c r="B58" s="202"/>
-      <c r="C58" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="207"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="D59" s="58" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="208" t="s">
-        <v>370</v>
-      </c>
-      <c r="B60" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="58"/>
-    </row>
-    <row r="61" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="209"/>
-      <c r="B61" s="202"/>
-      <c r="C61" s="131" t="s">
-        <v>378</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="209"/>
-      <c r="B62" s="202"/>
-      <c r="C62" s="136">
-        <v>2.1</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="209"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="209"/>
-      <c r="B64" s="202"/>
-      <c r="C64" s="133" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="44"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="96" t="s">
-        <v>383</v>
-      </c>
-      <c r="B66" s="132" t="s">
-        <v>234</v>
-      </c>
-      <c r="C66" s="132" t="s">
-        <v>384</v>
-      </c>
-      <c r="D66" s="98"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="176" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="204"/>
-      <c r="B68" s="202"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="204"/>
-      <c r="B69" s="202"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="98" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="204"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="58" t="s">
-        <v>424</v>
-      </c>
-      <c r="D70" s="98" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="204"/>
-      <c r="B71" s="202"/>
-      <c r="C71" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="D71" s="98" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="165" t="s">
-        <v>334</v>
-      </c>
-      <c r="B72" s="185" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="D72" s="98" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="165"/>
-      <c r="B73" s="185"/>
-      <c r="C73" s="58" t="s">
-        <v>411</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="165"/>
-      <c r="B74" s="185"/>
-      <c r="C74" s="140" t="s">
-        <v>414</v>
-      </c>
-      <c r="D74" s="208" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="165"/>
-      <c r="B75" s="185"/>
-      <c r="C75" s="140" t="s">
-        <v>415</v>
-      </c>
-      <c r="D75" s="209"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="165"/>
-      <c r="B76" s="185"/>
-      <c r="C76" s="140" t="s">
-        <v>416</v>
-      </c>
-      <c r="D76" s="209"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="165"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="140" t="s">
-        <v>417</v>
-      </c>
-      <c r="D77" s="215"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B78" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="102" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="205" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="206"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="206"/>
-      <c r="B81" s="202"/>
-      <c r="C81" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="206"/>
-      <c r="B82" s="202"/>
-      <c r="C82" s="98" t="s">
-        <v>277</v>
-      </c>
-      <c r="D82" s="98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="206"/>
-      <c r="B83" s="202"/>
-      <c r="C83" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="206"/>
-      <c r="B84" s="202"/>
-      <c r="C84" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="D84" s="58" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="206"/>
-      <c r="B85" s="202"/>
-      <c r="C85" s="98" t="s">
-        <v>288</v>
-      </c>
-      <c r="D85" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="206"/>
-      <c r="B86" s="202"/>
-      <c r="C86" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="D86" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="206"/>
-      <c r="B87" s="202"/>
-      <c r="C87" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="D87" s="98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="206"/>
-      <c r="B88" s="202"/>
-      <c r="C88" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88" s="102" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="206"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="D89" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="206"/>
-      <c r="B90" s="202"/>
-      <c r="C90" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="D90" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="206"/>
-      <c r="B91" s="202"/>
-      <c r="C91" s="98" t="s">
-        <v>313</v>
-      </c>
-      <c r="D91" s="98" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="206"/>
-      <c r="B92" s="202"/>
-      <c r="C92" s="98" t="s">
-        <v>315</v>
-      </c>
-      <c r="D92" s="98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="206"/>
-      <c r="B93" s="202"/>
-      <c r="C93" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="D93" s="98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="206"/>
-      <c r="B94" s="202"/>
-      <c r="C94" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="D94" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="206"/>
-      <c r="B95" s="202"/>
-      <c r="C95" s="98" t="s">
-        <v>283</v>
-      </c>
-      <c r="D95" s="98" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="206"/>
-      <c r="B96" s="202"/>
-      <c r="C96" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="D96" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="206"/>
-      <c r="B97" s="202"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="206"/>
-      <c r="B98" s="202"/>
-      <c r="C98" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="D98" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="206"/>
-      <c r="B99" s="202"/>
-      <c r="C99" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="D99" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="206"/>
-      <c r="B100" s="202"/>
-      <c r="C100" s="98" t="s">
-        <v>339</v>
-      </c>
-      <c r="D100" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="206"/>
-      <c r="B101" s="202"/>
-      <c r="C101" s="98" t="s">
-        <v>340</v>
-      </c>
-      <c r="D101" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="206"/>
-      <c r="B102" s="202"/>
-      <c r="C102" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="D102" s="98" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="206"/>
-      <c r="B103" s="202"/>
-      <c r="C103" s="113" t="s">
-        <v>345</v>
-      </c>
-      <c r="D103" s="113" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="206"/>
-      <c r="B104" s="202"/>
-      <c r="C104" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="D104" s="98" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="206"/>
-      <c r="B105" s="202"/>
-      <c r="C105" s="98" t="s">
-        <v>353</v>
-      </c>
-      <c r="D105" s="98" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="206"/>
-      <c r="B106" s="202"/>
-      <c r="C106" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="D106" s="116" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="206"/>
-      <c r="B107" s="202"/>
-      <c r="C107" s="98" t="s">
-        <v>357</v>
-      </c>
-      <c r="D107" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="206"/>
-      <c r="B108" s="202"/>
-      <c r="C108" s="98" t="s">
-        <v>358</v>
-      </c>
-      <c r="D108" s="98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="206"/>
-      <c r="B109" s="202"/>
-      <c r="C109" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="D109" s="98" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="206"/>
-      <c r="B110" s="202"/>
-      <c r="C110" s="98" t="s">
-        <v>366</v>
-      </c>
-      <c r="D110" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="206"/>
-      <c r="B111" s="202"/>
-      <c r="C111" s="98" t="s">
-        <v>372</v>
-      </c>
-      <c r="D111" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="206"/>
-      <c r="B112" s="202"/>
-      <c r="C112" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="D112" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="206"/>
-      <c r="B113" s="202"/>
-      <c r="C113" s="113" t="s">
-        <v>385</v>
-      </c>
-      <c r="D113" s="113" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="206"/>
-      <c r="B114" s="202"/>
-      <c r="C114" s="58" t="s">
-        <v>389</v>
-      </c>
-      <c r="D114" s="58" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="206"/>
-      <c r="B115" s="202"/>
-      <c r="C115" s="58" t="s">
-        <v>392</v>
-      </c>
-      <c r="D115" s="58" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="206"/>
-      <c r="B116" s="202"/>
-      <c r="C116" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="D116" s="58" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="206"/>
-      <c r="B117" s="202"/>
-      <c r="C117" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="D117" s="58" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="206"/>
-      <c r="B118" s="202"/>
-      <c r="C118" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="D118" s="58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="206"/>
-      <c r="B119" s="202"/>
-      <c r="C119" s="58" t="s">
-        <v>396</v>
-      </c>
-      <c r="D119" s="58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="206"/>
-      <c r="B120" s="202"/>
-      <c r="C120" s="58" t="s">
-        <v>399</v>
-      </c>
-      <c r="D120" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="206"/>
-      <c r="B121" s="202"/>
-      <c r="C121" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="D121" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="206"/>
-      <c r="B122" s="202"/>
-      <c r="C122" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="D122" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="206"/>
-      <c r="B123" s="202"/>
-      <c r="C123" s="58" t="s">
-        <v>427</v>
-      </c>
-      <c r="D123" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="206"/>
-      <c r="B124" s="202"/>
-      <c r="C124" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="D124" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="207"/>
-      <c r="B125" s="199"/>
-      <c r="C125" s="58" t="s">
-        <v>431</v>
-      </c>
-      <c r="D125" s="58" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="143" t="s">
-        <v>421</v>
-      </c>
-      <c r="B126" s="142" t="s">
-        <v>234</v>
-      </c>
-      <c r="C126" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="96" t="s">
-        <v>309</v>
-      </c>
-      <c r="B127" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C127" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="B128" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C128" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="44"/>
-    </row>
-    <row r="130" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="176" t="s">
-        <v>84</v>
-      </c>
-      <c r="B130" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C130" s="58"/>
-      <c r="D130" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="204"/>
-      <c r="B131" s="202"/>
-      <c r="C131" s="104" t="s">
-        <v>246</v>
-      </c>
-      <c r="D131" s="58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="204"/>
-      <c r="B132" s="202"/>
-      <c r="C132" s="104">
-        <v>10.1</v>
-      </c>
-      <c r="D132" s="58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="204"/>
-      <c r="B133" s="202"/>
-      <c r="C133" s="104">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D133" s="58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="204"/>
-      <c r="B134" s="202"/>
-      <c r="C134" s="109" t="s">
-        <v>293</v>
-      </c>
-      <c r="D134" s="99" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="204"/>
-      <c r="B135" s="202"/>
-      <c r="C135" s="109" t="s">
-        <v>375</v>
-      </c>
-      <c r="D135" s="99" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="204"/>
-      <c r="B136" s="202"/>
-      <c r="C136" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D136" s="99" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="204"/>
-      <c r="B137" s="202"/>
-      <c r="C137" s="109" t="s">
-        <v>422</v>
-      </c>
-      <c r="D137" s="99" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="177"/>
-      <c r="B138" s="199"/>
-      <c r="C138" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="99" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="198" t="s">
-        <v>247</v>
-      </c>
-      <c r="B139" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C139" s="109"/>
-      <c r="D139" s="144" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="202"/>
-      <c r="B140" s="202"/>
-      <c r="C140" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="D140" s="145" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="121" t="s">
-        <v>262</v>
-      </c>
-      <c r="B141" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C141" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="D141" s="98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="B142" s="39"/>
-      <c r="C142" s="97"/>
-      <c r="D142" s="97"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C143" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="D143" s="58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="176" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="C144" s="99" t="s">
-        <v>295</v>
-      </c>
-      <c r="D144" s="58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="204"/>
-      <c r="B145" s="202"/>
-      <c r="C145" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="D145" s="98" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="204"/>
-      <c r="B146" s="202"/>
-      <c r="C146" s="110" t="s">
-        <v>286</v>
-      </c>
-      <c r="D146" s="58" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="177"/>
-      <c r="B147" s="199"/>
-      <c r="C147" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="58" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B148" s="97"/>
-      <c r="C148" s="97"/>
-      <c r="D148" s="97"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="216" t="s">
-        <v>58</v>
-      </c>
-      <c r="B149" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="C149" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="D149" s="58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="217"/>
-      <c r="B150" s="202"/>
-      <c r="C150" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="D150" s="58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="218"/>
-      <c r="B151" s="199"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="196" t="s">
-        <v>59</v>
-      </c>
-      <c r="B152" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="C152" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D152" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="197"/>
-      <c r="B153" s="199"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="200" t="s">
-        <v>291</v>
-      </c>
-      <c r="B154" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="C154" s="61"/>
-      <c r="D154" s="61" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="201"/>
-      <c r="B155" s="199"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="B156" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="C156" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D156" s="58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="197"/>
-      <c r="B157" s="199"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="B158" s="97"/>
-      <c r="C158" s="97"/>
-      <c r="D158" s="97"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="58"/>
-      <c r="B159" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C159" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D159" s="98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B160" s="97"/>
-      <c r="C160" s="97"/>
-      <c r="D160" s="97"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="58"/>
-      <c r="B161" s="137" t="s">
-        <v>234</v>
-      </c>
-      <c r="C161" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D161" s="98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="58"/>
-      <c r="B162" s="123"/>
-      <c r="C162" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="D162" s="98" t="s">
-        <v>402</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="A130:A138"/>
-    <mergeCell ref="B130:B138"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="A79:A125"/>
-    <mergeCell ref="B79:B125"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="B44:B56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
+  <mergeCells count="45">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A82:A128"/>
+    <mergeCell ref="B82:B128"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT3/Schema Publication Changelog.xlsx
+++ b/PIT3/Schema Publication Changelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ademps03\IdeaProjects\paye-employers-documentation\src\main\resources\PIT3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwalsh06\IdeaProjects\paye-employers-documentation\src\main\resources\PIT3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E4BB29-0183-4945-9860-2FF88940E777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF271879-B4E4-49F8-9B14-B8379A2AECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="516">
   <si>
     <t>Document</t>
   </si>
@@ -3370,6 +3370,63 @@
   </si>
   <si>
     <t>added note re. upper limit</t>
+  </si>
+  <si>
+    <t>ERR Technical Support Documentation</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Requirements Overview</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Submission Request: Data Items</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Notification (ERN) Request: Data Items</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Request Monthly Report: Data Items</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Validation Rules</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Web Service Definition</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Schema</t>
+  </si>
+  <si>
+    <t>ERN Web Service Definition</t>
+  </si>
+  <si>
+    <t>ERN Schema</t>
+  </si>
+  <si>
+    <t>ERR Examples</t>
+  </si>
+  <si>
+    <t>Enhanced Reporting Requirements - Overview of Web Service Examples</t>
+  </si>
+  <si>
+    <t>Example 1: Full ERR Life Cycle</t>
+  </si>
+  <si>
+    <t>Example 2: Overpayment Correction</t>
+  </si>
+  <si>
+    <t>Example 3: Underpayment Correction</t>
+  </si>
+  <si>
+    <t>Example 4: Amendment of Incorrect ERR Submission</t>
+  </si>
+  <si>
+    <t>ERR Example Scenarios</t>
+  </si>
+  <si>
+    <t>ERR Screen Upload Examples</t>
+  </si>
+  <si>
+    <t>ERR File Upload CSV Conversion</t>
   </si>
 </sst>
 </file>
@@ -3984,7 +4041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4325,9 +4382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4362,23 +4416,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4388,6 +4427,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4434,8 +4491,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4458,66 +4545,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4539,31 +4566,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4575,6 +4659,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4584,47 +4680,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4999,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5638,7 +5704,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5648,7 +5714,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5679,7 +5745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC79"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A38"/>
     </sheetView>
   </sheetViews>
@@ -5758,10 +5824,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5772,8 +5838,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="183"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5782,8 +5848,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="183"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5792,8 +5858,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="184"/>
-      <c r="B10" s="183"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5802,8 +5868,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="183"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5812,8 +5878,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="183"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5822,10 +5888,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5836,8 +5902,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="183"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5846,8 +5912,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
-      <c r="B15" s="183"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5856,10 +5922,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="174" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5870,8 +5936,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
-      <c r="B17" s="178"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5880,8 +5946,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
-      <c r="B18" s="178"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5890,8 +5956,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="178"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5900,8 +5966,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
-      <c r="B20" s="178"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5910,8 +5976,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="178"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5920,8 +5986,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="178"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5930,8 +5996,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="178"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5940,26 +6006,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="169" t="s">
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="170" t="s">
+      <c r="D24" s="180" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
+      <c r="A25" s="173"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="180"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="183" t="s">
+      <c r="B26" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5970,8 +6036,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
-      <c r="B27" s="183"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5998,28 +6064,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="169" t="s">
+      <c r="C30" s="173" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="173" t="s">
+      <c r="D30" s="183" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="173"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="183"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
-      <c r="B32" s="183"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6028,8 +6094,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="183"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6038,8 +6104,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
-      <c r="B34" s="183"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6048,8 +6114,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
-      <c r="B35" s="183"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6058,8 +6124,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
-      <c r="B36" s="183"/>
+      <c r="A36" s="171"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6068,26 +6134,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="174" t="s">
+      <c r="A37" s="171"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="184" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="186" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
-      <c r="B38" s="183"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="176"/>
+      <c r="A38" s="171"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="186"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6098,8 +6164,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="184"/>
-      <c r="B40" s="183"/>
+      <c r="A40" s="169"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6126,10 +6192,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="183" t="s">
+      <c r="B43" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6138,8 +6204,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="185"/>
-      <c r="B44" s="183"/>
+      <c r="A44" s="171"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6148,10 +6214,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="183" t="s">
+      <c r="B45" s="170" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6160,8 +6226,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
-      <c r="B46" s="183"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6170,8 +6236,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
-      <c r="B47" s="183"/>
+      <c r="A47" s="178"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6180,8 +6246,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
-      <c r="B48" s="183"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6190,10 +6256,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="178" t="s">
+      <c r="A49" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="178" t="s">
+      <c r="B49" s="174" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10297,8 +10363,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="178"/>
-      <c r="B50" s="178"/>
+      <c r="A50" s="174"/>
+      <c r="B50" s="174"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14402,8 +14468,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="178"/>
-      <c r="B51" s="178"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="174"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18507,8 +18573,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="178"/>
-      <c r="B52" s="178"/>
+      <c r="A52" s="174"/>
+      <c r="B52" s="174"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22612,12 +22678,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="172" t="s">
+      <c r="A53" s="174"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="173" t="s">
+      <c r="D53" s="183" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26717,10 +26783,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
+      <c r="A54" s="174"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="183"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30838,10 +30904,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="178" t="s">
+      <c r="B57" s="174" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30852,8 +30918,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="177"/>
-      <c r="B58" s="178"/>
+      <c r="A58" s="175"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30862,8 +30928,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="177"/>
-      <c r="B59" s="178"/>
+      <c r="A59" s="175"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30872,8 +30938,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="177"/>
-      <c r="B60" s="178"/>
+      <c r="A60" s="175"/>
+      <c r="B60" s="174"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30882,8 +30948,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="177"/>
-      <c r="B61" s="178"/>
+      <c r="A61" s="175"/>
+      <c r="B61" s="174"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30892,8 +30958,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="177"/>
-      <c r="B62" s="178"/>
+      <c r="A62" s="175"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30902,8 +30968,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="177"/>
-      <c r="B63" s="178"/>
+      <c r="A63" s="175"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30912,16 +30978,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="177"/>
-      <c r="B64" s="178"/>
+      <c r="A64" s="175"/>
+      <c r="B64" s="174"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="177"/>
-      <c r="B65" s="178"/>
+      <c r="A65" s="175"/>
+      <c r="B65" s="174"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30930,16 +30996,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="177"/>
-      <c r="B66" s="178"/>
+      <c r="A66" s="175"/>
+      <c r="B66" s="174"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="177"/>
-      <c r="B67" s="178"/>
+      <c r="A67" s="175"/>
+      <c r="B67" s="174"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30948,8 +31014,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="177"/>
-      <c r="B68" s="178"/>
+      <c r="A68" s="175"/>
+      <c r="B68" s="174"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30958,8 +31024,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="177"/>
-      <c r="B69" s="178"/>
+      <c r="A69" s="175"/>
+      <c r="B69" s="174"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30968,8 +31034,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="177"/>
-      <c r="B70" s="178"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="174"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30978,8 +31044,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="177"/>
-      <c r="B71" s="178"/>
+      <c r="A71" s="175"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30988,8 +31054,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="177"/>
-      <c r="B72" s="178"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30998,16 +31064,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="177"/>
-      <c r="B73" s="178"/>
+      <c r="A73" s="175"/>
+      <c r="B73" s="174"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="177"/>
-      <c r="B74" s="178"/>
+      <c r="A74" s="175"/>
+      <c r="B74" s="174"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31016,18 +31082,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="177"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="171"/>
-      <c r="D75" s="179" t="s">
+      <c r="A75" s="175"/>
+      <c r="B75" s="174"/>
+      <c r="C75" s="181"/>
+      <c r="D75" s="176" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="177"/>
-      <c r="B76" s="178"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="179"/>
+      <c r="A76" s="175"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="181"/>
+      <c r="D76" s="176"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31051,8 +31117,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31061,13 +31127,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31082,22 +31164,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31108,7 +31174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -31151,10 +31217,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="170" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31165,133 +31231,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="194" t="s">
+      <c r="A5" s="169"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="196" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="195" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="193"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="195"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="183"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="183"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="183"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="193" t="s">
+      <c r="C10" s="194"/>
+      <c r="D10" s="195" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="193"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="195"/>
     </row>
     <row r="12" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="193"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="193" t="s">
+      <c r="C13" s="197"/>
+      <c r="D13" s="195" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="193"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="195"/>
     </row>
     <row r="15" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="195"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="197"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="195"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="195"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="197"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="195"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="197"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="195"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="195"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="197"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="195"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="197"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="195"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="197"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="195"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="197"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31389,10 +31455,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="198" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="201" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31403,26 +31469,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="188"/>
-      <c r="B33" s="191"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="202"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="188"/>
-      <c r="B34" s="191"/>
+      <c r="A34" s="199"/>
+      <c r="B34" s="202"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="188"/>
-      <c r="B35" s="191"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="202"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="189"/>
-      <c r="B36" s="192"/>
+      <c r="A36" s="200"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31451,10 +31517,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185" t="s">
+      <c r="A39" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="170" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31465,8 +31531,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="185"/>
-      <c r="B40" s="183"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31475,84 +31541,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="183" t="s">
+      <c r="B41" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="196" t="s">
+      <c r="C41" s="194" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="169" t="s">
+      <c r="D41" s="173" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="184"/>
-      <c r="B42" s="183"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="169"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="173"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="196" t="s">
+      <c r="A43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="194" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="179" t="s">
+      <c r="D43" s="176" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="184"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="179"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="176"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="177" t="s">
+      <c r="A45" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="200"/>
+      <c r="C45" s="190"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="177"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="197" t="s">
+      <c r="A46" s="175"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="187" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="177"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="198"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="188"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="177"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="198"/>
+      <c r="A48" s="175"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="188"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="198"/>
+      <c r="A49" s="175"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="188"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="199"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="189"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31575,10 +31641,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="178" t="s">
+      <c r="B53" s="174" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31589,8 +31655,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
+      <c r="A54" s="174"/>
+      <c r="B54" s="174"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31599,8 +31665,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="174"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31609,9 +31675,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="178"/>
-      <c r="B56" s="178"/>
-      <c r="C56" s="203" t="s">
+      <c r="A56" s="174"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="193" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31619,16 +31685,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="178"/>
-      <c r="B57" s="178"/>
-      <c r="C57" s="203"/>
+      <c r="A57" s="174"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="193"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="178"/>
-      <c r="B58" s="178"/>
+      <c r="A58" s="174"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31637,8 +31703,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="178"/>
-      <c r="B59" s="178"/>
+      <c r="A59" s="174"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31647,9 +31713,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
-      <c r="B60" s="178"/>
-      <c r="C60" s="203" t="s">
+      <c r="A60" s="174"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="193" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31657,25 +31723,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="178"/>
-      <c r="B61" s="178"/>
-      <c r="C61" s="203"/>
+      <c r="A61" s="174"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="193"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="178"/>
-      <c r="B62" s="178"/>
-      <c r="C62" s="203"/>
+      <c r="A62" s="174"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="193"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="178"/>
-      <c r="B63" s="178"/>
-      <c r="C63" s="196" t="s">
+      <c r="A63" s="174"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="194" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31683,30 +31749,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="178"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="196"/>
-      <c r="D64" s="179" t="s">
+      <c r="A64" s="174"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="194"/>
+      <c r="D64" s="176" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="178"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="196"/>
-      <c r="D65" s="179"/>
+      <c r="A65" s="174"/>
+      <c r="B65" s="174"/>
+      <c r="C65" s="194"/>
+      <c r="D65" s="176"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="178"/>
-      <c r="B66" s="178"/>
-      <c r="C66" s="196"/>
-      <c r="D66" s="179"/>
+      <c r="A66" s="174"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="194"/>
+      <c r="D66" s="176"/>
     </row>
     <row r="67" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="178"/>
-      <c r="B67" s="178"/>
-      <c r="C67" s="196"/>
-      <c r="D67" s="179"/>
+      <c r="A67" s="174"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="194"/>
+      <c r="D67" s="176"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31762,6 +31828,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31778,23 +31861,6 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31803,16 +31869,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="235" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
   </cols>
@@ -31831,19 +31897,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="233"/>
       <c r="C2" s="103"/>
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="204" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="204" t="s">
         <v>435</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31854,8 +31920,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="227"/>
-      <c r="B4" s="227"/>
+      <c r="A4" s="205"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="100" t="s">
         <v>438</v>
       </c>
@@ -31864,76 +31930,76 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="228"/>
-      <c r="B5" s="228"/>
+      <c r="A5" s="206"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="100" t="s">
         <v>438</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="144" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="143" t="s">
         <v>482</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="153" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="141" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="142" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="226" t="s">
+      <c r="A7" s="204" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="204" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="141" t="s">
         <v>486</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="142" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="227"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="142" t="s">
+      <c r="A8" s="205"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="141" t="s">
         <v>486</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="142" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="142" t="s">
+      <c r="A9" s="206"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="141" t="s">
         <v>489</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="142" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="127"/>
       <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="212" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C11" s="128" t="s">
@@ -31944,8 +32010,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="211"/>
-      <c r="B12" s="207"/>
+      <c r="A12" s="213"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="128" t="s">
         <v>451</v>
       </c>
@@ -31954,10 +32020,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="207" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="149" t="s">
         <v>432</v>
       </c>
       <c r="C13" s="95" t="s">
@@ -31968,8 +32034,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="210"/>
-      <c r="B14" s="149"/>
+      <c r="A14" s="208"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="106" t="s">
         <v>300</v>
       </c>
@@ -31978,8 +32044,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="210"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="128" t="s">
         <v>281</v>
       </c>
@@ -31988,8 +32054,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="210"/>
-      <c r="B16" s="149"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="128" t="s">
         <v>21</v>
       </c>
@@ -31998,7 +32064,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="210"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="150"/>
       <c r="C17" s="128" t="s">
         <v>449</v>
@@ -32008,8 +32074,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="207"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="209"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="128" t="s">
         <v>436</v>
       </c>
@@ -32018,10 +32084,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="132" t="s">
         <v>453</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="149" t="s">
         <v>432</v>
       </c>
       <c r="C19" s="128" t="s">
@@ -32032,10 +32098,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="212" t="s">
         <v>454</v>
       </c>
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C20" s="128" t="s">
@@ -32046,8 +32112,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="211"/>
-      <c r="B21" s="207"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="128"/>
       <c r="D21" s="106" t="s">
         <v>479</v>
@@ -32057,15 +32123,15 @@
       <c r="A22" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="233"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="231" t="s">
+      <c r="A23" s="214" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="232" t="s">
+      <c r="B23" s="215" t="s">
         <v>432</v>
       </c>
       <c r="C23" s="100" t="s">
@@ -32076,8 +32142,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="231"/>
-      <c r="B24" s="232"/>
+      <c r="A24" s="214"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="100" t="s">
         <v>342</v>
       </c>
@@ -32086,8 +32152,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="231"/>
-      <c r="B25" s="232"/>
+      <c r="A25" s="214"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="100" t="s">
         <v>338</v>
       </c>
@@ -32099,15 +32165,15 @@
       <c r="A26" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="103"/>
+      <c r="B26" s="233"/>
       <c r="C26" s="103"/>
       <c r="D26" s="104"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="208" t="s">
+      <c r="A27" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="206" t="s">
+      <c r="B27" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C27" s="106"/>
@@ -32116,8 +32182,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="209"/>
-      <c r="B28" s="210"/>
+      <c r="A28" s="221"/>
+      <c r="B28" s="208"/>
       <c r="C28" s="70" t="s">
         <v>234</v>
       </c>
@@ -32126,9 +32192,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="209"/>
-      <c r="B29" s="210"/>
-      <c r="C29" s="141" t="s">
+      <c r="A29" s="221"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="140" t="s">
         <v>445</v>
       </c>
       <c r="D29" s="107" t="s">
@@ -32136,19 +32202,19 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="209"/>
-      <c r="B30" s="210"/>
-      <c r="C30" s="140" t="s">
+      <c r="A30" s="221"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="139" t="s">
         <v>480</v>
       </c>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="135" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="209"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="153" t="s">
+      <c r="A31" s="221"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="147" t="s">
         <v>491</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -32156,9 +32222,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="209"/>
-      <c r="B32" s="210"/>
-      <c r="C32" s="153" t="s">
+      <c r="A32" s="221"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="147" t="s">
         <v>480</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -32166,10 +32232,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="208" t="s">
+      <c r="A33" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="206" t="s">
+      <c r="B33" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -32180,8 +32246,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
-      <c r="B34" s="210"/>
+      <c r="A34" s="221"/>
+      <c r="B34" s="208"/>
       <c r="C34" s="131" t="s">
         <v>467</v>
       </c>
@@ -32190,9 +32256,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="211"/>
-      <c r="B35" s="207"/>
-      <c r="C35" s="137" t="s">
+      <c r="A35" s="213"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="136" t="s">
         <v>457</v>
       </c>
       <c r="D35" s="129" t="s">
@@ -32203,7 +32269,7 @@
       <c r="A36" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C36" s="70" t="s">
@@ -32217,7 +32283,7 @@
       <c r="A37" s="108" t="s">
         <v>372</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -32231,7 +32297,7 @@
       <c r="A38" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C38" s="70"/>
@@ -32240,10 +32306,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="222" t="s">
+      <c r="A39" s="217" t="s">
         <v>270</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="216" t="s">
         <v>432</v>
       </c>
       <c r="C39" s="106"/>
@@ -32252,8 +32318,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="222"/>
-      <c r="B40" s="223"/>
+      <c r="A40" s="217"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="106" t="s">
         <v>494</v>
       </c>
@@ -32262,16 +32328,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="222"/>
-      <c r="B41" s="223"/>
+      <c r="A41" s="217"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="106"/>
       <c r="D41" s="106" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="222"/>
-      <c r="B42" s="223"/>
+      <c r="A42" s="217"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="110" t="s">
         <v>320</v>
       </c>
@@ -32280,8 +32346,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="222"/>
-      <c r="B43" s="223"/>
+      <c r="A43" s="217"/>
+      <c r="B43" s="216"/>
       <c r="C43" s="111" t="s">
         <v>399</v>
       </c>
@@ -32293,7 +32359,7 @@
       <c r="A44" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C44" s="111" t="s">
@@ -32302,10 +32368,10 @@
       <c r="D44" s="106"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="229" t="s">
+      <c r="A45" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="206" t="s">
+      <c r="B45" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C45" s="106"/>
@@ -32314,8 +32380,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="230"/>
-      <c r="B46" s="210"/>
+      <c r="A46" s="211"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="111" t="s">
         <v>356</v>
       </c>
@@ -32324,8 +32390,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="230"/>
-      <c r="B47" s="210"/>
+      <c r="A47" s="211"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="111" t="s">
         <v>354</v>
       </c>
@@ -32334,8 +32400,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="230"/>
-      <c r="B48" s="210"/>
+      <c r="A48" s="211"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="114" t="s">
         <v>362</v>
       </c>
@@ -32344,8 +32410,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="230"/>
-      <c r="B49" s="210"/>
+      <c r="A49" s="211"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="111" t="s">
         <v>354</v>
       </c>
@@ -32354,8 +32420,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="230"/>
-      <c r="B50" s="210"/>
+      <c r="A50" s="211"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="111" t="s">
         <v>366</v>
       </c>
@@ -32364,8 +32430,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="230"/>
-      <c r="B51" s="210"/>
+      <c r="A51" s="211"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="111" t="s">
         <v>354</v>
       </c>
@@ -32374,8 +32440,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="230"/>
-      <c r="B52" s="210"/>
+      <c r="A52" s="211"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="130" t="s">
         <v>461</v>
       </c>
@@ -32384,8 +32450,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="230"/>
-      <c r="B53" s="210"/>
+      <c r="A53" s="211"/>
+      <c r="B53" s="208"/>
       <c r="C53" s="130" t="s">
         <v>456</v>
       </c>
@@ -32394,8 +32460,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="230"/>
-      <c r="B54" s="210"/>
+      <c r="A54" s="211"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="130" t="s">
         <v>354</v>
       </c>
@@ -32404,8 +32470,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="230"/>
-      <c r="B55" s="210"/>
+      <c r="A55" s="211"/>
+      <c r="B55" s="208"/>
       <c r="C55" s="130" t="s">
         <v>456</v>
       </c>
@@ -32414,29 +32480,29 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="230"/>
-      <c r="B56" s="210"/>
-      <c r="C56" s="151" t="s">
+      <c r="A56" s="211"/>
+      <c r="B56" s="208"/>
+      <c r="C56" s="145" t="s">
         <v>354</v>
       </c>
-      <c r="D56" s="136" t="s">
+      <c r="D56" s="135" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="230"/>
-      <c r="B57" s="210"/>
-      <c r="C57" s="151" t="s">
+      <c r="A57" s="211"/>
+      <c r="B57" s="208"/>
+      <c r="C57" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D57" s="136" t="s">
+      <c r="D57" s="135" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="230"/>
-      <c r="B58" s="210"/>
-      <c r="C58" s="153" t="s">
+      <c r="A58" s="211"/>
+      <c r="B58" s="208"/>
+      <c r="C58" s="147" t="s">
         <v>491</v>
       </c>
       <c r="D58" s="58" t="s">
@@ -32444,9 +32510,9 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="230"/>
-      <c r="B59" s="210"/>
-      <c r="C59" s="153" t="s">
+      <c r="A59" s="211"/>
+      <c r="B59" s="208"/>
+      <c r="C59" s="147" t="s">
         <v>480</v>
       </c>
       <c r="D59" s="58" t="s">
@@ -32457,7 +32523,7 @@
       <c r="A60" s="115" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C60" s="111" t="s">
@@ -32471,7 +32537,7 @@
       <c r="A61" s="115" t="s">
         <v>346</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C61" s="111" t="s">
@@ -32480,10 +32546,10 @@
       <c r="D61" s="112"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="204" t="s">
+      <c r="A62" s="218" t="s">
         <v>364</v>
       </c>
-      <c r="B62" s="206" t="s">
+      <c r="B62" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C62" s="111" t="s">
@@ -32492,8 +32558,8 @@
       <c r="D62" s="112"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="205"/>
-      <c r="B63" s="207"/>
+      <c r="A63" s="232"/>
+      <c r="B63" s="209"/>
       <c r="C63" s="111" t="s">
         <v>399</v>
       </c>
@@ -32505,15 +32571,15 @@
       <c r="A64" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="103"/>
+      <c r="B64" s="233"/>
       <c r="C64" s="103"/>
       <c r="D64" s="103"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="204" t="s">
+      <c r="A65" s="218" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="206" t="s">
+      <c r="B65" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C65" s="106"/>
@@ -32522,24 +32588,24 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="212"/>
-      <c r="B66" s="210"/>
+      <c r="A66" s="219"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="106"/>
       <c r="D66" s="106" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="212"/>
-      <c r="B67" s="210"/>
+      <c r="A67" s="219"/>
+      <c r="B67" s="208"/>
       <c r="C67" s="106"/>
       <c r="D67" s="106" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="212"/>
-      <c r="B68" s="210"/>
+      <c r="A68" s="219"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="106" t="s">
         <v>295</v>
       </c>
@@ -32548,8 +32614,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="212"/>
-      <c r="B69" s="210"/>
+      <c r="A69" s="219"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="106" t="s">
         <v>323</v>
       </c>
@@ -32558,8 +32624,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="212"/>
-      <c r="B70" s="210"/>
+      <c r="A70" s="219"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="106" t="s">
         <v>368</v>
       </c>
@@ -32568,8 +32634,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="212"/>
-      <c r="B71" s="210"/>
+      <c r="A71" s="219"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="61" t="s">
         <v>472</v>
       </c>
@@ -32578,8 +32644,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="212"/>
-      <c r="B72" s="210"/>
+      <c r="A72" s="219"/>
+      <c r="B72" s="208"/>
       <c r="C72" s="58" t="s">
         <v>37</v>
       </c>
@@ -32588,9 +32654,9 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="212"/>
-      <c r="B73" s="210"/>
-      <c r="C73" s="138" t="s">
+      <c r="A73" s="219"/>
+      <c r="B73" s="208"/>
+      <c r="C73" s="137" t="s">
         <v>354</v>
       </c>
       <c r="D73" s="58" t="s">
@@ -32598,9 +32664,9 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="212"/>
-      <c r="B74" s="210"/>
-      <c r="C74" s="138" t="s">
+      <c r="A74" s="219"/>
+      <c r="B74" s="208"/>
+      <c r="C74" s="137" t="s">
         <v>456</v>
       </c>
       <c r="D74" s="58" t="s">
@@ -32608,19 +32674,19 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="212"/>
-      <c r="B75" s="210"/>
-      <c r="C75" s="138" t="s">
+      <c r="A75" s="219"/>
+      <c r="B75" s="208"/>
+      <c r="C75" s="137" t="s">
         <v>480</v>
       </c>
-      <c r="D75" s="136" t="s">
+      <c r="D75" s="135" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="212"/>
-      <c r="B76" s="210"/>
-      <c r="C76" s="152" t="s">
+      <c r="A76" s="219"/>
+      <c r="B76" s="208"/>
+      <c r="C76" s="146" t="s">
         <v>491</v>
       </c>
       <c r="D76" s="58" t="s">
@@ -32628,9 +32694,9 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="212"/>
-      <c r="B77" s="210"/>
-      <c r="C77" s="152" t="s">
+      <c r="A77" s="219"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="146" t="s">
         <v>480</v>
       </c>
       <c r="D77" s="58" t="s">
@@ -32638,10 +32704,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="213" t="s">
+      <c r="A78" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="206" t="s">
+      <c r="B78" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C78" s="106" t="s">
@@ -32652,16 +32718,16 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="214"/>
-      <c r="B79" s="210"/>
+      <c r="A79" s="223"/>
+      <c r="B79" s="208"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="214"/>
-      <c r="B80" s="210"/>
+      <c r="A80" s="223"/>
+      <c r="B80" s="208"/>
       <c r="C80" s="116" t="s">
         <v>324</v>
       </c>
@@ -32670,8 +32736,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="214"/>
-      <c r="B81" s="210"/>
+      <c r="A81" s="223"/>
+      <c r="B81" s="208"/>
       <c r="C81" s="116" t="s">
         <v>494</v>
       </c>
@@ -32680,8 +32746,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="214"/>
-      <c r="B82" s="210"/>
+      <c r="A82" s="223"/>
+      <c r="B82" s="208"/>
       <c r="C82" s="116" t="s">
         <v>354</v>
       </c>
@@ -32690,8 +32756,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="214"/>
-      <c r="B83" s="210"/>
+      <c r="A83" s="223"/>
+      <c r="B83" s="208"/>
       <c r="C83" s="116" t="s">
         <v>362</v>
       </c>
@@ -32700,8 +32766,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="214"/>
-      <c r="B84" s="210"/>
+      <c r="A84" s="223"/>
+      <c r="B84" s="208"/>
       <c r="C84" s="116" t="s">
         <v>366</v>
       </c>
@@ -32710,8 +32776,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="214"/>
-      <c r="B85" s="210"/>
+      <c r="A85" s="223"/>
+      <c r="B85" s="208"/>
       <c r="C85" s="116" t="s">
         <v>376</v>
       </c>
@@ -32720,8 +32786,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="214"/>
-      <c r="B86" s="210"/>
+      <c r="A86" s="223"/>
+      <c r="B86" s="208"/>
       <c r="C86" s="108" t="s">
         <v>354</v>
       </c>
@@ -32730,9 +32796,9 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="214"/>
-      <c r="B87" s="210"/>
-      <c r="C87" s="138" t="s">
+      <c r="A87" s="223"/>
+      <c r="B87" s="208"/>
+      <c r="C87" s="137" t="s">
         <v>461</v>
       </c>
       <c r="D87" s="58" t="s">
@@ -32740,9 +32806,9 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="214"/>
-      <c r="B88" s="210"/>
-      <c r="C88" s="138" t="s">
+      <c r="A88" s="223"/>
+      <c r="B88" s="208"/>
+      <c r="C88" s="137" t="s">
         <v>456</v>
       </c>
       <c r="D88" s="58" t="s">
@@ -32750,9 +32816,9 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="214"/>
-      <c r="B89" s="210"/>
-      <c r="C89" s="138" t="s">
+      <c r="A89" s="223"/>
+      <c r="B89" s="208"/>
+      <c r="C89" s="137" t="s">
         <v>354</v>
       </c>
       <c r="D89" s="58" t="s">
@@ -32760,9 +32826,9 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="214"/>
-      <c r="B90" s="210"/>
-      <c r="C90" s="138" t="s">
+      <c r="A90" s="223"/>
+      <c r="B90" s="208"/>
+      <c r="C90" s="137" t="s">
         <v>456</v>
       </c>
       <c r="D90" s="58" t="s">
@@ -32770,9 +32836,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="214"/>
-      <c r="B91" s="210"/>
-      <c r="C91" s="138" t="s">
+      <c r="A91" s="223"/>
+      <c r="B91" s="208"/>
+      <c r="C91" s="137" t="s">
         <v>368</v>
       </c>
       <c r="D91" s="58" t="s">
@@ -32780,29 +32846,29 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="214"/>
-      <c r="B92" s="210"/>
-      <c r="C92" s="138" t="s">
+      <c r="A92" s="223"/>
+      <c r="B92" s="208"/>
+      <c r="C92" s="137" t="s">
         <v>354</v>
       </c>
-      <c r="D92" s="136" t="s">
+      <c r="D92" s="135" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="214"/>
-      <c r="B93" s="210"/>
-      <c r="C93" s="138" t="s">
+      <c r="A93" s="223"/>
+      <c r="B93" s="208"/>
+      <c r="C93" s="137" t="s">
         <v>480</v>
       </c>
-      <c r="D93" s="136" t="s">
+      <c r="D93" s="135" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="214"/>
-      <c r="B94" s="210"/>
-      <c r="C94" s="152" t="s">
+      <c r="A94" s="223"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="146" t="s">
         <v>491</v>
       </c>
       <c r="D94" s="58" t="s">
@@ -32810,9 +32876,9 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="215"/>
-      <c r="B95" s="207"/>
-      <c r="C95" s="152" t="s">
+      <c r="A95" s="224"/>
+      <c r="B95" s="209"/>
+      <c r="C95" s="146" t="s">
         <v>480</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -32820,13 +32886,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="208" t="s">
+      <c r="A96" s="212" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="206" t="s">
+      <c r="B96" s="207" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="224" t="s">
+      <c r="C96" s="225" t="s">
         <v>238</v>
       </c>
       <c r="D96" s="96" t="s">
@@ -32834,17 +32900,17 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="209"/>
-      <c r="B97" s="210"/>
-      <c r="C97" s="225"/>
+      <c r="A97" s="221"/>
+      <c r="B97" s="208"/>
+      <c r="C97" s="226"/>
       <c r="D97" s="112" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="209"/>
-      <c r="B98" s="210"/>
-      <c r="C98" s="221" t="s">
+      <c r="A98" s="221"/>
+      <c r="B98" s="208"/>
+      <c r="C98" s="220" t="s">
         <v>239</v>
       </c>
       <c r="D98" s="106" t="s">
@@ -32852,16 +32918,16 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="209"/>
-      <c r="B99" s="210"/>
-      <c r="C99" s="221"/>
+      <c r="A99" s="221"/>
+      <c r="B99" s="208"/>
+      <c r="C99" s="220"/>
       <c r="D99" s="118" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="209"/>
-      <c r="B100" s="210"/>
+      <c r="A100" s="221"/>
+      <c r="B100" s="208"/>
       <c r="C100" s="111" t="s">
         <v>302</v>
       </c>
@@ -32870,8 +32936,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="209"/>
-      <c r="B101" s="210"/>
+      <c r="A101" s="221"/>
+      <c r="B101" s="208"/>
       <c r="C101" s="111">
         <v>2.1</v>
       </c>
@@ -32880,8 +32946,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="209"/>
-      <c r="B102" s="210"/>
+      <c r="A102" s="221"/>
+      <c r="B102" s="208"/>
       <c r="C102" s="111" t="s">
         <v>238</v>
       </c>
@@ -32890,8 +32956,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="209"/>
-      <c r="B103" s="210"/>
+      <c r="A103" s="221"/>
+      <c r="B103" s="208"/>
       <c r="C103" s="111" t="s">
         <v>238</v>
       </c>
@@ -32900,8 +32966,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="209"/>
-      <c r="B104" s="210"/>
+      <c r="A104" s="221"/>
+      <c r="B104" s="208"/>
       <c r="C104" s="111" t="s">
         <v>238</v>
       </c>
@@ -32910,8 +32976,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="209"/>
-      <c r="B105" s="210"/>
+      <c r="A105" s="221"/>
+      <c r="B105" s="208"/>
       <c r="C105" s="119" t="s">
         <v>373</v>
       </c>
@@ -32920,8 +32986,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="209"/>
-      <c r="B106" s="210"/>
+      <c r="A106" s="221"/>
+      <c r="B106" s="208"/>
       <c r="C106" s="111">
         <v>2.1</v>
       </c>
@@ -32930,8 +32996,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="209"/>
-      <c r="B107" s="210"/>
+      <c r="A107" s="221"/>
+      <c r="B107" s="208"/>
       <c r="C107" s="111" t="s">
         <v>238</v>
       </c>
@@ -32940,8 +33006,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="209"/>
-      <c r="B108" s="210"/>
+      <c r="A108" s="221"/>
+      <c r="B108" s="208"/>
       <c r="C108" s="111" t="s">
         <v>238</v>
       </c>
@@ -32950,8 +33016,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="209"/>
-      <c r="B109" s="210"/>
+      <c r="A109" s="221"/>
+      <c r="B109" s="208"/>
       <c r="C109" s="111">
         <v>2.1</v>
       </c>
@@ -32960,10 +33026,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="213" t="s">
+      <c r="A110" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="B110" s="206" t="s">
+      <c r="B110" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C110" s="106" t="s">
@@ -32974,8 +33040,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="214"/>
-      <c r="B111" s="210"/>
+      <c r="A111" s="223"/>
+      <c r="B111" s="208"/>
       <c r="C111" s="106" t="s">
         <v>494</v>
       </c>
@@ -32984,8 +33050,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="214"/>
-      <c r="B112" s="210"/>
+      <c r="A112" s="223"/>
+      <c r="B112" s="208"/>
       <c r="C112" s="118" t="s">
         <v>276</v>
       </c>
@@ -32994,8 +33060,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="215"/>
-      <c r="B113" s="207"/>
+      <c r="A113" s="224"/>
+      <c r="B113" s="209"/>
       <c r="C113" s="106" t="s">
         <v>345</v>
       </c>
@@ -33004,10 +33070,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="204" t="s">
+      <c r="A114" s="218" t="s">
         <v>365</v>
       </c>
-      <c r="B114" s="206" t="s">
+      <c r="B114" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C114" s="111" t="s">
@@ -33016,8 +33082,8 @@
       <c r="D114" s="106"/>
     </row>
     <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="212"/>
-      <c r="B115" s="210"/>
+      <c r="A115" s="219"/>
+      <c r="B115" s="208"/>
       <c r="C115" s="111" t="s">
         <v>373</v>
       </c>
@@ -33026,8 +33092,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="212"/>
-      <c r="B116" s="210"/>
+      <c r="A116" s="219"/>
+      <c r="B116" s="208"/>
       <c r="C116" s="111">
         <v>2.1</v>
       </c>
@@ -33036,8 +33102,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="212"/>
-      <c r="B117" s="210"/>
+      <c r="A117" s="219"/>
+      <c r="B117" s="208"/>
       <c r="C117" s="111" t="s">
         <v>239</v>
       </c>
@@ -33046,8 +33112,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="212"/>
-      <c r="B118" s="210"/>
+      <c r="A118" s="219"/>
+      <c r="B118" s="208"/>
       <c r="C118" s="111" t="s">
         <v>238</v>
       </c>
@@ -33059,7 +33125,7 @@
       <c r="A119" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="103"/>
+      <c r="B119" s="233"/>
       <c r="C119" s="103"/>
       <c r="D119" s="104"/>
     </row>
@@ -33076,10 +33142,10 @@
       <c r="D120" s="112"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="208" t="s">
+      <c r="A121" s="212" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="206" t="s">
+      <c r="B121" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C121" s="106"/>
@@ -33088,24 +33154,24 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="209"/>
-      <c r="B122" s="210"/>
+      <c r="A122" s="221"/>
+      <c r="B122" s="208"/>
       <c r="C122" s="106"/>
       <c r="D122" s="106" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="209"/>
-      <c r="B123" s="210"/>
+      <c r="A123" s="221"/>
+      <c r="B123" s="208"/>
       <c r="C123" s="106"/>
       <c r="D123" s="112" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="209"/>
-      <c r="B124" s="210"/>
+      <c r="A124" s="221"/>
+      <c r="B124" s="208"/>
       <c r="C124" s="106" t="s">
         <v>419</v>
       </c>
@@ -33114,8 +33180,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="209"/>
-      <c r="B125" s="210"/>
+      <c r="A125" s="221"/>
+      <c r="B125" s="208"/>
       <c r="C125" s="106" t="s">
         <v>424</v>
       </c>
@@ -33124,8 +33190,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="209"/>
-      <c r="B126" s="210"/>
+      <c r="A126" s="221"/>
+      <c r="B126" s="208"/>
       <c r="C126" s="58" t="s">
         <v>474</v>
       </c>
@@ -33134,8 +33200,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="209"/>
-      <c r="B127" s="210"/>
+      <c r="A127" s="221"/>
+      <c r="B127" s="208"/>
       <c r="C127" s="58" t="s">
         <v>480</v>
       </c>
@@ -33144,10 +33210,10 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="222" t="s">
+      <c r="A128" s="217" t="s">
         <v>329</v>
       </c>
-      <c r="B128" s="223" t="s">
+      <c r="B128" s="216" t="s">
         <v>432</v>
       </c>
       <c r="C128" s="80" t="s">
@@ -33158,8 +33224,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="222"/>
-      <c r="B129" s="223"/>
+      <c r="A129" s="217"/>
+      <c r="B129" s="216"/>
       <c r="C129" s="106" t="s">
         <v>406</v>
       </c>
@@ -33168,43 +33234,43 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="222"/>
-      <c r="B130" s="223"/>
+      <c r="A130" s="217"/>
+      <c r="B130" s="216"/>
       <c r="C130" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="204" t="s">
+      <c r="D130" s="218" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="222"/>
-      <c r="B131" s="223"/>
+      <c r="A131" s="217"/>
+      <c r="B131" s="216"/>
       <c r="C131" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="D131" s="212"/>
+      <c r="D131" s="219"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="222"/>
-      <c r="B132" s="223"/>
+      <c r="A132" s="217"/>
+      <c r="B132" s="216"/>
       <c r="C132" s="121" t="s">
         <v>411</v>
       </c>
-      <c r="D132" s="212"/>
+      <c r="D132" s="219"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="222"/>
-      <c r="B133" s="223"/>
+      <c r="A133" s="217"/>
+      <c r="B133" s="216"/>
       <c r="C133" s="121" t="s">
         <v>412</v>
       </c>
-      <c r="D133" s="212"/>
+      <c r="D133" s="219"/>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="222"/>
-      <c r="B134" s="223"/>
-      <c r="C134" s="139" t="s">
+      <c r="A134" s="217"/>
+      <c r="B134" s="216"/>
+      <c r="C134" s="138" t="s">
         <v>475</v>
       </c>
       <c r="D134" s="67" t="s">
@@ -33226,10 +33292,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="216" t="s">
+      <c r="A136" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="B136" s="206" t="s">
+      <c r="B136" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C136" s="106" t="s">
@@ -33240,8 +33306,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="217"/>
-      <c r="B137" s="210"/>
+      <c r="A137" s="230"/>
+      <c r="B137" s="208"/>
       <c r="C137" s="106" t="s">
         <v>265</v>
       </c>
@@ -33250,8 +33316,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="217"/>
-      <c r="B138" s="210"/>
+      <c r="A138" s="230"/>
+      <c r="B138" s="208"/>
       <c r="C138" s="106" t="s">
         <v>264</v>
       </c>
@@ -33260,8 +33326,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="217"/>
-      <c r="B139" s="210"/>
+      <c r="A139" s="230"/>
+      <c r="B139" s="208"/>
       <c r="C139" s="112" t="s">
         <v>272</v>
       </c>
@@ -33270,8 +33336,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="217"/>
-      <c r="B140" s="210"/>
+      <c r="A140" s="230"/>
+      <c r="B140" s="208"/>
       <c r="C140" s="106" t="s">
         <v>277</v>
       </c>
@@ -33280,8 +33346,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="217"/>
-      <c r="B141" s="210"/>
+      <c r="A141" s="230"/>
+      <c r="B141" s="208"/>
       <c r="C141" s="106" t="s">
         <v>278</v>
       </c>
@@ -33290,8 +33356,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="217"/>
-      <c r="B142" s="210"/>
+      <c r="A142" s="230"/>
+      <c r="B142" s="208"/>
       <c r="C142" s="112" t="s">
         <v>283</v>
       </c>
@@ -33300,8 +33366,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="217"/>
-      <c r="B143" s="210"/>
+      <c r="A143" s="230"/>
+      <c r="B143" s="208"/>
       <c r="C143" s="112" t="s">
         <v>297</v>
       </c>
@@ -33310,8 +33376,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="217"/>
-      <c r="B144" s="210"/>
+      <c r="A144" s="230"/>
+      <c r="B144" s="208"/>
       <c r="C144" s="112" t="s">
         <v>284</v>
       </c>
@@ -33320,8 +33386,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="217"/>
-      <c r="B145" s="210"/>
+      <c r="A145" s="230"/>
+      <c r="B145" s="208"/>
       <c r="C145" s="122" t="s">
         <v>243</v>
       </c>
@@ -33330,8 +33396,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="217"/>
-      <c r="B146" s="210"/>
+      <c r="A146" s="230"/>
+      <c r="B146" s="208"/>
       <c r="C146" s="116" t="s">
         <v>306</v>
       </c>
@@ -33340,8 +33406,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="217"/>
-      <c r="B147" s="210"/>
+      <c r="A147" s="230"/>
+      <c r="B147" s="208"/>
       <c r="C147" s="106" t="s">
         <v>307</v>
       </c>
@@ -33350,8 +33416,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="217"/>
-      <c r="B148" s="210"/>
+      <c r="A148" s="230"/>
+      <c r="B148" s="208"/>
       <c r="C148" s="112" t="s">
         <v>308</v>
       </c>
@@ -33360,8 +33426,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="217"/>
-      <c r="B149" s="210"/>
+      <c r="A149" s="230"/>
+      <c r="B149" s="208"/>
       <c r="C149" s="112" t="s">
         <v>310</v>
       </c>
@@ -33370,8 +33436,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="217"/>
-      <c r="B150" s="210"/>
+      <c r="A150" s="230"/>
+      <c r="B150" s="208"/>
       <c r="C150" s="112" t="s">
         <v>263</v>
       </c>
@@ -33380,8 +33446,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="217"/>
-      <c r="B151" s="210"/>
+      <c r="A151" s="230"/>
+      <c r="B151" s="208"/>
       <c r="C151" s="106" t="s">
         <v>313</v>
       </c>
@@ -33390,8 +33456,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="217"/>
-      <c r="B152" s="210"/>
+      <c r="A152" s="230"/>
+      <c r="B152" s="208"/>
       <c r="C152" s="112" t="s">
         <v>278</v>
       </c>
@@ -33400,8 +33466,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="217"/>
-      <c r="B153" s="210"/>
+      <c r="A153" s="230"/>
+      <c r="B153" s="208"/>
       <c r="C153" s="112" t="s">
         <v>314</v>
       </c>
@@ -33410,16 +33476,16 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="217"/>
-      <c r="B154" s="210"/>
+      <c r="A154" s="230"/>
+      <c r="B154" s="208"/>
       <c r="C154" s="106"/>
       <c r="D154" s="97" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="217"/>
-      <c r="B155" s="210"/>
+      <c r="A155" s="230"/>
+      <c r="B155" s="208"/>
       <c r="C155" s="112" t="s">
         <v>317</v>
       </c>
@@ -33428,8 +33494,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="217"/>
-      <c r="B156" s="210"/>
+      <c r="A156" s="230"/>
+      <c r="B156" s="208"/>
       <c r="C156" s="112" t="s">
         <v>263</v>
       </c>
@@ -33438,8 +33504,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="217"/>
-      <c r="B157" s="210"/>
+      <c r="A157" s="230"/>
+      <c r="B157" s="208"/>
       <c r="C157" s="112" t="s">
         <v>334</v>
       </c>
@@ -33448,8 +33514,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="217"/>
-      <c r="B158" s="210"/>
+      <c r="A158" s="230"/>
+      <c r="B158" s="208"/>
       <c r="C158" s="112" t="s">
         <v>335</v>
       </c>
@@ -33458,8 +33524,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="217"/>
-      <c r="B159" s="210"/>
+      <c r="A159" s="230"/>
+      <c r="B159" s="208"/>
       <c r="C159" s="112" t="s">
         <v>319</v>
       </c>
@@ -33468,8 +33534,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="217"/>
-      <c r="B160" s="210"/>
+      <c r="A160" s="230"/>
+      <c r="B160" s="208"/>
       <c r="C160" s="117" t="s">
         <v>340</v>
       </c>
@@ -33478,8 +33544,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="217"/>
-      <c r="B161" s="210"/>
+      <c r="A161" s="230"/>
+      <c r="B161" s="208"/>
       <c r="C161" s="112" t="s">
         <v>333</v>
       </c>
@@ -33488,8 +33554,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="217"/>
-      <c r="B162" s="210"/>
+      <c r="A162" s="230"/>
+      <c r="B162" s="208"/>
       <c r="C162" s="112" t="s">
         <v>348</v>
       </c>
@@ -33498,8 +33564,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="217"/>
-      <c r="B163" s="210"/>
+      <c r="A163" s="230"/>
+      <c r="B163" s="208"/>
       <c r="C163" s="101" t="s">
         <v>351</v>
       </c>
@@ -33508,8 +33574,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="217"/>
-      <c r="B164" s="210"/>
+      <c r="A164" s="230"/>
+      <c r="B164" s="208"/>
       <c r="C164" s="112" t="s">
         <v>352</v>
       </c>
@@ -33518,8 +33584,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="217"/>
-      <c r="B165" s="210"/>
+      <c r="A165" s="230"/>
+      <c r="B165" s="208"/>
       <c r="C165" s="112" t="s">
         <v>353</v>
       </c>
@@ -33528,8 +33594,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="217"/>
-      <c r="B166" s="210"/>
+      <c r="A166" s="230"/>
+      <c r="B166" s="208"/>
       <c r="C166" s="112" t="s">
         <v>359</v>
       </c>
@@ -33538,8 +33604,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="217"/>
-      <c r="B167" s="210"/>
+      <c r="A167" s="230"/>
+      <c r="B167" s="208"/>
       <c r="C167" s="112" t="s">
         <v>361</v>
       </c>
@@ -33548,8 +33614,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="217"/>
-      <c r="B168" s="210"/>
+      <c r="A168" s="230"/>
+      <c r="B168" s="208"/>
       <c r="C168" s="112" t="s">
         <v>367</v>
       </c>
@@ -33558,8 +33624,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="217"/>
-      <c r="B169" s="210"/>
+      <c r="A169" s="230"/>
+      <c r="B169" s="208"/>
       <c r="C169" s="112" t="s">
         <v>359</v>
       </c>
@@ -33568,8 +33634,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="217"/>
-      <c r="B170" s="210"/>
+      <c r="A170" s="230"/>
+      <c r="B170" s="208"/>
       <c r="C170" s="117" t="s">
         <v>380</v>
       </c>
@@ -33578,8 +33644,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="217"/>
-      <c r="B171" s="210"/>
+      <c r="A171" s="230"/>
+      <c r="B171" s="208"/>
       <c r="C171" s="106" t="s">
         <v>384</v>
       </c>
@@ -33588,8 +33654,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="217"/>
-      <c r="B172" s="210"/>
+      <c r="A172" s="230"/>
+      <c r="B172" s="208"/>
       <c r="C172" s="106" t="s">
         <v>387</v>
       </c>
@@ -33598,8 +33664,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="217"/>
-      <c r="B173" s="210"/>
+      <c r="A173" s="230"/>
+      <c r="B173" s="208"/>
       <c r="C173" s="106" t="s">
         <v>388</v>
       </c>
@@ -33608,8 +33674,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="217"/>
-      <c r="B174" s="210"/>
+      <c r="A174" s="230"/>
+      <c r="B174" s="208"/>
       <c r="C174" s="106" t="s">
         <v>389</v>
       </c>
@@ -33618,8 +33684,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="217"/>
-      <c r="B175" s="210"/>
+      <c r="A175" s="230"/>
+      <c r="B175" s="208"/>
       <c r="C175" s="106" t="s">
         <v>390</v>
       </c>
@@ -33628,8 +33694,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="217"/>
-      <c r="B176" s="210"/>
+      <c r="A176" s="230"/>
+      <c r="B176" s="208"/>
       <c r="C176" s="106" t="s">
         <v>391</v>
       </c>
@@ -33638,8 +33704,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="217"/>
-      <c r="B177" s="210"/>
+      <c r="A177" s="230"/>
+      <c r="B177" s="208"/>
       <c r="C177" s="106" t="s">
         <v>394</v>
       </c>
@@ -33648,8 +33714,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="217"/>
-      <c r="B178" s="210"/>
+      <c r="A178" s="230"/>
+      <c r="B178" s="208"/>
       <c r="C178" s="106" t="s">
         <v>404</v>
       </c>
@@ -33658,8 +33724,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="217"/>
-      <c r="B179" s="210"/>
+      <c r="A179" s="230"/>
+      <c r="B179" s="208"/>
       <c r="C179" s="106" t="s">
         <v>405</v>
       </c>
@@ -33668,8 +33734,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="217"/>
-      <c r="B180" s="210"/>
+      <c r="A180" s="230"/>
+      <c r="B180" s="208"/>
       <c r="C180" s="106" t="s">
         <v>422</v>
       </c>
@@ -33678,8 +33744,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="217"/>
-      <c r="B181" s="210"/>
+      <c r="A181" s="230"/>
+      <c r="B181" s="208"/>
       <c r="C181" s="106" t="s">
         <v>423</v>
       </c>
@@ -33688,8 +33754,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="217"/>
-      <c r="B182" s="210"/>
+      <c r="A182" s="230"/>
+      <c r="B182" s="208"/>
       <c r="C182" s="106" t="s">
         <v>426</v>
       </c>
@@ -33698,8 +33764,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="217"/>
-      <c r="B183" s="210"/>
+      <c r="A183" s="230"/>
+      <c r="B183" s="208"/>
       <c r="C183" s="58" t="s">
         <v>477</v>
       </c>
@@ -33708,8 +33774,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="217"/>
-      <c r="B184" s="210"/>
+      <c r="A184" s="230"/>
+      <c r="B184" s="208"/>
       <c r="C184" s="106" t="s">
         <v>422</v>
       </c>
@@ -33718,8 +33784,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="217"/>
-      <c r="B185" s="210"/>
+      <c r="A185" s="230"/>
+      <c r="B185" s="208"/>
       <c r="C185" s="106" t="s">
         <v>476</v>
       </c>
@@ -33728,8 +33794,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="218"/>
-      <c r="B186" s="207"/>
+      <c r="A186" s="231"/>
+      <c r="B186" s="209"/>
       <c r="C186" s="112" t="s">
         <v>333</v>
       </c>
@@ -33738,10 +33804,10 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="216" t="s">
+      <c r="A187" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="B187" s="206" t="s">
+      <c r="B187" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C187" s="106" t="s">
@@ -33752,8 +33818,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="217"/>
-      <c r="B188" s="210"/>
+      <c r="A188" s="230"/>
+      <c r="B188" s="208"/>
       <c r="C188" s="58" t="s">
         <v>478</v>
       </c>
@@ -33762,8 +33828,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="218"/>
-      <c r="B189" s="207"/>
+      <c r="A189" s="231"/>
+      <c r="B189" s="209"/>
       <c r="C189" s="58" t="s">
         <v>483</v>
       </c>
@@ -33775,7 +33841,7 @@
       <c r="A190" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="B190" s="70" t="s">
+      <c r="B190" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C190" s="106" t="s">
@@ -33789,7 +33855,7 @@
       <c r="A191" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="B191" s="70" t="s">
+      <c r="B191" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C191" s="106" t="s">
@@ -33803,15 +33869,15 @@
       <c r="A192" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B192" s="103"/>
+      <c r="B192" s="233"/>
       <c r="C192" s="103"/>
       <c r="D192" s="104"/>
     </row>
     <row r="193" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="208" t="s">
+      <c r="A193" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="B193" s="206" t="s">
+      <c r="B193" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C193" s="106"/>
@@ -33820,8 +33886,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="209"/>
-      <c r="B194" s="210"/>
+      <c r="A194" s="221"/>
+      <c r="B194" s="208"/>
       <c r="C194" s="70" t="s">
         <v>245</v>
       </c>
@@ -33830,8 +33896,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="209"/>
-      <c r="B195" s="210"/>
+      <c r="A195" s="221"/>
+      <c r="B195" s="208"/>
       <c r="C195" s="70">
         <v>10.1</v>
       </c>
@@ -33840,8 +33906,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="209"/>
-      <c r="B196" s="210"/>
+      <c r="A196" s="221"/>
+      <c r="B196" s="208"/>
       <c r="C196" s="70">
         <v>10.199999999999999</v>
       </c>
@@ -33850,8 +33916,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="209"/>
-      <c r="B197" s="210"/>
+      <c r="A197" s="221"/>
+      <c r="B197" s="208"/>
       <c r="C197" s="98" t="s">
         <v>288</v>
       </c>
@@ -33860,8 +33926,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="209"/>
-      <c r="B198" s="210"/>
+      <c r="A198" s="221"/>
+      <c r="B198" s="208"/>
       <c r="C198" s="98" t="s">
         <v>370</v>
       </c>
@@ -33870,8 +33936,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="209"/>
-      <c r="B199" s="210"/>
+      <c r="A199" s="221"/>
+      <c r="B199" s="208"/>
       <c r="C199" s="98" t="s">
         <v>117</v>
       </c>
@@ -33880,8 +33946,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="209"/>
-      <c r="B200" s="210"/>
+      <c r="A200" s="221"/>
+      <c r="B200" s="208"/>
       <c r="C200" s="98" t="s">
         <v>417</v>
       </c>
@@ -33890,8 +33956,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="209"/>
-      <c r="B201" s="210"/>
+      <c r="A201" s="221"/>
+      <c r="B201" s="208"/>
       <c r="C201" s="98" t="s">
         <v>17</v>
       </c>
@@ -33900,20 +33966,20 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="211"/>
-      <c r="B202" s="207"/>
+      <c r="A202" s="213"/>
+      <c r="B202" s="209"/>
       <c r="C202" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="D202" s="135" t="s">
+      <c r="D202" s="134" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="208" t="s">
+      <c r="A203" s="212" t="s">
         <v>246</v>
       </c>
-      <c r="B203" s="206" t="s">
+      <c r="B203" s="207" t="s">
         <v>432</v>
       </c>
       <c r="C203" s="98"/>
@@ -33922,8 +33988,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="209"/>
-      <c r="B204" s="210"/>
+      <c r="A204" s="221"/>
+      <c r="B204" s="208"/>
       <c r="C204" s="125" t="s">
         <v>428</v>
       </c>
@@ -33935,10 +34001,10 @@
       <c r="A205" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="B205" s="70" t="s">
+      <c r="B205" s="152" t="s">
         <v>432</v>
       </c>
-      <c r="C205" s="134" t="s">
+      <c r="C205" s="133" t="s">
         <v>249</v>
       </c>
       <c r="D205" s="112" t="s">
@@ -33949,15 +34015,15 @@
       <c r="A206" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B206" s="127"/>
+      <c r="B206" s="234"/>
       <c r="C206" s="127"/>
       <c r="D206" s="127"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="208" t="s">
+      <c r="A207" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="B207" s="206" t="s">
+      <c r="B207" s="207" t="s">
         <v>266</v>
       </c>
       <c r="C207" s="128" t="s">
@@ -33968,8 +34034,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="209"/>
-      <c r="B208" s="210"/>
+      <c r="A208" s="221"/>
+      <c r="B208" s="208"/>
       <c r="C208" s="128" t="s">
         <v>260</v>
       </c>
@@ -33978,18 +34044,18 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="211"/>
-      <c r="B209" s="207"/>
+      <c r="A209" s="213"/>
+      <c r="B209" s="209"/>
       <c r="C209" s="106"/>
       <c r="D209" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="219" t="s">
+      <c r="A210" s="227" t="s">
         <v>59</v>
       </c>
-      <c r="B210" s="206" t="s">
+      <c r="B210" s="207" t="s">
         <v>266</v>
       </c>
       <c r="C210" s="118" t="s">
@@ -34000,18 +34066,18 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="220"/>
-      <c r="B211" s="207"/>
+      <c r="A211" s="228"/>
+      <c r="B211" s="209"/>
       <c r="C211" s="118"/>
       <c r="D211" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="219" t="s">
+      <c r="A212" s="227" t="s">
         <v>286</v>
       </c>
-      <c r="B212" s="206" t="s">
+      <c r="B212" s="207" t="s">
         <v>266</v>
       </c>
       <c r="C212" s="118"/>
@@ -34020,18 +34086,18 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="220"/>
-      <c r="B213" s="207"/>
+      <c r="A213" s="228"/>
+      <c r="B213" s="209"/>
       <c r="C213" s="106"/>
       <c r="D213" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="219" t="s">
+      <c r="A214" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="B214" s="206" t="s">
+      <c r="B214" s="207" t="s">
         <v>266</v>
       </c>
       <c r="C214" s="118" t="s">
@@ -34042,8 +34108,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="220"/>
-      <c r="B215" s="207"/>
+      <c r="A215" s="228"/>
+      <c r="B215" s="209"/>
       <c r="C215" s="106"/>
       <c r="D215" s="106" t="s">
         <v>408</v>
@@ -34053,13 +34119,13 @@
       <c r="A216" s="127" t="s">
         <v>268</v>
       </c>
-      <c r="B216" s="127"/>
+      <c r="B216" s="234"/>
       <c r="C216" s="127"/>
       <c r="D216" s="127"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="106"/>
-      <c r="B217" s="70" t="s">
+      <c r="B217" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C217" s="106" t="s">
@@ -34073,13 +34139,13 @@
       <c r="A218" s="127" t="s">
         <v>274</v>
       </c>
-      <c r="B218" s="127"/>
+      <c r="B218" s="234"/>
       <c r="C218" s="127"/>
       <c r="D218" s="127"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="106"/>
-      <c r="B219" s="70" t="s">
+      <c r="B219" s="152" t="s">
         <v>432</v>
       </c>
       <c r="C219" s="106" t="s">
@@ -34091,7 +34157,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="106"/>
-      <c r="B220" s="70"/>
+      <c r="B220" s="152"/>
       <c r="C220" s="106" t="s">
         <v>396</v>
       </c>
@@ -34099,8 +34165,385 @@
         <v>397</v>
       </c>
     </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="103" t="s">
+        <v>497</v>
+      </c>
+      <c r="B221" s="233"/>
+      <c r="C221" s="103"/>
+      <c r="D221" s="104"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="58" t="s">
+        <v>498</v>
+      </c>
+      <c r="B222" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C222" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="B223" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C223" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="B224" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C224" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="B225" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C225" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="B226" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C226" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B227" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C227" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B228" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C228" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D228" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C229" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C230" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C231" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="B232" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C232" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="B233" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C233" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="B234" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C234" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="B235" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C235" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="B236" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C236" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="103" t="s">
+        <v>507</v>
+      </c>
+      <c r="B237" s="233"/>
+      <c r="C237" s="103"/>
+      <c r="D237" s="104"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="B238" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C238" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D238" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="B239" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C239" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="B240" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C240" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="B241" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C241" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="B242" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C242" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="B243" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C243" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="B244" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C244" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="B245" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C245" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="A193:A202"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A78:A95"/>
+    <mergeCell ref="B78:B95"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B136:B186"/>
+    <mergeCell ref="A136:A186"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A96:A109"/>
+    <mergeCell ref="B96:B109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="C96:C97"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A13:A18"/>
@@ -34116,45 +34559,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A96:A109"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="A193:A202"/>
-    <mergeCell ref="B193:B202"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A78:A95"/>
-    <mergeCell ref="B78:B95"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B136:B186"/>
-    <mergeCell ref="A136:A186"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT3/Schema Publication Changelog.xlsx
+++ b/PIT3/Schema Publication Changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwalsh06\IdeaProjects\paye-employers-documentation\src\main\resources\PIT3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF271879-B4E4-49F8-9B14-B8379A2AECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF27A87-3964-4BFA-B8C7-8B314C0A24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="521">
   <si>
     <t>Document</t>
   </si>
@@ -3427,6 +3427,21 @@
   </si>
   <si>
     <t>ERR File Upload CSV Conversion</t>
+  </si>
+  <si>
+    <t>Screen upload examples</t>
+  </si>
+  <si>
+    <t>ERR_Submission_Agent</t>
+  </si>
+  <si>
+    <t>XML and JSON samples added to illustrate how to include Agent TAIN when trying to submit file upload using an agent cert.</t>
+  </si>
+  <si>
+    <t>LookUpERN_Agent</t>
+  </si>
+  <si>
+    <t>XML and JSON samples added to illustrate how to include Agent TAIN when trying to do LookUpERN using an agent cert.</t>
   </si>
 </sst>
 </file>
@@ -4041,7 +4056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4446,6 +4461,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4491,38 +4518,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4545,6 +4542,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4566,88 +4623,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4659,18 +4659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4680,17 +4668,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5095,12 +5113,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5123,12 +5141,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5168,10 +5186,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="160">
+      <c r="B7" s="164">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5185,8 +5203,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5198,8 +5216,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5211,8 +5229,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
-      <c r="B10" s="161"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5224,8 +5242,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="161"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5237,8 +5255,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5250,10 +5268,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="160">
+      <c r="B13" s="164">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5267,8 +5285,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5314,12 +5332,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5359,21 +5377,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="164">
+      <c r="B21" s="168">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5387,8 +5405,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5411,18 +5429,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="163" t="s">
+      <c r="A25" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="164">
+      <c r="B25" s="168">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5436,8 +5454,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158"/>
-      <c r="B26" s="161"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5449,8 +5467,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5462,8 +5480,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="158"/>
-      <c r="B28" s="161"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5475,8 +5493,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="161"/>
+      <c r="A29" s="162"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5488,8 +5506,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
-      <c r="B30" s="161"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5501,8 +5519,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
-      <c r="B31" s="161"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5514,8 +5532,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="159"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5639,12 +5657,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="155"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="156"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="160"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5704,7 +5722,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5714,7 +5732,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5824,10 +5842,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5838,8 +5856,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5848,8 +5866,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5858,8 +5876,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5868,8 +5886,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5878,8 +5896,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5888,10 +5906,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5902,8 +5920,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="172"/>
-      <c r="B14" s="170"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5912,8 +5930,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="170"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5925,7 +5943,7 @@
       <c r="A16" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="182" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5937,7 +5955,7 @@
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5947,7 +5965,7 @@
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
+      <c r="B18" s="182"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5957,7 +5975,7 @@
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5967,7 +5985,7 @@
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="173"/>
-      <c r="B20" s="174"/>
+      <c r="B20" s="182"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5977,7 +5995,7 @@
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5987,7 +6005,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5997,7 +6015,7 @@
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -6007,25 +6025,25 @@
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="174" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="173"/>
-      <c r="B25" s="174"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="173"/>
-      <c r="D25" s="180"/>
+      <c r="D25" s="174"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6036,8 +6054,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -6064,28 +6082,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="173" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="183" t="s">
+      <c r="D30" s="177" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="170"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="187"/>
       <c r="C31" s="173"/>
-      <c r="D31" s="183"/>
+      <c r="D31" s="177"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="170"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6094,8 +6112,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="170"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="187"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6104,8 +6122,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="171"/>
-      <c r="B34" s="170"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="187"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6114,8 +6132,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="171"/>
-      <c r="B35" s="170"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="187"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6124,8 +6142,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="171"/>
-      <c r="B36" s="170"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="187"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6134,26 +6152,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="171"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="184" t="s">
+      <c r="A37" s="189"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="186" t="s">
+      <c r="D37" s="180" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="171"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="186"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="170" t="s">
+      <c r="B39" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6164,8 +6182,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169"/>
-      <c r="B40" s="170"/>
+      <c r="A40" s="188"/>
+      <c r="B40" s="187"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6192,10 +6210,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="170" t="s">
+      <c r="B43" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6204,8 +6222,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="171"/>
-      <c r="B44" s="170"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6214,10 +6232,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="177" t="s">
+      <c r="A45" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="170" t="s">
+      <c r="B45" s="187" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6226,8 +6244,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="178"/>
-      <c r="B46" s="170"/>
+      <c r="A46" s="185"/>
+      <c r="B46" s="187"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6236,8 +6254,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="178"/>
-      <c r="B47" s="170"/>
+      <c r="A47" s="185"/>
+      <c r="B47" s="187"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6246,8 +6264,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="170"/>
+      <c r="A48" s="186"/>
+      <c r="B48" s="187"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6256,10 +6274,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="174" t="s">
+      <c r="A49" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="182" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10363,8 +10381,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="174"/>
-      <c r="B50" s="174"/>
+      <c r="A50" s="182"/>
+      <c r="B50" s="182"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14468,8 +14486,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="174"/>
-      <c r="B51" s="174"/>
+      <c r="A51" s="182"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18573,8 +18591,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="174"/>
-      <c r="B52" s="174"/>
+      <c r="A52" s="182"/>
+      <c r="B52" s="182"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22678,12 +22696,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="174"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="182" t="s">
+      <c r="A53" s="182"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="183" t="s">
+      <c r="D53" s="177" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26783,10 +26801,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
+      <c r="A54" s="182"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="177"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30904,10 +30922,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="174" t="s">
+      <c r="B57" s="182" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30918,8 +30936,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="175"/>
-      <c r="B58" s="174"/>
+      <c r="A58" s="181"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30928,8 +30946,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="175"/>
-      <c r="B59" s="174"/>
+      <c r="A59" s="181"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30938,8 +30956,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="175"/>
-      <c r="B60" s="174"/>
+      <c r="A60" s="181"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30948,8 +30966,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="175"/>
-      <c r="B61" s="174"/>
+      <c r="A61" s="181"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30958,8 +30976,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="175"/>
-      <c r="B62" s="174"/>
+      <c r="A62" s="181"/>
+      <c r="B62" s="182"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30968,8 +30986,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="175"/>
-      <c r="B63" s="174"/>
+      <c r="A63" s="181"/>
+      <c r="B63" s="182"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30978,16 +30996,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="175"/>
-      <c r="B64" s="174"/>
+      <c r="A64" s="181"/>
+      <c r="B64" s="182"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="175"/>
-      <c r="B65" s="174"/>
+      <c r="A65" s="181"/>
+      <c r="B65" s="182"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30996,16 +31014,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="175"/>
-      <c r="B66" s="174"/>
+      <c r="A66" s="181"/>
+      <c r="B66" s="182"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="175"/>
-      <c r="B67" s="174"/>
+      <c r="A67" s="181"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -31014,8 +31032,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="175"/>
-      <c r="B68" s="174"/>
+      <c r="A68" s="181"/>
+      <c r="B68" s="182"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -31024,8 +31042,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="175"/>
-      <c r="B69" s="174"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -31034,8 +31052,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="175"/>
-      <c r="B70" s="174"/>
+      <c r="A70" s="181"/>
+      <c r="B70" s="182"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -31044,8 +31062,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="175"/>
-      <c r="B71" s="174"/>
+      <c r="A71" s="181"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -31054,8 +31072,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="175"/>
-      <c r="B72" s="174"/>
+      <c r="A72" s="181"/>
+      <c r="B72" s="182"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -31064,16 +31082,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="175"/>
-      <c r="B73" s="174"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="182"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="175"/>
-      <c r="B74" s="174"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="182"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31082,18 +31100,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="175"/>
-      <c r="B75" s="174"/>
-      <c r="C75" s="181"/>
-      <c r="D75" s="176" t="s">
+      <c r="A75" s="181"/>
+      <c r="B75" s="182"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="183" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="175"/>
-      <c r="B76" s="174"/>
-      <c r="C76" s="181"/>
-      <c r="D76" s="176"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="182"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="183"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31117,8 +31135,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31127,29 +31145,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31164,6 +31166,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31217,10 +31235,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="187" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31231,133 +31249,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="169"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="196" t="s">
+      <c r="A5" s="188"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="195" t="s">
+      <c r="D5" s="197" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="195"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="197"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195" t="s">
+      <c r="C10" s="200"/>
+      <c r="D10" s="197" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="197"/>
     </row>
     <row r="12" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="197"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="195" t="s">
+      <c r="C13" s="199"/>
+      <c r="D13" s="197" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="173"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="195"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="197"/>
     </row>
     <row r="15" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="173"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="197"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="199"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="173"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="197"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="197"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="199"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="197"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="199"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="197"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="199"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="173"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="197"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="199"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="197"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="199"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="197"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="199"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="197"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="199"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -31455,10 +31473,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="198" t="s">
+      <c r="A32" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="201" t="s">
+      <c r="B32" s="194" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31469,26 +31487,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="199"/>
-      <c r="B33" s="202"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="195"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="199"/>
-      <c r="B34" s="202"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="199"/>
-      <c r="B35" s="202"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="195"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="200"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="193"/>
+      <c r="B36" s="196"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31517,10 +31535,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="171" t="s">
+      <c r="A39" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="170" t="s">
+      <c r="B39" s="187" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31531,8 +31549,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="171"/>
-      <c r="B40" s="170"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="187"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31541,13 +31559,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="170" t="s">
+      <c r="B41" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="200" t="s">
         <v>194</v>
       </c>
       <c r="D41" s="173" t="s">
@@ -31555,70 +31573,70 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="194"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="200"/>
       <c r="D42" s="173"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="169"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="194" t="s">
+      <c r="A43" s="188"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="183" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="169"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="176"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="183"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="175" t="s">
+      <c r="A45" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="190"/>
+      <c r="C45" s="204"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="175"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="187" t="s">
+      <c r="A46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="201" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="175"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="188"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="202"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="175"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="192"/>
-      <c r="D48" s="188"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="202"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="175"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="188"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="202"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="175"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="189"/>
+      <c r="A50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="203"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31641,10 +31659,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="174" t="s">
+      <c r="A53" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="182" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31655,8 +31673,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="174"/>
-      <c r="B54" s="174"/>
+      <c r="A54" s="182"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31665,8 +31683,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="174"/>
-      <c r="B55" s="174"/>
+      <c r="A55" s="182"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31675,9 +31693,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="174"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="193" t="s">
+      <c r="A56" s="182"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="207" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31685,16 +31703,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="174"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="193"/>
+      <c r="A57" s="182"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="207"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="174"/>
-      <c r="B58" s="174"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31703,8 +31721,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="174"/>
-      <c r="B59" s="174"/>
+      <c r="A59" s="182"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31713,9 +31731,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="174"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="193" t="s">
+      <c r="A60" s="182"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="207" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31723,25 +31741,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="174"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="193"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="207"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="174"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="193"/>
+      <c r="A62" s="182"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="207"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="174"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="194" t="s">
+      <c r="A63" s="182"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="200" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31749,30 +31767,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="174"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="194"/>
-      <c r="D64" s="176" t="s">
+      <c r="A64" s="182"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="200"/>
+      <c r="D64" s="183" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="174"/>
-      <c r="B65" s="174"/>
-      <c r="C65" s="194"/>
-      <c r="D65" s="176"/>
+      <c r="A65" s="182"/>
+      <c r="B65" s="182"/>
+      <c r="C65" s="200"/>
+      <c r="D65" s="183"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="174"/>
-      <c r="B66" s="174"/>
-      <c r="C66" s="194"/>
-      <c r="D66" s="176"/>
+      <c r="A66" s="182"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="200"/>
+      <c r="D66" s="183"/>
     </row>
     <row r="67" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="174"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="194"/>
-      <c r="D67" s="176"/>
+      <c r="A67" s="182"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="200"/>
+      <c r="D67" s="183"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -31828,23 +31846,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -31861,6 +31862,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31869,18 +31887,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="235" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="157" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="4" max="4" width="107.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31901,15 +31919,15 @@
       <c r="A2" s="103" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="233"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="103"/>
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="230" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="230" t="s">
         <v>435</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -31920,8 +31938,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="205"/>
-      <c r="B4" s="205"/>
+      <c r="A4" s="231"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="100" t="s">
         <v>438</v>
       </c>
@@ -31930,8 +31948,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
-      <c r="B5" s="206"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="100" t="s">
         <v>438</v>
       </c>
@@ -31954,10 +31972,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="230" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="230" t="s">
         <v>435</v>
       </c>
       <c r="C7" s="141" t="s">
@@ -31968,8 +31986,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="205"/>
-      <c r="B8" s="205"/>
+      <c r="A8" s="231"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="141" t="s">
         <v>486</v>
       </c>
@@ -31978,8 +31996,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
-      <c r="B9" s="206"/>
+      <c r="A9" s="232"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="141" t="s">
         <v>489</v>
       </c>
@@ -31991,7 +32009,7 @@
       <c r="A10" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="233"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="127"/>
       <c r="D10" s="127"/>
     </row>
@@ -31999,7 +32017,7 @@
       <c r="A11" s="212" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C11" s="128" t="s">
@@ -32010,8 +32028,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="213"/>
-      <c r="B12" s="209"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="128" t="s">
         <v>451</v>
       </c>
@@ -32020,7 +32038,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="210" t="s">
         <v>280</v>
       </c>
       <c r="B13" s="149" t="s">
@@ -32034,7 +32052,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="208"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="151"/>
       <c r="C14" s="106" t="s">
         <v>300</v>
@@ -32044,7 +32062,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="208"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="151"/>
       <c r="C15" s="128" t="s">
         <v>281</v>
@@ -32054,7 +32072,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="208"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="151"/>
       <c r="C16" s="128" t="s">
         <v>21</v>
@@ -32064,7 +32082,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="208"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="150"/>
       <c r="C17" s="128" t="s">
         <v>449</v>
@@ -32074,7 +32092,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="209"/>
+      <c r="A18" s="211"/>
       <c r="B18" s="151"/>
       <c r="C18" s="128" t="s">
         <v>436</v>
@@ -32101,7 +32119,7 @@
       <c r="A20" s="212" t="s">
         <v>454</v>
       </c>
-      <c r="B20" s="207" t="s">
+      <c r="B20" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C20" s="128" t="s">
@@ -32112,8 +32130,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
-      <c r="B21" s="209"/>
+      <c r="A21" s="215"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="128"/>
       <c r="D21" s="106" t="s">
         <v>479</v>
@@ -32123,15 +32141,15 @@
       <c r="A22" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="233"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="235" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="236" t="s">
         <v>432</v>
       </c>
       <c r="C23" s="100" t="s">
@@ -32142,8 +32160,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="214"/>
-      <c r="B24" s="215"/>
+      <c r="A24" s="235"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="100" t="s">
         <v>342</v>
       </c>
@@ -32152,8 +32170,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="214"/>
-      <c r="B25" s="215"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="100" t="s">
         <v>338</v>
       </c>
@@ -32165,7 +32183,7 @@
       <c r="A26" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="233"/>
+      <c r="B26" s="155"/>
       <c r="C26" s="103"/>
       <c r="D26" s="104"/>
     </row>
@@ -32173,7 +32191,7 @@
       <c r="A27" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C27" s="106"/>
@@ -32182,8 +32200,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="221"/>
-      <c r="B28" s="208"/>
+      <c r="A28" s="213"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="70" t="s">
         <v>234</v>
       </c>
@@ -32192,8 +32210,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
-      <c r="B29" s="208"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="140" t="s">
         <v>445</v>
       </c>
@@ -32202,8 +32220,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="139" t="s">
         <v>480</v>
       </c>
@@ -32212,8 +32230,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="221"/>
-      <c r="B31" s="208"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="147" t="s">
         <v>491</v>
       </c>
@@ -32222,8 +32240,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="221"/>
-      <c r="B32" s="208"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="147" t="s">
         <v>480</v>
       </c>
@@ -32235,7 +32253,7 @@
       <c r="A33" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -32246,8 +32264,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="221"/>
-      <c r="B34" s="208"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="214"/>
       <c r="C34" s="131" t="s">
         <v>467</v>
       </c>
@@ -32256,8 +32274,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="213"/>
-      <c r="B35" s="209"/>
+      <c r="A35" s="215"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="136" t="s">
         <v>457</v>
       </c>
@@ -32306,10 +32324,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="217" t="s">
+      <c r="A39" s="226" t="s">
         <v>270</v>
       </c>
-      <c r="B39" s="216" t="s">
+      <c r="B39" s="227" t="s">
         <v>432</v>
       </c>
       <c r="C39" s="106"/>
@@ -32318,8 +32336,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="217"/>
-      <c r="B40" s="216"/>
+      <c r="A40" s="226"/>
+      <c r="B40" s="227"/>
       <c r="C40" s="106" t="s">
         <v>494</v>
       </c>
@@ -32328,16 +32346,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="217"/>
-      <c r="B41" s="216"/>
+      <c r="A41" s="226"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="106"/>
       <c r="D41" s="106" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="217"/>
-      <c r="B42" s="216"/>
+      <c r="A42" s="226"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="110" t="s">
         <v>320</v>
       </c>
@@ -32346,8 +32364,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="217"/>
-      <c r="B43" s="216"/>
+      <c r="A43" s="226"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="111" t="s">
         <v>399</v>
       </c>
@@ -32368,10 +32386,10 @@
       <c r="D44" s="106"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="233" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="207" t="s">
+      <c r="B45" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C45" s="106"/>
@@ -32380,8 +32398,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="211"/>
-      <c r="B46" s="208"/>
+      <c r="A46" s="234"/>
+      <c r="B46" s="214"/>
       <c r="C46" s="111" t="s">
         <v>356</v>
       </c>
@@ -32390,8 +32408,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="211"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="234"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="111" t="s">
         <v>354</v>
       </c>
@@ -32400,8 +32418,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="211"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="234"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="114" t="s">
         <v>362</v>
       </c>
@@ -32410,8 +32428,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="211"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="234"/>
+      <c r="B49" s="214"/>
       <c r="C49" s="111" t="s">
         <v>354</v>
       </c>
@@ -32420,8 +32438,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="211"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="234"/>
+      <c r="B50" s="214"/>
       <c r="C50" s="111" t="s">
         <v>366</v>
       </c>
@@ -32430,8 +32448,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="211"/>
-      <c r="B51" s="208"/>
+      <c r="A51" s="234"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="111" t="s">
         <v>354</v>
       </c>
@@ -32440,8 +32458,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="211"/>
-      <c r="B52" s="208"/>
+      <c r="A52" s="234"/>
+      <c r="B52" s="214"/>
       <c r="C52" s="130" t="s">
         <v>461</v>
       </c>
@@ -32450,8 +32468,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="211"/>
-      <c r="B53" s="208"/>
+      <c r="A53" s="234"/>
+      <c r="B53" s="214"/>
       <c r="C53" s="130" t="s">
         <v>456</v>
       </c>
@@ -32460,8 +32478,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="211"/>
-      <c r="B54" s="208"/>
+      <c r="A54" s="234"/>
+      <c r="B54" s="214"/>
       <c r="C54" s="130" t="s">
         <v>354</v>
       </c>
@@ -32470,8 +32488,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="211"/>
-      <c r="B55" s="208"/>
+      <c r="A55" s="234"/>
+      <c r="B55" s="214"/>
       <c r="C55" s="130" t="s">
         <v>456</v>
       </c>
@@ -32480,8 +32498,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="211"/>
-      <c r="B56" s="208"/>
+      <c r="A56" s="234"/>
+      <c r="B56" s="214"/>
       <c r="C56" s="145" t="s">
         <v>354</v>
       </c>
@@ -32490,8 +32508,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="211"/>
-      <c r="B57" s="208"/>
+      <c r="A57" s="234"/>
+      <c r="B57" s="214"/>
       <c r="C57" s="145" t="s">
         <v>480</v>
       </c>
@@ -32500,8 +32518,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="211"/>
-      <c r="B58" s="208"/>
+      <c r="A58" s="234"/>
+      <c r="B58" s="214"/>
       <c r="C58" s="147" t="s">
         <v>491</v>
       </c>
@@ -32510,8 +32528,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="211"/>
-      <c r="B59" s="208"/>
+      <c r="A59" s="234"/>
+      <c r="B59" s="214"/>
       <c r="C59" s="147" t="s">
         <v>480</v>
       </c>
@@ -32546,10 +32564,10 @@
       <c r="D61" s="112"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="218" t="s">
+      <c r="A62" s="208" t="s">
         <v>364</v>
       </c>
-      <c r="B62" s="207" t="s">
+      <c r="B62" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C62" s="111" t="s">
@@ -32558,8 +32576,8 @@
       <c r="D62" s="112"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="232"/>
-      <c r="B63" s="209"/>
+      <c r="A63" s="209"/>
+      <c r="B63" s="211"/>
       <c r="C63" s="111" t="s">
         <v>399</v>
       </c>
@@ -32571,15 +32589,15 @@
       <c r="A64" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="233"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="103"/>
       <c r="D64" s="103"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="218" t="s">
+      <c r="A65" s="208" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="207" t="s">
+      <c r="B65" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C65" s="106"/>
@@ -32588,24 +32606,24 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="219"/>
-      <c r="B66" s="208"/>
+      <c r="A66" s="216"/>
+      <c r="B66" s="214"/>
       <c r="C66" s="106"/>
       <c r="D66" s="106" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="219"/>
-      <c r="B67" s="208"/>
+      <c r="A67" s="216"/>
+      <c r="B67" s="214"/>
       <c r="C67" s="106"/>
       <c r="D67" s="106" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="219"/>
-      <c r="B68" s="208"/>
+      <c r="A68" s="216"/>
+      <c r="B68" s="214"/>
       <c r="C68" s="106" t="s">
         <v>295</v>
       </c>
@@ -32614,8 +32632,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="219"/>
-      <c r="B69" s="208"/>
+      <c r="A69" s="216"/>
+      <c r="B69" s="214"/>
       <c r="C69" s="106" t="s">
         <v>323</v>
       </c>
@@ -32624,8 +32642,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="219"/>
-      <c r="B70" s="208"/>
+      <c r="A70" s="216"/>
+      <c r="B70" s="214"/>
       <c r="C70" s="106" t="s">
         <v>368</v>
       </c>
@@ -32634,8 +32652,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="219"/>
-      <c r="B71" s="208"/>
+      <c r="A71" s="216"/>
+      <c r="B71" s="214"/>
       <c r="C71" s="61" t="s">
         <v>472</v>
       </c>
@@ -32644,8 +32662,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="219"/>
-      <c r="B72" s="208"/>
+      <c r="A72" s="216"/>
+      <c r="B72" s="214"/>
       <c r="C72" s="58" t="s">
         <v>37</v>
       </c>
@@ -32654,8 +32672,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="219"/>
-      <c r="B73" s="208"/>
+      <c r="A73" s="216"/>
+      <c r="B73" s="214"/>
       <c r="C73" s="137" t="s">
         <v>354</v>
       </c>
@@ -32664,8 +32682,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="219"/>
-      <c r="B74" s="208"/>
+      <c r="A74" s="216"/>
+      <c r="B74" s="214"/>
       <c r="C74" s="137" t="s">
         <v>456</v>
       </c>
@@ -32674,8 +32692,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="219"/>
-      <c r="B75" s="208"/>
+      <c r="A75" s="216"/>
+      <c r="B75" s="214"/>
       <c r="C75" s="137" t="s">
         <v>480</v>
       </c>
@@ -32684,8 +32702,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="219"/>
-      <c r="B76" s="208"/>
+      <c r="A76" s="216"/>
+      <c r="B76" s="214"/>
       <c r="C76" s="146" t="s">
         <v>491</v>
       </c>
@@ -32694,8 +32712,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="219"/>
-      <c r="B77" s="208"/>
+      <c r="A77" s="216"/>
+      <c r="B77" s="214"/>
       <c r="C77" s="146" t="s">
         <v>480</v>
       </c>
@@ -32704,10 +32722,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="222" t="s">
+      <c r="A78" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="207" t="s">
+      <c r="B78" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C78" s="106" t="s">
@@ -32718,16 +32736,16 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="223"/>
-      <c r="B79" s="208"/>
+      <c r="A79" s="218"/>
+      <c r="B79" s="214"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="223"/>
-      <c r="B80" s="208"/>
+      <c r="A80" s="218"/>
+      <c r="B80" s="214"/>
       <c r="C80" s="116" t="s">
         <v>324</v>
       </c>
@@ -32736,8 +32754,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="223"/>
-      <c r="B81" s="208"/>
+      <c r="A81" s="218"/>
+      <c r="B81" s="214"/>
       <c r="C81" s="116" t="s">
         <v>494</v>
       </c>
@@ -32746,8 +32764,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="223"/>
-      <c r="B82" s="208"/>
+      <c r="A82" s="218"/>
+      <c r="B82" s="214"/>
       <c r="C82" s="116" t="s">
         <v>354</v>
       </c>
@@ -32756,8 +32774,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="223"/>
-      <c r="B83" s="208"/>
+      <c r="A83" s="218"/>
+      <c r="B83" s="214"/>
       <c r="C83" s="116" t="s">
         <v>362</v>
       </c>
@@ -32766,8 +32784,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="223"/>
-      <c r="B84" s="208"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="214"/>
       <c r="C84" s="116" t="s">
         <v>366</v>
       </c>
@@ -32776,8 +32794,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="223"/>
-      <c r="B85" s="208"/>
+      <c r="A85" s="218"/>
+      <c r="B85" s="214"/>
       <c r="C85" s="116" t="s">
         <v>376</v>
       </c>
@@ -32786,8 +32804,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="223"/>
-      <c r="B86" s="208"/>
+      <c r="A86" s="218"/>
+      <c r="B86" s="214"/>
       <c r="C86" s="108" t="s">
         <v>354</v>
       </c>
@@ -32796,8 +32814,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="223"/>
-      <c r="B87" s="208"/>
+      <c r="A87" s="218"/>
+      <c r="B87" s="214"/>
       <c r="C87" s="137" t="s">
         <v>461</v>
       </c>
@@ -32806,8 +32824,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="223"/>
-      <c r="B88" s="208"/>
+      <c r="A88" s="218"/>
+      <c r="B88" s="214"/>
       <c r="C88" s="137" t="s">
         <v>456</v>
       </c>
@@ -32816,8 +32834,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="223"/>
-      <c r="B89" s="208"/>
+      <c r="A89" s="218"/>
+      <c r="B89" s="214"/>
       <c r="C89" s="137" t="s">
         <v>354</v>
       </c>
@@ -32826,8 +32844,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="223"/>
-      <c r="B90" s="208"/>
+      <c r="A90" s="218"/>
+      <c r="B90" s="214"/>
       <c r="C90" s="137" t="s">
         <v>456</v>
       </c>
@@ -32836,8 +32854,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="223"/>
-      <c r="B91" s="208"/>
+      <c r="A91" s="218"/>
+      <c r="B91" s="214"/>
       <c r="C91" s="137" t="s">
         <v>368</v>
       </c>
@@ -32846,8 +32864,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="223"/>
-      <c r="B92" s="208"/>
+      <c r="A92" s="218"/>
+      <c r="B92" s="214"/>
       <c r="C92" s="137" t="s">
         <v>354</v>
       </c>
@@ -32856,8 +32874,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="223"/>
-      <c r="B93" s="208"/>
+      <c r="A93" s="218"/>
+      <c r="B93" s="214"/>
       <c r="C93" s="137" t="s">
         <v>480</v>
       </c>
@@ -32866,8 +32884,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="223"/>
-      <c r="B94" s="208"/>
+      <c r="A94" s="218"/>
+      <c r="B94" s="214"/>
       <c r="C94" s="146" t="s">
         <v>491</v>
       </c>
@@ -32876,8 +32894,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="224"/>
-      <c r="B95" s="209"/>
+      <c r="A95" s="219"/>
+      <c r="B95" s="211"/>
       <c r="C95" s="146" t="s">
         <v>480</v>
       </c>
@@ -32889,10 +32907,10 @@
       <c r="A96" s="212" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="207" t="s">
+      <c r="B96" s="210" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="225" t="s">
+      <c r="C96" s="228" t="s">
         <v>238</v>
       </c>
       <c r="D96" s="96" t="s">
@@ -32900,17 +32918,17 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="221"/>
-      <c r="B97" s="208"/>
-      <c r="C97" s="226"/>
+      <c r="A97" s="213"/>
+      <c r="B97" s="214"/>
+      <c r="C97" s="229"/>
       <c r="D97" s="112" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="221"/>
-      <c r="B98" s="208"/>
-      <c r="C98" s="220" t="s">
+      <c r="A98" s="213"/>
+      <c r="B98" s="214"/>
+      <c r="C98" s="225" t="s">
         <v>239</v>
       </c>
       <c r="D98" s="106" t="s">
@@ -32918,16 +32936,16 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="221"/>
-      <c r="B99" s="208"/>
-      <c r="C99" s="220"/>
+      <c r="A99" s="213"/>
+      <c r="B99" s="214"/>
+      <c r="C99" s="225"/>
       <c r="D99" s="118" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="221"/>
-      <c r="B100" s="208"/>
+      <c r="A100" s="213"/>
+      <c r="B100" s="214"/>
       <c r="C100" s="111" t="s">
         <v>302</v>
       </c>
@@ -32936,8 +32954,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="221"/>
-      <c r="B101" s="208"/>
+      <c r="A101" s="213"/>
+      <c r="B101" s="214"/>
       <c r="C101" s="111">
         <v>2.1</v>
       </c>
@@ -32946,8 +32964,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="221"/>
-      <c r="B102" s="208"/>
+      <c r="A102" s="213"/>
+      <c r="B102" s="214"/>
       <c r="C102" s="111" t="s">
         <v>238</v>
       </c>
@@ -32956,8 +32974,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="221"/>
-      <c r="B103" s="208"/>
+      <c r="A103" s="213"/>
+      <c r="B103" s="214"/>
       <c r="C103" s="111" t="s">
         <v>238</v>
       </c>
@@ -32966,8 +32984,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="221"/>
-      <c r="B104" s="208"/>
+      <c r="A104" s="213"/>
+      <c r="B104" s="214"/>
       <c r="C104" s="111" t="s">
         <v>238</v>
       </c>
@@ -32976,8 +32994,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="221"/>
-      <c r="B105" s="208"/>
+      <c r="A105" s="213"/>
+      <c r="B105" s="214"/>
       <c r="C105" s="119" t="s">
         <v>373</v>
       </c>
@@ -32986,8 +33004,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="221"/>
-      <c r="B106" s="208"/>
+      <c r="A106" s="213"/>
+      <c r="B106" s="214"/>
       <c r="C106" s="111">
         <v>2.1</v>
       </c>
@@ -32996,8 +33014,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="221"/>
-      <c r="B107" s="208"/>
+      <c r="A107" s="213"/>
+      <c r="B107" s="214"/>
       <c r="C107" s="111" t="s">
         <v>238</v>
       </c>
@@ -33006,8 +33024,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="221"/>
-      <c r="B108" s="208"/>
+      <c r="A108" s="213"/>
+      <c r="B108" s="214"/>
       <c r="C108" s="111" t="s">
         <v>238</v>
       </c>
@@ -33016,8 +33034,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="221"/>
-      <c r="B109" s="208"/>
+      <c r="A109" s="213"/>
+      <c r="B109" s="214"/>
       <c r="C109" s="111">
         <v>2.1</v>
       </c>
@@ -33026,10 +33044,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="222" t="s">
+      <c r="A110" s="217" t="s">
         <v>291</v>
       </c>
-      <c r="B110" s="207" t="s">
+      <c r="B110" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C110" s="106" t="s">
@@ -33040,8 +33058,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="223"/>
-      <c r="B111" s="208"/>
+      <c r="A111" s="218"/>
+      <c r="B111" s="214"/>
       <c r="C111" s="106" t="s">
         <v>494</v>
       </c>
@@ -33050,8 +33068,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="223"/>
-      <c r="B112" s="208"/>
+      <c r="A112" s="218"/>
+      <c r="B112" s="214"/>
       <c r="C112" s="118" t="s">
         <v>276</v>
       </c>
@@ -33060,8 +33078,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="224"/>
-      <c r="B113" s="209"/>
+      <c r="A113" s="219"/>
+      <c r="B113" s="211"/>
       <c r="C113" s="106" t="s">
         <v>345</v>
       </c>
@@ -33070,10 +33088,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="218" t="s">
+      <c r="A114" s="208" t="s">
         <v>365</v>
       </c>
-      <c r="B114" s="207" t="s">
+      <c r="B114" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C114" s="111" t="s">
@@ -33082,8 +33100,8 @@
       <c r="D114" s="106"/>
     </row>
     <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="219"/>
-      <c r="B115" s="208"/>
+      <c r="A115" s="216"/>
+      <c r="B115" s="214"/>
       <c r="C115" s="111" t="s">
         <v>373</v>
       </c>
@@ -33092,8 +33110,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="219"/>
-      <c r="B116" s="208"/>
+      <c r="A116" s="216"/>
+      <c r="B116" s="214"/>
       <c r="C116" s="111">
         <v>2.1</v>
       </c>
@@ -33102,8 +33120,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="219"/>
-      <c r="B117" s="208"/>
+      <c r="A117" s="216"/>
+      <c r="B117" s="214"/>
       <c r="C117" s="111" t="s">
         <v>239</v>
       </c>
@@ -33112,8 +33130,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="219"/>
-      <c r="B118" s="208"/>
+      <c r="A118" s="216"/>
+      <c r="B118" s="214"/>
       <c r="C118" s="111" t="s">
         <v>238</v>
       </c>
@@ -33125,7 +33143,7 @@
       <c r="A119" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="233"/>
+      <c r="B119" s="155"/>
       <c r="C119" s="103"/>
       <c r="D119" s="104"/>
     </row>
@@ -33145,7 +33163,7 @@
       <c r="A121" s="212" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="207" t="s">
+      <c r="B121" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C121" s="106"/>
@@ -33154,24 +33172,24 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="221"/>
-      <c r="B122" s="208"/>
+      <c r="A122" s="213"/>
+      <c r="B122" s="214"/>
       <c r="C122" s="106"/>
       <c r="D122" s="106" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="221"/>
-      <c r="B123" s="208"/>
+      <c r="A123" s="213"/>
+      <c r="B123" s="214"/>
       <c r="C123" s="106"/>
       <c r="D123" s="112" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="221"/>
-      <c r="B124" s="208"/>
+      <c r="A124" s="213"/>
+      <c r="B124" s="214"/>
       <c r="C124" s="106" t="s">
         <v>419</v>
       </c>
@@ -33180,8 +33198,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="221"/>
-      <c r="B125" s="208"/>
+      <c r="A125" s="213"/>
+      <c r="B125" s="214"/>
       <c r="C125" s="106" t="s">
         <v>424</v>
       </c>
@@ -33190,8 +33208,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="221"/>
-      <c r="B126" s="208"/>
+      <c r="A126" s="213"/>
+      <c r="B126" s="214"/>
       <c r="C126" s="58" t="s">
         <v>474</v>
       </c>
@@ -33200,8 +33218,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="221"/>
-      <c r="B127" s="208"/>
+      <c r="A127" s="213"/>
+      <c r="B127" s="214"/>
       <c r="C127" s="58" t="s">
         <v>480</v>
       </c>
@@ -33210,10 +33228,10 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="217" t="s">
+      <c r="A128" s="226" t="s">
         <v>329</v>
       </c>
-      <c r="B128" s="216" t="s">
+      <c r="B128" s="227" t="s">
         <v>432</v>
       </c>
       <c r="C128" s="80" t="s">
@@ -33224,8 +33242,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="217"/>
-      <c r="B129" s="216"/>
+      <c r="A129" s="226"/>
+      <c r="B129" s="227"/>
       <c r="C129" s="106" t="s">
         <v>406</v>
       </c>
@@ -33234,42 +33252,42 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="217"/>
-      <c r="B130" s="216"/>
+      <c r="A130" s="226"/>
+      <c r="B130" s="227"/>
       <c r="C130" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="218" t="s">
+      <c r="D130" s="208" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="217"/>
-      <c r="B131" s="216"/>
+      <c r="A131" s="226"/>
+      <c r="B131" s="227"/>
       <c r="C131" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="D131" s="219"/>
+      <c r="D131" s="216"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="217"/>
-      <c r="B132" s="216"/>
+      <c r="A132" s="226"/>
+      <c r="B132" s="227"/>
       <c r="C132" s="121" t="s">
         <v>411</v>
       </c>
-      <c r="D132" s="219"/>
+      <c r="D132" s="216"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="217"/>
-      <c r="B133" s="216"/>
+      <c r="A133" s="226"/>
+      <c r="B133" s="227"/>
       <c r="C133" s="121" t="s">
         <v>412</v>
       </c>
-      <c r="D133" s="219"/>
+      <c r="D133" s="216"/>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="217"/>
-      <c r="B134" s="216"/>
+      <c r="A134" s="226"/>
+      <c r="B134" s="227"/>
       <c r="C134" s="138" t="s">
         <v>475</v>
       </c>
@@ -33292,10 +33310,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="229" t="s">
+      <c r="A136" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="B136" s="207" t="s">
+      <c r="B136" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C136" s="106" t="s">
@@ -33306,8 +33324,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="230"/>
-      <c r="B137" s="208"/>
+      <c r="A137" s="221"/>
+      <c r="B137" s="214"/>
       <c r="C137" s="106" t="s">
         <v>265</v>
       </c>
@@ -33316,8 +33334,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="230"/>
-      <c r="B138" s="208"/>
+      <c r="A138" s="221"/>
+      <c r="B138" s="214"/>
       <c r="C138" s="106" t="s">
         <v>264</v>
       </c>
@@ -33326,8 +33344,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="230"/>
-      <c r="B139" s="208"/>
+      <c r="A139" s="221"/>
+      <c r="B139" s="214"/>
       <c r="C139" s="112" t="s">
         <v>272</v>
       </c>
@@ -33336,8 +33354,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="230"/>
-      <c r="B140" s="208"/>
+      <c r="A140" s="221"/>
+      <c r="B140" s="214"/>
       <c r="C140" s="106" t="s">
         <v>277</v>
       </c>
@@ -33346,8 +33364,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="230"/>
-      <c r="B141" s="208"/>
+      <c r="A141" s="221"/>
+      <c r="B141" s="214"/>
       <c r="C141" s="106" t="s">
         <v>278</v>
       </c>
@@ -33356,8 +33374,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="230"/>
-      <c r="B142" s="208"/>
+      <c r="A142" s="221"/>
+      <c r="B142" s="214"/>
       <c r="C142" s="112" t="s">
         <v>283</v>
       </c>
@@ -33366,8 +33384,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="230"/>
-      <c r="B143" s="208"/>
+      <c r="A143" s="221"/>
+      <c r="B143" s="214"/>
       <c r="C143" s="112" t="s">
         <v>297</v>
       </c>
@@ -33376,8 +33394,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="230"/>
-      <c r="B144" s="208"/>
+      <c r="A144" s="221"/>
+      <c r="B144" s="214"/>
       <c r="C144" s="112" t="s">
         <v>284</v>
       </c>
@@ -33386,8 +33404,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="230"/>
-      <c r="B145" s="208"/>
+      <c r="A145" s="221"/>
+      <c r="B145" s="214"/>
       <c r="C145" s="122" t="s">
         <v>243</v>
       </c>
@@ -33396,8 +33414,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="230"/>
-      <c r="B146" s="208"/>
+      <c r="A146" s="221"/>
+      <c r="B146" s="214"/>
       <c r="C146" s="116" t="s">
         <v>306</v>
       </c>
@@ -33406,8 +33424,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="230"/>
-      <c r="B147" s="208"/>
+      <c r="A147" s="221"/>
+      <c r="B147" s="214"/>
       <c r="C147" s="106" t="s">
         <v>307</v>
       </c>
@@ -33416,8 +33434,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="230"/>
-      <c r="B148" s="208"/>
+      <c r="A148" s="221"/>
+      <c r="B148" s="214"/>
       <c r="C148" s="112" t="s">
         <v>308</v>
       </c>
@@ -33426,8 +33444,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="230"/>
-      <c r="B149" s="208"/>
+      <c r="A149" s="221"/>
+      <c r="B149" s="214"/>
       <c r="C149" s="112" t="s">
         <v>310</v>
       </c>
@@ -33436,8 +33454,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="230"/>
-      <c r="B150" s="208"/>
+      <c r="A150" s="221"/>
+      <c r="B150" s="214"/>
       <c r="C150" s="112" t="s">
         <v>263</v>
       </c>
@@ -33446,8 +33464,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="230"/>
-      <c r="B151" s="208"/>
+      <c r="A151" s="221"/>
+      <c r="B151" s="214"/>
       <c r="C151" s="106" t="s">
         <v>313</v>
       </c>
@@ -33456,8 +33474,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="230"/>
-      <c r="B152" s="208"/>
+      <c r="A152" s="221"/>
+      <c r="B152" s="214"/>
       <c r="C152" s="112" t="s">
         <v>278</v>
       </c>
@@ -33466,8 +33484,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="230"/>
-      <c r="B153" s="208"/>
+      <c r="A153" s="221"/>
+      <c r="B153" s="214"/>
       <c r="C153" s="112" t="s">
         <v>314</v>
       </c>
@@ -33476,16 +33494,16 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="230"/>
-      <c r="B154" s="208"/>
+      <c r="A154" s="221"/>
+      <c r="B154" s="214"/>
       <c r="C154" s="106"/>
       <c r="D154" s="97" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="230"/>
-      <c r="B155" s="208"/>
+      <c r="A155" s="221"/>
+      <c r="B155" s="214"/>
       <c r="C155" s="112" t="s">
         <v>317</v>
       </c>
@@ -33494,8 +33512,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="230"/>
-      <c r="B156" s="208"/>
+      <c r="A156" s="221"/>
+      <c r="B156" s="214"/>
       <c r="C156" s="112" t="s">
         <v>263</v>
       </c>
@@ -33504,8 +33522,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="230"/>
-      <c r="B157" s="208"/>
+      <c r="A157" s="221"/>
+      <c r="B157" s="214"/>
       <c r="C157" s="112" t="s">
         <v>334</v>
       </c>
@@ -33514,8 +33532,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="230"/>
-      <c r="B158" s="208"/>
+      <c r="A158" s="221"/>
+      <c r="B158" s="214"/>
       <c r="C158" s="112" t="s">
         <v>335</v>
       </c>
@@ -33524,8 +33542,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="230"/>
-      <c r="B159" s="208"/>
+      <c r="A159" s="221"/>
+      <c r="B159" s="214"/>
       <c r="C159" s="112" t="s">
         <v>319</v>
       </c>
@@ -33534,8 +33552,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="230"/>
-      <c r="B160" s="208"/>
+      <c r="A160" s="221"/>
+      <c r="B160" s="214"/>
       <c r="C160" s="117" t="s">
         <v>340</v>
       </c>
@@ -33544,8 +33562,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="230"/>
-      <c r="B161" s="208"/>
+      <c r="A161" s="221"/>
+      <c r="B161" s="214"/>
       <c r="C161" s="112" t="s">
         <v>333</v>
       </c>
@@ -33554,8 +33572,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="230"/>
-      <c r="B162" s="208"/>
+      <c r="A162" s="221"/>
+      <c r="B162" s="214"/>
       <c r="C162" s="112" t="s">
         <v>348</v>
       </c>
@@ -33564,8 +33582,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="230"/>
-      <c r="B163" s="208"/>
+      <c r="A163" s="221"/>
+      <c r="B163" s="214"/>
       <c r="C163" s="101" t="s">
         <v>351</v>
       </c>
@@ -33574,8 +33592,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="230"/>
-      <c r="B164" s="208"/>
+      <c r="A164" s="221"/>
+      <c r="B164" s="214"/>
       <c r="C164" s="112" t="s">
         <v>352</v>
       </c>
@@ -33584,8 +33602,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="230"/>
-      <c r="B165" s="208"/>
+      <c r="A165" s="221"/>
+      <c r="B165" s="214"/>
       <c r="C165" s="112" t="s">
         <v>353</v>
       </c>
@@ -33594,8 +33612,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="230"/>
-      <c r="B166" s="208"/>
+      <c r="A166" s="221"/>
+      <c r="B166" s="214"/>
       <c r="C166" s="112" t="s">
         <v>359</v>
       </c>
@@ -33604,8 +33622,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="230"/>
-      <c r="B167" s="208"/>
+      <c r="A167" s="221"/>
+      <c r="B167" s="214"/>
       <c r="C167" s="112" t="s">
         <v>361</v>
       </c>
@@ -33614,8 +33632,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="230"/>
-      <c r="B168" s="208"/>
+      <c r="A168" s="221"/>
+      <c r="B168" s="214"/>
       <c r="C168" s="112" t="s">
         <v>367</v>
       </c>
@@ -33624,8 +33642,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="230"/>
-      <c r="B169" s="208"/>
+      <c r="A169" s="221"/>
+      <c r="B169" s="214"/>
       <c r="C169" s="112" t="s">
         <v>359</v>
       </c>
@@ -33634,8 +33652,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="230"/>
-      <c r="B170" s="208"/>
+      <c r="A170" s="221"/>
+      <c r="B170" s="214"/>
       <c r="C170" s="117" t="s">
         <v>380</v>
       </c>
@@ -33644,8 +33662,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="230"/>
-      <c r="B171" s="208"/>
+      <c r="A171" s="221"/>
+      <c r="B171" s="214"/>
       <c r="C171" s="106" t="s">
         <v>384</v>
       </c>
@@ -33654,8 +33672,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="230"/>
-      <c r="B172" s="208"/>
+      <c r="A172" s="221"/>
+      <c r="B172" s="214"/>
       <c r="C172" s="106" t="s">
         <v>387</v>
       </c>
@@ -33664,8 +33682,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="230"/>
-      <c r="B173" s="208"/>
+      <c r="A173" s="221"/>
+      <c r="B173" s="214"/>
       <c r="C173" s="106" t="s">
         <v>388</v>
       </c>
@@ -33674,8 +33692,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="230"/>
-      <c r="B174" s="208"/>
+      <c r="A174" s="221"/>
+      <c r="B174" s="214"/>
       <c r="C174" s="106" t="s">
         <v>389</v>
       </c>
@@ -33684,8 +33702,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="230"/>
-      <c r="B175" s="208"/>
+      <c r="A175" s="221"/>
+      <c r="B175" s="214"/>
       <c r="C175" s="106" t="s">
         <v>390</v>
       </c>
@@ -33694,8 +33712,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="230"/>
-      <c r="B176" s="208"/>
+      <c r="A176" s="221"/>
+      <c r="B176" s="214"/>
       <c r="C176" s="106" t="s">
         <v>391</v>
       </c>
@@ -33704,8 +33722,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="230"/>
-      <c r="B177" s="208"/>
+      <c r="A177" s="221"/>
+      <c r="B177" s="214"/>
       <c r="C177" s="106" t="s">
         <v>394</v>
       </c>
@@ -33714,8 +33732,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="230"/>
-      <c r="B178" s="208"/>
+      <c r="A178" s="221"/>
+      <c r="B178" s="214"/>
       <c r="C178" s="106" t="s">
         <v>404</v>
       </c>
@@ -33724,8 +33742,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="230"/>
-      <c r="B179" s="208"/>
+      <c r="A179" s="221"/>
+      <c r="B179" s="214"/>
       <c r="C179" s="106" t="s">
         <v>405</v>
       </c>
@@ -33734,8 +33752,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="230"/>
-      <c r="B180" s="208"/>
+      <c r="A180" s="221"/>
+      <c r="B180" s="214"/>
       <c r="C180" s="106" t="s">
         <v>422</v>
       </c>
@@ -33744,8 +33762,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="230"/>
-      <c r="B181" s="208"/>
+      <c r="A181" s="221"/>
+      <c r="B181" s="214"/>
       <c r="C181" s="106" t="s">
         <v>423</v>
       </c>
@@ -33754,8 +33772,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="230"/>
-      <c r="B182" s="208"/>
+      <c r="A182" s="221"/>
+      <c r="B182" s="214"/>
       <c r="C182" s="106" t="s">
         <v>426</v>
       </c>
@@ -33764,8 +33782,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="230"/>
-      <c r="B183" s="208"/>
+      <c r="A183" s="221"/>
+      <c r="B183" s="214"/>
       <c r="C183" s="58" t="s">
         <v>477</v>
       </c>
@@ -33774,8 +33792,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="230"/>
-      <c r="B184" s="208"/>
+      <c r="A184" s="221"/>
+      <c r="B184" s="214"/>
       <c r="C184" s="106" t="s">
         <v>422</v>
       </c>
@@ -33784,8 +33802,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="230"/>
-      <c r="B185" s="208"/>
+      <c r="A185" s="221"/>
+      <c r="B185" s="214"/>
       <c r="C185" s="106" t="s">
         <v>476</v>
       </c>
@@ -33794,8 +33812,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="231"/>
-      <c r="B186" s="209"/>
+      <c r="A186" s="222"/>
+      <c r="B186" s="211"/>
       <c r="C186" s="112" t="s">
         <v>333</v>
       </c>
@@ -33804,10 +33822,10 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="229" t="s">
+      <c r="A187" s="220" t="s">
         <v>416</v>
       </c>
-      <c r="B187" s="207" t="s">
+      <c r="B187" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C187" s="106" t="s">
@@ -33818,8 +33836,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="230"/>
-      <c r="B188" s="208"/>
+      <c r="A188" s="221"/>
+      <c r="B188" s="214"/>
       <c r="C188" s="58" t="s">
         <v>478</v>
       </c>
@@ -33828,8 +33846,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="231"/>
-      <c r="B189" s="209"/>
+      <c r="A189" s="222"/>
+      <c r="B189" s="211"/>
       <c r="C189" s="58" t="s">
         <v>483</v>
       </c>
@@ -33869,7 +33887,7 @@
       <c r="A192" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B192" s="233"/>
+      <c r="B192" s="155"/>
       <c r="C192" s="103"/>
       <c r="D192" s="104"/>
     </row>
@@ -33877,7 +33895,7 @@
       <c r="A193" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="B193" s="207" t="s">
+      <c r="B193" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C193" s="106"/>
@@ -33886,8 +33904,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="221"/>
-      <c r="B194" s="208"/>
+      <c r="A194" s="213"/>
+      <c r="B194" s="214"/>
       <c r="C194" s="70" t="s">
         <v>245</v>
       </c>
@@ -33896,8 +33914,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="221"/>
-      <c r="B195" s="208"/>
+      <c r="A195" s="213"/>
+      <c r="B195" s="214"/>
       <c r="C195" s="70">
         <v>10.1</v>
       </c>
@@ -33906,8 +33924,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="221"/>
-      <c r="B196" s="208"/>
+      <c r="A196" s="213"/>
+      <c r="B196" s="214"/>
       <c r="C196" s="70">
         <v>10.199999999999999</v>
       </c>
@@ -33916,8 +33934,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="221"/>
-      <c r="B197" s="208"/>
+      <c r="A197" s="213"/>
+      <c r="B197" s="214"/>
       <c r="C197" s="98" t="s">
         <v>288</v>
       </c>
@@ -33926,8 +33944,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="221"/>
-      <c r="B198" s="208"/>
+      <c r="A198" s="213"/>
+      <c r="B198" s="214"/>
       <c r="C198" s="98" t="s">
         <v>370</v>
       </c>
@@ -33936,8 +33954,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="221"/>
-      <c r="B199" s="208"/>
+      <c r="A199" s="213"/>
+      <c r="B199" s="214"/>
       <c r="C199" s="98" t="s">
         <v>117</v>
       </c>
@@ -33946,8 +33964,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="221"/>
-      <c r="B200" s="208"/>
+      <c r="A200" s="213"/>
+      <c r="B200" s="214"/>
       <c r="C200" s="98" t="s">
         <v>417</v>
       </c>
@@ -33956,8 +33974,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="221"/>
-      <c r="B201" s="208"/>
+      <c r="A201" s="213"/>
+      <c r="B201" s="214"/>
       <c r="C201" s="98" t="s">
         <v>17</v>
       </c>
@@ -33966,8 +33984,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="213"/>
-      <c r="B202" s="209"/>
+      <c r="A202" s="215"/>
+      <c r="B202" s="211"/>
       <c r="C202" s="98" t="s">
         <v>460</v>
       </c>
@@ -33979,7 +33997,7 @@
       <c r="A203" s="212" t="s">
         <v>246</v>
       </c>
-      <c r="B203" s="207" t="s">
+      <c r="B203" s="210" t="s">
         <v>432</v>
       </c>
       <c r="C203" s="98"/>
@@ -33988,8 +34006,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="221"/>
-      <c r="B204" s="208"/>
+      <c r="A204" s="213"/>
+      <c r="B204" s="214"/>
       <c r="C204" s="125" t="s">
         <v>428</v>
       </c>
@@ -34015,7 +34033,7 @@
       <c r="A206" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B206" s="234"/>
+      <c r="B206" s="156"/>
       <c r="C206" s="127"/>
       <c r="D206" s="127"/>
     </row>
@@ -34023,7 +34041,7 @@
       <c r="A207" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="B207" s="207" t="s">
+      <c r="B207" s="210" t="s">
         <v>266</v>
       </c>
       <c r="C207" s="128" t="s">
@@ -34034,8 +34052,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="221"/>
-      <c r="B208" s="208"/>
+      <c r="A208" s="213"/>
+      <c r="B208" s="214"/>
       <c r="C208" s="128" t="s">
         <v>260</v>
       </c>
@@ -34044,18 +34062,18 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="213"/>
-      <c r="B209" s="209"/>
+      <c r="A209" s="215"/>
+      <c r="B209" s="211"/>
       <c r="C209" s="106"/>
       <c r="D209" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="227" t="s">
+      <c r="A210" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="B210" s="207" t="s">
+      <c r="B210" s="210" t="s">
         <v>266</v>
       </c>
       <c r="C210" s="118" t="s">
@@ -34066,18 +34084,18 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="228"/>
-      <c r="B211" s="209"/>
+      <c r="A211" s="224"/>
+      <c r="B211" s="211"/>
       <c r="C211" s="118"/>
       <c r="D211" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="227" t="s">
+      <c r="A212" s="223" t="s">
         <v>286</v>
       </c>
-      <c r="B212" s="207" t="s">
+      <c r="B212" s="210" t="s">
         <v>266</v>
       </c>
       <c r="C212" s="118"/>
@@ -34086,18 +34104,18 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="228"/>
-      <c r="B213" s="209"/>
+      <c r="A213" s="224"/>
+      <c r="B213" s="211"/>
       <c r="C213" s="106"/>
       <c r="D213" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="227" t="s">
+      <c r="A214" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="B214" s="207" t="s">
+      <c r="B214" s="210" t="s">
         <v>266</v>
       </c>
       <c r="C214" s="118" t="s">
@@ -34108,8 +34126,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="228"/>
-      <c r="B215" s="209"/>
+      <c r="A215" s="224"/>
+      <c r="B215" s="211"/>
       <c r="C215" s="106"/>
       <c r="D215" s="106" t="s">
         <v>408</v>
@@ -34119,7 +34137,7 @@
       <c r="A216" s="127" t="s">
         <v>268</v>
       </c>
-      <c r="B216" s="234"/>
+      <c r="B216" s="156"/>
       <c r="C216" s="127"/>
       <c r="D216" s="127"/>
     </row>
@@ -34139,7 +34157,7 @@
       <c r="A218" s="127" t="s">
         <v>274</v>
       </c>
-      <c r="B218" s="234"/>
+      <c r="B218" s="156"/>
       <c r="C218" s="127"/>
       <c r="D218" s="127"/>
     </row>
@@ -34169,7 +34187,7 @@
       <c r="A221" s="103" t="s">
         <v>497</v>
       </c>
-      <c r="B221" s="233"/>
+      <c r="B221" s="155"/>
       <c r="C221" s="103"/>
       <c r="D221" s="104"/>
     </row>
@@ -34387,7 +34405,7 @@
       <c r="A237" s="103" t="s">
         <v>507</v>
       </c>
-      <c r="B237" s="233"/>
+      <c r="B237" s="155"/>
       <c r="C237" s="103"/>
       <c r="D237" s="104"/>
     </row>
@@ -34503,47 +34521,36 @@
         <v>269</v>
       </c>
     </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="B246" s="154" t="s">
+        <v>432</v>
+      </c>
+      <c r="C246" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="D246" s="58" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="B247" s="154" t="s">
+        <v>432</v>
+      </c>
+      <c r="C247" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="D247" s="58" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="A193:A202"/>
-    <mergeCell ref="B193:B202"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A78:A95"/>
-    <mergeCell ref="B78:B95"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B136:B186"/>
-    <mergeCell ref="A136:A186"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A96:A109"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="C96:C97"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A13:A18"/>
@@ -34559,6 +34566,45 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A96:A109"/>
+    <mergeCell ref="B96:B109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="A193:A202"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A78:A95"/>
+    <mergeCell ref="B78:B95"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B136:B186"/>
+    <mergeCell ref="A136:A186"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PIT3/Schema Publication Changelog.xlsx
+++ b/PIT3/Schema Publication Changelog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\paye-employers-documentation\src\main\resources\PIT3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctrowell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D703F-E75C-4A00-B204-9F4DD8C2AB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA6EAA-E12C-4619-95BB-7FF0D0ACF732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-210" yWindow="0" windowWidth="21600" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="581">
   <si>
     <t>Document</t>
   </si>
@@ -3603,6 +3603,27 @@
   </si>
   <si>
     <t>Added SPC field</t>
+  </si>
+  <si>
+    <t>Validation Ref 165</t>
+  </si>
+  <si>
+    <t>Updated Travel &amp; Subsistence site based employees validation rule to (181.68 x 48) which would be: 8720.64</t>
+  </si>
+  <si>
+    <t>PAYE Modernisation - Payroll Submission Request Data Items</t>
+  </si>
+  <si>
+    <t>PAYE Modernisation - RPN Data Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note on case sensitivity added </t>
+  </si>
+  <si>
+    <t>ERR - Enhanced Reporting Notification (ERN) Request Data Items</t>
+  </si>
+  <si>
+    <t>ERR - Enhanced Reporting Submission Request Data Items</t>
   </si>
 </sst>
 </file>
@@ -4217,7 +4238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4683,6 +4704,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4728,38 +4755,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4782,6 +4779,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4803,103 +4860,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4911,20 +4890,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5295,12 +5325,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5323,12 +5353,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="181"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5368,10 +5398,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="187">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5385,8 +5415,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="183"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5398,8 +5428,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="183"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="188"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -5411,8 +5441,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="183"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="188"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -5424,8 +5454,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="188"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -5437,8 +5467,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="187"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -5450,10 +5480,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="190" t="s">
+      <c r="A13" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="185">
+      <c r="B13" s="187">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5467,8 +5497,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
-      <c r="B14" s="187"/>
+      <c r="A14" s="193"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -5514,12 +5544,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="181"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5559,21 +5589,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="189">
+      <c r="B21" s="191">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5587,8 +5617,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="193"/>
-      <c r="B22" s="187"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -5596,7 +5626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>32</v>
       </c>
@@ -5610,19 +5640,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="179" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="181"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="183"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="189">
+      <c r="B25" s="191">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5636,8 +5666,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="183"/>
-      <c r="B26" s="186"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="188"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -5649,8 +5679,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5662,8 +5692,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="185"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -5675,8 +5705,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -5688,8 +5718,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="183"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -5701,8 +5731,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5714,8 +5744,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="187"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -5839,12 +5869,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="179" t="s">
+      <c r="A41" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -5904,7 +5934,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5914,7 +5944,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6024,10 +6054,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -6038,8 +6068,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -6048,8 +6078,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="211"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -6058,8 +6088,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
-      <c r="B10" s="195"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -6068,8 +6098,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="194"/>
-      <c r="B11" s="195"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -6078,8 +6108,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="194"/>
-      <c r="B12" s="195"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -6088,10 +6118,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -6102,8 +6132,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="197"/>
-      <c r="B14" s="195"/>
+      <c r="A14" s="213"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -6112,8 +6142,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="197"/>
-      <c r="B15" s="195"/>
+      <c r="A15" s="213"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -6122,10 +6152,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="199" t="s">
+      <c r="B16" s="205" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -6136,8 +6166,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="199"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -6146,8 +6176,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="199"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -6156,8 +6186,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="199"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -6166,8 +6196,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -6176,8 +6206,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
-      <c r="B21" s="199"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -6186,8 +6216,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
-      <c r="B22" s="199"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -6196,8 +6226,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
-      <c r="B23" s="199"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -6206,26 +6236,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="198"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="198" t="s">
+      <c r="A24" s="196"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="196" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="197" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="198"/>
-      <c r="D25" s="205"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6236,14 +6266,14 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
+      <c r="A27" s="211"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>165</v>
       </c>
@@ -6255,7 +6285,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -6264,28 +6294,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="195" t="s">
+      <c r="B30" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="198" t="s">
+      <c r="C30" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="208" t="s">
+      <c r="D30" s="200" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="196"/>
-      <c r="B31" s="195"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="208"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="200"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="196"/>
-      <c r="B32" s="195"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -6294,8 +6324,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="196"/>
-      <c r="B33" s="195"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -6304,8 +6334,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="196"/>
-      <c r="B34" s="195"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="210"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -6314,8 +6344,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="196"/>
-      <c r="B35" s="195"/>
+      <c r="A35" s="212"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -6324,8 +6354,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="196"/>
-      <c r="B36" s="195"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -6334,26 +6364,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="196"/>
-      <c r="B37" s="195"/>
-      <c r="C37" s="209" t="s">
+      <c r="A37" s="212"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="211" t="s">
+      <c r="D37" s="203" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="196"/>
-      <c r="B38" s="195"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="211"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="203"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="194" t="s">
+      <c r="A39" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="195" t="s">
+      <c r="B39" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -6364,8 +6394,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194"/>
-      <c r="B40" s="195"/>
+      <c r="A40" s="211"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -6392,10 +6422,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -6404,8 +6434,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="196"/>
-      <c r="B44" s="195"/>
+      <c r="A44" s="212"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -6414,10 +6444,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="207" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="195" t="s">
+      <c r="B45" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -6426,8 +6456,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="203"/>
-      <c r="B46" s="195"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -6436,8 +6466,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="203"/>
-      <c r="B47" s="195"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -6446,8 +6476,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="204"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="209"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -6456,10 +6486,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A49" s="199" t="s">
+      <c r="A49" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="199" t="s">
+      <c r="B49" s="205" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -10563,8 +10593,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
-      <c r="B50" s="199"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="205"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -14668,8 +14698,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A51" s="199"/>
-      <c r="B51" s="199"/>
+      <c r="A51" s="205"/>
+      <c r="B51" s="205"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -18773,8 +18803,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A52" s="199"/>
-      <c r="B52" s="199"/>
+      <c r="A52" s="205"/>
+      <c r="B52" s="205"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -22878,12 +22908,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
-      <c r="B53" s="199"/>
-      <c r="C53" s="207" t="s">
+      <c r="A53" s="205"/>
+      <c r="B53" s="205"/>
+      <c r="C53" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="208" t="s">
+      <c r="D53" s="200" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -26983,10 +27013,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="199"/>
-      <c r="B54" s="199"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="208"/>
+      <c r="A54" s="205"/>
+      <c r="B54" s="205"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="200"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -31104,10 +31134,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A57" s="200" t="s">
+      <c r="A57" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="199" t="s">
+      <c r="B57" s="205" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -31118,8 +31148,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="200"/>
-      <c r="B58" s="199"/>
+      <c r="A58" s="204"/>
+      <c r="B58" s="205"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -31128,8 +31158,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A59" s="200"/>
-      <c r="B59" s="199"/>
+      <c r="A59" s="204"/>
+      <c r="B59" s="205"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -31138,8 +31168,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="200"/>
-      <c r="B60" s="199"/>
+      <c r="A60" s="204"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -31148,8 +31178,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A61" s="200"/>
-      <c r="B61" s="199"/>
+      <c r="A61" s="204"/>
+      <c r="B61" s="205"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -31158,8 +31188,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A62" s="200"/>
-      <c r="B62" s="199"/>
+      <c r="A62" s="204"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -31168,8 +31198,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A63" s="200"/>
-      <c r="B63" s="199"/>
+      <c r="A63" s="204"/>
+      <c r="B63" s="205"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -31178,16 +31208,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.25">
-      <c r="A64" s="200"/>
-      <c r="B64" s="199"/>
+      <c r="A64" s="204"/>
+      <c r="B64" s="205"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="200"/>
-      <c r="B65" s="199"/>
+      <c r="A65" s="204"/>
+      <c r="B65" s="205"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -31196,16 +31226,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="200"/>
-      <c r="B66" s="199"/>
+      <c r="A66" s="204"/>
+      <c r="B66" s="205"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="200"/>
-      <c r="B67" s="199"/>
+      <c r="A67" s="204"/>
+      <c r="B67" s="205"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -31214,8 +31244,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="200"/>
-      <c r="B68" s="199"/>
+      <c r="A68" s="204"/>
+      <c r="B68" s="205"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -31224,8 +31254,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="200"/>
-      <c r="B69" s="199"/>
+      <c r="A69" s="204"/>
+      <c r="B69" s="205"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -31234,8 +31264,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="200"/>
-      <c r="B70" s="199"/>
+      <c r="A70" s="204"/>
+      <c r="B70" s="205"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -31244,8 +31274,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="200"/>
-      <c r="B71" s="199"/>
+      <c r="A71" s="204"/>
+      <c r="B71" s="205"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -31254,8 +31284,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="200"/>
-      <c r="B72" s="199"/>
+      <c r="A72" s="204"/>
+      <c r="B72" s="205"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -31264,16 +31294,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="200"/>
-      <c r="B73" s="199"/>
+      <c r="A73" s="204"/>
+      <c r="B73" s="205"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="200"/>
-      <c r="B74" s="199"/>
+      <c r="A74" s="204"/>
+      <c r="B74" s="205"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -31282,18 +31312,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="200"/>
-      <c r="B75" s="199"/>
-      <c r="C75" s="206"/>
-      <c r="D75" s="201" t="s">
+      <c r="A75" s="204"/>
+      <c r="B75" s="205"/>
+      <c r="C75" s="198"/>
+      <c r="D75" s="206" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="200"/>
-      <c r="B76" s="199"/>
-      <c r="C76" s="206"/>
-      <c r="D76" s="201"/>
+      <c r="A76" s="204"/>
+      <c r="B76" s="205"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="206"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -31317,8 +31347,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -31327,29 +31357,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -31364,6 +31378,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31417,10 +31447,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="210" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -31431,8 +31461,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="194"/>
-      <c r="B5" s="195"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="221" t="s">
         <v>190</v>
       </c>
@@ -31441,58 +31471,58 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194"/>
-      <c r="B6" s="195"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="221"/>
       <c r="D6" s="220"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
+      <c r="A7" s="211"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="211"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="219"/>
+      <c r="C10" s="223"/>
       <c r="D10" s="220" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="197"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="219"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="220"/>
     </row>
     <row r="12" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="219"/>
+      <c r="A12" s="213"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="220"/>
     </row>
     <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="205" t="s">
         <v>185</v>
       </c>
       <c r="C13" s="222"/>
@@ -31501,62 +31531,62 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="198"/>
-      <c r="B14" s="199"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="222"/>
       <c r="D14" s="220"/>
     </row>
     <row r="15" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="198"/>
-      <c r="B15" s="199"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="222"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="222"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="199"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="222"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="199"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="222"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="199"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="222"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="222"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
-      <c r="B21" s="199"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="222"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
-      <c r="B22" s="199"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="222"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
-      <c r="B23" s="199"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="222"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
@@ -31655,10 +31685,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="223" t="s">
+      <c r="A32" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="226" t="s">
+      <c r="B32" s="217" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -31669,26 +31699,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
-      <c r="B33" s="227"/>
+      <c r="A33" s="215"/>
+      <c r="B33" s="218"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="224"/>
-      <c r="B34" s="227"/>
+      <c r="A34" s="215"/>
+      <c r="B34" s="218"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="224"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="215"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="225"/>
-      <c r="B36" s="228"/>
+      <c r="A36" s="216"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -31717,10 +31747,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="195" t="s">
+      <c r="B39" s="210" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -31731,8 +31761,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="196"/>
-      <c r="B40" s="195"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -31741,84 +31771,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="198" t="s">
+      <c r="D41" s="196" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="194"/>
-      <c r="B42" s="195"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="198"/>
+      <c r="A42" s="211"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="196"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="194"/>
-      <c r="B43" s="195"/>
-      <c r="C43" s="219" t="s">
+      <c r="A43" s="211"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="201" t="s">
+      <c r="D43" s="206" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="194"/>
-      <c r="B44" s="195"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="201"/>
+      <c r="A44" s="211"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="223"/>
+      <c r="D44" s="206"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="200" t="s">
+      <c r="A45" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="205" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="215"/>
+      <c r="C45" s="227"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="200"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="212" t="s">
+      <c r="A46" s="204"/>
+      <c r="B46" s="205"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="224" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="200"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="213"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="228"/>
+      <c r="D47" s="225"/>
     </row>
     <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="200"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="217"/>
-      <c r="D48" s="213"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="205"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="225"/>
     </row>
     <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="200"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="213"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="205"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="225"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="200"/>
-      <c r="B50" s="199"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="214"/>
+      <c r="A50" s="204"/>
+      <c r="B50" s="205"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="226"/>
     </row>
     <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -31841,10 +31871,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="199" t="s">
+      <c r="A53" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="199" t="s">
+      <c r="B53" s="205" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31855,8 +31885,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="199"/>
-      <c r="B54" s="199"/>
+      <c r="A54" s="205"/>
+      <c r="B54" s="205"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -31865,8 +31895,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="199"/>
-      <c r="B55" s="199"/>
+      <c r="A55" s="205"/>
+      <c r="B55" s="205"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -31875,9 +31905,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="199"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="218" t="s">
+      <c r="A56" s="205"/>
+      <c r="B56" s="205"/>
+      <c r="C56" s="230" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -31885,16 +31915,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="199"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="218"/>
+      <c r="A57" s="205"/>
+      <c r="B57" s="205"/>
+      <c r="C57" s="230"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="199"/>
-      <c r="B58" s="199"/>
+      <c r="A58" s="205"/>
+      <c r="B58" s="205"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -31903,8 +31933,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="199"/>
-      <c r="B59" s="199"/>
+      <c r="A59" s="205"/>
+      <c r="B59" s="205"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -31913,9 +31943,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="199"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="218" t="s">
+      <c r="A60" s="205"/>
+      <c r="B60" s="205"/>
+      <c r="C60" s="230" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -31923,25 +31953,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="199"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="218"/>
+      <c r="A61" s="205"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="230"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="199"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="218"/>
+      <c r="A62" s="205"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="230"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="199"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="219" t="s">
+      <c r="A63" s="205"/>
+      <c r="B63" s="205"/>
+      <c r="C63" s="223" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -31949,30 +31979,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="199"/>
-      <c r="B64" s="199"/>
-      <c r="C64" s="219"/>
-      <c r="D64" s="201" t="s">
+      <c r="A64" s="205"/>
+      <c r="B64" s="205"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="206" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="199"/>
-      <c r="B65" s="199"/>
-      <c r="C65" s="219"/>
-      <c r="D65" s="201"/>
+      <c r="A65" s="205"/>
+      <c r="B65" s="205"/>
+      <c r="C65" s="223"/>
+      <c r="D65" s="206"/>
     </row>
     <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="199"/>
-      <c r="B66" s="199"/>
-      <c r="C66" s="219"/>
-      <c r="D66" s="201"/>
+      <c r="A66" s="205"/>
+      <c r="B66" s="205"/>
+      <c r="C66" s="223"/>
+      <c r="D66" s="206"/>
     </row>
     <row r="67" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="199"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="219"/>
-      <c r="D67" s="201"/>
+      <c r="A67" s="205"/>
+      <c r="B67" s="205"/>
+      <c r="C67" s="223"/>
+      <c r="D67" s="206"/>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -32028,23 +32058,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
@@ -32061,6 +32074,23 @@
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32069,10 +32099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:XFD291"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32106,10 +32136,10 @@
       <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="255" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="255" t="s">
         <v>435</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -32120,8 +32150,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="256"/>
+      <c r="B4" s="256"/>
       <c r="C4" s="100" t="s">
         <v>438</v>
       </c>
@@ -32130,8 +32160,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
+      <c r="A5" s="257"/>
+      <c r="B5" s="257"/>
       <c r="C5" s="100" t="s">
         <v>438</v>
       </c>
@@ -32154,10 +32184,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="255" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="255" t="s">
         <v>435</v>
       </c>
       <c r="C7" s="141" t="s">
@@ -32168,8 +32198,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
-      <c r="B8" s="230"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="256"/>
       <c r="C8" s="141" t="s">
         <v>486</v>
       </c>
@@ -32178,8 +32208,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="231"/>
-      <c r="B9" s="231"/>
+      <c r="A9" s="257"/>
+      <c r="B9" s="257"/>
       <c r="C9" s="141" t="s">
         <v>489</v>
       </c>
@@ -32196,10 +32226,10 @@
       <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="243" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C11" s="128" t="s">
@@ -32210,8 +32240,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="238"/>
-      <c r="B12" s="234"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="236"/>
       <c r="C12" s="128" t="s">
         <v>451</v>
       </c>
@@ -32220,7 +32250,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="232" t="s">
+      <c r="A13" s="235" t="s">
         <v>280</v>
       </c>
       <c r="B13" s="149" t="s">
@@ -32234,7 +32264,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="233"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="151"/>
       <c r="C14" s="106" t="s">
         <v>300</v>
@@ -32244,7 +32274,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="233"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="151"/>
       <c r="C15" s="128" t="s">
         <v>281</v>
@@ -32254,7 +32284,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="233"/>
+      <c r="A16" s="237"/>
       <c r="B16" s="151"/>
       <c r="C16" s="128" t="s">
         <v>21</v>
@@ -32264,7 +32294,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="233"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="150"/>
       <c r="C17" s="128" t="s">
         <v>449</v>
@@ -32274,7 +32304,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+      <c r="A18" s="236"/>
       <c r="B18" s="151"/>
       <c r="C18" s="128" t="s">
         <v>436</v>
@@ -32283,7 +32313,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="132" t="s">
         <v>453</v>
       </c>
@@ -32298,10 +32328,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="243" t="s">
         <v>454</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="B20" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C20" s="128" t="s">
@@ -32312,8 +32342,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="238"/>
-      <c r="B21" s="234"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="236"/>
       <c r="C21" s="128"/>
       <c r="D21" s="106" t="s">
         <v>479</v>
@@ -32328,10 +32358,10 @@
       <c r="D22" s="104"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="239" t="s">
+      <c r="A23" s="260" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="240" t="s">
+      <c r="B23" s="261" t="s">
         <v>432</v>
       </c>
       <c r="C23" s="100" t="s">
@@ -32342,8 +32372,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="239"/>
-      <c r="B24" s="240"/>
+      <c r="A24" s="260"/>
+      <c r="B24" s="261"/>
       <c r="C24" s="100" t="s">
         <v>342</v>
       </c>
@@ -32352,8 +32382,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="239"/>
-      <c r="B25" s="240"/>
+      <c r="A25" s="260"/>
+      <c r="B25" s="261"/>
       <c r="C25" s="100" t="s">
         <v>338</v>
       </c>
@@ -32370,10 +32400,10 @@
       <c r="D26" s="104"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="237" t="s">
+      <c r="A27" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="232" t="s">
+      <c r="B27" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C27" s="106"/>
@@ -32382,8 +32412,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="243"/>
-      <c r="B28" s="233"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="237"/>
       <c r="C28" s="70" t="s">
         <v>234</v>
       </c>
@@ -32392,8 +32422,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="233"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="140" t="s">
         <v>445</v>
       </c>
@@ -32402,8 +32432,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="243"/>
-      <c r="B30" s="233"/>
+      <c r="A30" s="244"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="139" t="s">
         <v>480</v>
       </c>
@@ -32412,8 +32442,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="243"/>
-      <c r="B31" s="233"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="147" t="s">
         <v>491</v>
       </c>
@@ -32422,8 +32452,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="243"/>
-      <c r="B32" s="233"/>
+      <c r="A32" s="244"/>
+      <c r="B32" s="237"/>
       <c r="C32" s="147" t="s">
         <v>480</v>
       </c>
@@ -32432,10 +32462,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="237" t="s">
+      <c r="A33" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -32446,8 +32476,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="243"/>
-      <c r="B34" s="233"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="237"/>
       <c r="C34" s="131" t="s">
         <v>467</v>
       </c>
@@ -32456,8 +32486,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="238"/>
-      <c r="B35" s="234"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="236"/>
       <c r="C35" s="136" t="s">
         <v>457</v>
       </c>
@@ -32465,7 +32495,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="108" t="s">
         <v>253</v>
       </c>
@@ -32479,7 +32509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="108" t="s">
         <v>372</v>
       </c>
@@ -32506,10 +32536,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="242" t="s">
+      <c r="A39" s="251" t="s">
         <v>270</v>
       </c>
-      <c r="B39" s="241" t="s">
+      <c r="B39" s="252" t="s">
         <v>432</v>
       </c>
       <c r="C39" s="106"/>
@@ -32518,8 +32548,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="242"/>
-      <c r="B40" s="241"/>
+      <c r="A40" s="251"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="106" t="s">
         <v>494</v>
       </c>
@@ -32528,16 +32558,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="242"/>
-      <c r="B41" s="241"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="106"/>
       <c r="D41" s="106" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="242"/>
-      <c r="B42" s="241"/>
+      <c r="A42" s="251"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="110" t="s">
         <v>320</v>
       </c>
@@ -32546,8 +32576,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="242"/>
-      <c r="B43" s="241"/>
+      <c r="A43" s="251"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="111" t="s">
         <v>399</v>
       </c>
@@ -32568,10 +32598,10 @@
       <c r="D44" s="106"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="235" t="s">
+      <c r="A45" s="258" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C45" s="106"/>
@@ -32580,8 +32610,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="236"/>
-      <c r="B46" s="233"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="237"/>
       <c r="C46" s="111" t="s">
         <v>356</v>
       </c>
@@ -32590,8 +32620,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="236"/>
-      <c r="B47" s="233"/>
+      <c r="A47" s="259"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="111" t="s">
         <v>354</v>
       </c>
@@ -32600,8 +32630,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="236"/>
-      <c r="B48" s="233"/>
+      <c r="A48" s="259"/>
+      <c r="B48" s="237"/>
       <c r="C48" s="114" t="s">
         <v>362</v>
       </c>
@@ -32610,8 +32640,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="236"/>
-      <c r="B49" s="233"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="111" t="s">
         <v>354</v>
       </c>
@@ -32620,8 +32650,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="236"/>
-      <c r="B50" s="233"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="111" t="s">
         <v>366</v>
       </c>
@@ -32630,8 +32660,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="236"/>
-      <c r="B51" s="233"/>
+      <c r="A51" s="259"/>
+      <c r="B51" s="237"/>
       <c r="C51" s="111" t="s">
         <v>354</v>
       </c>
@@ -32640,8 +32670,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="236"/>
-      <c r="B52" s="233"/>
+      <c r="A52" s="259"/>
+      <c r="B52" s="237"/>
       <c r="C52" s="130" t="s">
         <v>461</v>
       </c>
@@ -32650,8 +32680,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="236"/>
-      <c r="B53" s="233"/>
+      <c r="A53" s="259"/>
+      <c r="B53" s="237"/>
       <c r="C53" s="130" t="s">
         <v>456</v>
       </c>
@@ -32660,8 +32690,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="236"/>
-      <c r="B54" s="233"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="237"/>
       <c r="C54" s="130" t="s">
         <v>354</v>
       </c>
@@ -32670,8 +32700,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="236"/>
-      <c r="B55" s="233"/>
+      <c r="A55" s="259"/>
+      <c r="B55" s="237"/>
       <c r="C55" s="130" t="s">
         <v>456</v>
       </c>
@@ -32680,8 +32710,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="236"/>
-      <c r="B56" s="233"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="145" t="s">
         <v>354</v>
       </c>
@@ -32690,8 +32720,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="236"/>
-      <c r="B57" s="233"/>
+      <c r="A57" s="259"/>
+      <c r="B57" s="237"/>
       <c r="C57" s="145" t="s">
         <v>480</v>
       </c>
@@ -32700,8 +32730,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="236"/>
-      <c r="B58" s="233"/>
+      <c r="A58" s="259"/>
+      <c r="B58" s="237"/>
       <c r="C58" s="147" t="s">
         <v>491</v>
       </c>
@@ -32710,8 +32740,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="236"/>
-      <c r="B59" s="233"/>
+      <c r="A59" s="259"/>
+      <c r="B59" s="237"/>
       <c r="C59" s="147" t="s">
         <v>480</v>
       </c>
@@ -32746,10 +32776,10 @@
       <c r="D61" s="112"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="244" t="s">
+      <c r="A62" s="233" t="s">
         <v>364</v>
       </c>
-      <c r="B62" s="232" t="s">
+      <c r="B62" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C62" s="111" t="s">
@@ -32758,8 +32788,8 @@
       <c r="D62" s="112"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="257"/>
-      <c r="B63" s="234"/>
+      <c r="A63" s="234"/>
+      <c r="B63" s="236"/>
       <c r="C63" s="111" t="s">
         <v>399</v>
       </c>
@@ -32767,7 +32797,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="103" t="s">
         <v>28</v>
       </c>
@@ -32776,10 +32806,10 @@
       <c r="D64" s="103"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="244" t="s">
+      <c r="A65" s="233" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="232" t="s">
+      <c r="B65" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C65" s="106"/>
@@ -32788,24 +32818,24 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="245"/>
-      <c r="B66" s="233"/>
+      <c r="A66" s="246"/>
+      <c r="B66" s="237"/>
       <c r="C66" s="106"/>
       <c r="D66" s="106" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="245"/>
-      <c r="B67" s="233"/>
+      <c r="A67" s="246"/>
+      <c r="B67" s="237"/>
       <c r="C67" s="106"/>
       <c r="D67" s="106" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="245"/>
-      <c r="B68" s="233"/>
+      <c r="A68" s="246"/>
+      <c r="B68" s="237"/>
       <c r="C68" s="106" t="s">
         <v>295</v>
       </c>
@@ -32814,8 +32844,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="245"/>
-      <c r="B69" s="233"/>
+      <c r="A69" s="246"/>
+      <c r="B69" s="237"/>
       <c r="C69" s="106" t="s">
         <v>323</v>
       </c>
@@ -32824,8 +32854,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="245"/>
-      <c r="B70" s="233"/>
+      <c r="A70" s="246"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="106" t="s">
         <v>368</v>
       </c>
@@ -32834,8 +32864,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="245"/>
-      <c r="B71" s="233"/>
+      <c r="A71" s="246"/>
+      <c r="B71" s="237"/>
       <c r="C71" s="61" t="s">
         <v>472</v>
       </c>
@@ -32844,8 +32874,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="245"/>
-      <c r="B72" s="233"/>
+      <c r="A72" s="246"/>
+      <c r="B72" s="237"/>
       <c r="C72" s="58" t="s">
         <v>37</v>
       </c>
@@ -32854,8 +32884,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="245"/>
-      <c r="B73" s="233"/>
+      <c r="A73" s="246"/>
+      <c r="B73" s="237"/>
       <c r="C73" s="137" t="s">
         <v>354</v>
       </c>
@@ -32864,8 +32894,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="245"/>
-      <c r="B74" s="233"/>
+      <c r="A74" s="246"/>
+      <c r="B74" s="237"/>
       <c r="C74" s="137" t="s">
         <v>456</v>
       </c>
@@ -32874,8 +32904,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="245"/>
-      <c r="B75" s="233"/>
+      <c r="A75" s="246"/>
+      <c r="B75" s="237"/>
       <c r="C75" s="137" t="s">
         <v>480</v>
       </c>
@@ -32884,8 +32914,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="245"/>
-      <c r="B76" s="233"/>
+      <c r="A76" s="246"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="146" t="s">
         <v>491</v>
       </c>
@@ -32894,8 +32924,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="245"/>
-      <c r="B77" s="233"/>
+      <c r="A77" s="246"/>
+      <c r="B77" s="237"/>
       <c r="C77" s="146" t="s">
         <v>480</v>
       </c>
@@ -32907,7 +32937,7 @@
       <c r="A78" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="232" t="s">
+      <c r="B78" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C78" s="106" t="s">
@@ -32919,7 +32949,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="248"/>
-      <c r="B79" s="233"/>
+      <c r="B79" s="237"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106" t="s">
         <v>237</v>
@@ -32927,7 +32957,7 @@
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="248"/>
-      <c r="B80" s="233"/>
+      <c r="B80" s="237"/>
       <c r="C80" s="116" t="s">
         <v>324</v>
       </c>
@@ -32937,7 +32967,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="248"/>
-      <c r="B81" s="233"/>
+      <c r="B81" s="237"/>
       <c r="C81" s="116" t="s">
         <v>494</v>
       </c>
@@ -32947,7 +32977,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="248"/>
-      <c r="B82" s="233"/>
+      <c r="B82" s="237"/>
       <c r="C82" s="116" t="s">
         <v>354</v>
       </c>
@@ -32957,7 +32987,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="248"/>
-      <c r="B83" s="233"/>
+      <c r="B83" s="237"/>
       <c r="C83" s="116" t="s">
         <v>362</v>
       </c>
@@ -32967,7 +32997,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="248"/>
-      <c r="B84" s="233"/>
+      <c r="B84" s="237"/>
       <c r="C84" s="116" t="s">
         <v>366</v>
       </c>
@@ -32977,7 +33007,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="248"/>
-      <c r="B85" s="233"/>
+      <c r="B85" s="237"/>
       <c r="C85" s="116" t="s">
         <v>376</v>
       </c>
@@ -32987,7 +33017,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="248"/>
-      <c r="B86" s="233"/>
+      <c r="B86" s="237"/>
       <c r="C86" s="108" t="s">
         <v>354</v>
       </c>
@@ -32997,7 +33027,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="248"/>
-      <c r="B87" s="233"/>
+      <c r="B87" s="237"/>
       <c r="C87" s="137" t="s">
         <v>461</v>
       </c>
@@ -33007,7 +33037,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="248"/>
-      <c r="B88" s="233"/>
+      <c r="B88" s="237"/>
       <c r="C88" s="137" t="s">
         <v>456</v>
       </c>
@@ -33017,7 +33047,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="248"/>
-      <c r="B89" s="233"/>
+      <c r="B89" s="237"/>
       <c r="C89" s="137" t="s">
         <v>354</v>
       </c>
@@ -33027,7 +33057,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="248"/>
-      <c r="B90" s="233"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="137" t="s">
         <v>456</v>
       </c>
@@ -33037,7 +33067,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="248"/>
-      <c r="B91" s="233"/>
+      <c r="B91" s="237"/>
       <c r="C91" s="137" t="s">
         <v>368</v>
       </c>
@@ -33047,7 +33077,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="248"/>
-      <c r="B92" s="233"/>
+      <c r="B92" s="237"/>
       <c r="C92" s="137" t="s">
         <v>354</v>
       </c>
@@ -33057,7 +33087,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="248"/>
-      <c r="B93" s="233"/>
+      <c r="B93" s="237"/>
       <c r="C93" s="137" t="s">
         <v>480</v>
       </c>
@@ -33067,7 +33097,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="248"/>
-      <c r="B94" s="233"/>
+      <c r="B94" s="237"/>
       <c r="C94" s="146" t="s">
         <v>491</v>
       </c>
@@ -33077,7 +33107,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="249"/>
-      <c r="B95" s="234"/>
+      <c r="B95" s="236"/>
       <c r="C95" s="146" t="s">
         <v>480</v>
       </c>
@@ -33086,13 +33116,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="237" t="s">
+      <c r="A96" s="243" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="232" t="s">
+      <c r="B96" s="235" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="250" t="s">
+      <c r="C96" s="253" t="s">
         <v>238</v>
       </c>
       <c r="D96" s="96" t="s">
@@ -33100,17 +33130,17 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="243"/>
-      <c r="B97" s="233"/>
-      <c r="C97" s="251"/>
+      <c r="A97" s="244"/>
+      <c r="B97" s="237"/>
+      <c r="C97" s="254"/>
       <c r="D97" s="112" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="243"/>
-      <c r="B98" s="233"/>
-      <c r="C98" s="246" t="s">
+      <c r="A98" s="244"/>
+      <c r="B98" s="237"/>
+      <c r="C98" s="250" t="s">
         <v>239</v>
       </c>
       <c r="D98" s="106" t="s">
@@ -33118,16 +33148,16 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="243"/>
-      <c r="B99" s="233"/>
-      <c r="C99" s="246"/>
+      <c r="A99" s="244"/>
+      <c r="B99" s="237"/>
+      <c r="C99" s="250"/>
       <c r="D99" s="118" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="243"/>
-      <c r="B100" s="233"/>
+      <c r="A100" s="244"/>
+      <c r="B100" s="237"/>
       <c r="C100" s="111" t="s">
         <v>302</v>
       </c>
@@ -33136,8 +33166,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="243"/>
-      <c r="B101" s="233"/>
+      <c r="A101" s="244"/>
+      <c r="B101" s="237"/>
       <c r="C101" s="111">
         <v>2.1</v>
       </c>
@@ -33146,8 +33176,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="243"/>
-      <c r="B102" s="233"/>
+      <c r="A102" s="244"/>
+      <c r="B102" s="237"/>
       <c r="C102" s="111" t="s">
         <v>238</v>
       </c>
@@ -33156,8 +33186,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="243"/>
-      <c r="B103" s="233"/>
+      <c r="A103" s="244"/>
+      <c r="B103" s="237"/>
       <c r="C103" s="111" t="s">
         <v>238</v>
       </c>
@@ -33166,8 +33196,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="243"/>
-      <c r="B104" s="233"/>
+      <c r="A104" s="244"/>
+      <c r="B104" s="237"/>
       <c r="C104" s="111" t="s">
         <v>238</v>
       </c>
@@ -33176,8 +33206,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="243"/>
-      <c r="B105" s="233"/>
+      <c r="A105" s="244"/>
+      <c r="B105" s="237"/>
       <c r="C105" s="119" t="s">
         <v>373</v>
       </c>
@@ -33186,8 +33216,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="243"/>
-      <c r="B106" s="233"/>
+      <c r="A106" s="244"/>
+      <c r="B106" s="237"/>
       <c r="C106" s="111">
         <v>2.1</v>
       </c>
@@ -33196,8 +33226,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="243"/>
-      <c r="B107" s="233"/>
+      <c r="A107" s="244"/>
+      <c r="B107" s="237"/>
       <c r="C107" s="111" t="s">
         <v>238</v>
       </c>
@@ -33206,8 +33236,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="243"/>
-      <c r="B108" s="233"/>
+      <c r="A108" s="244"/>
+      <c r="B108" s="237"/>
       <c r="C108" s="111" t="s">
         <v>238</v>
       </c>
@@ -33216,8 +33246,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="243"/>
-      <c r="B109" s="233"/>
+      <c r="A109" s="244"/>
+      <c r="B109" s="237"/>
       <c r="C109" s="111">
         <v>2.1</v>
       </c>
@@ -33229,7 +33259,7 @@
       <c r="A110" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="B110" s="232" t="s">
+      <c r="B110" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C110" s="106" t="s">
@@ -33241,7 +33271,7 @@
     </row>
     <row r="111" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="248"/>
-      <c r="B111" s="233"/>
+      <c r="B111" s="237"/>
       <c r="C111" s="106" t="s">
         <v>494</v>
       </c>
@@ -33251,7 +33281,7 @@
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="248"/>
-      <c r="B112" s="233"/>
+      <c r="B112" s="237"/>
       <c r="C112" s="118" t="s">
         <v>276</v>
       </c>
@@ -33261,7 +33291,7 @@
     </row>
     <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="249"/>
-      <c r="B113" s="234"/>
+      <c r="B113" s="236"/>
       <c r="C113" s="106" t="s">
         <v>345</v>
       </c>
@@ -33270,10 +33300,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="244" t="s">
+      <c r="A114" s="233" t="s">
         <v>365</v>
       </c>
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C114" s="111" t="s">
@@ -33282,8 +33312,8 @@
       <c r="D114" s="106"/>
     </row>
     <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="245"/>
-      <c r="B115" s="233"/>
+      <c r="A115" s="246"/>
+      <c r="B115" s="237"/>
       <c r="C115" s="111" t="s">
         <v>373</v>
       </c>
@@ -33292,8 +33322,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="245"/>
-      <c r="B116" s="233"/>
+      <c r="A116" s="246"/>
+      <c r="B116" s="237"/>
       <c r="C116" s="111">
         <v>2.1</v>
       </c>
@@ -33302,8 +33332,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="245"/>
-      <c r="B117" s="233"/>
+      <c r="A117" s="246"/>
+      <c r="B117" s="237"/>
       <c r="C117" s="111" t="s">
         <v>239</v>
       </c>
@@ -33312,8 +33342,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="245"/>
-      <c r="B118" s="233"/>
+      <c r="A118" s="246"/>
+      <c r="B118" s="237"/>
       <c r="C118" s="111" t="s">
         <v>238</v>
       </c>
@@ -33342,10 +33372,10 @@
       <c r="D120" s="112"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="237" t="s">
+      <c r="A121" s="243" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="232" t="s">
+      <c r="B121" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C121" s="106"/>
@@ -33354,24 +33384,24 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="243"/>
-      <c r="B122" s="233"/>
+      <c r="A122" s="244"/>
+      <c r="B122" s="237"/>
       <c r="C122" s="106"/>
       <c r="D122" s="106" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="243"/>
-      <c r="B123" s="233"/>
+      <c r="A123" s="244"/>
+      <c r="B123" s="237"/>
       <c r="C123" s="106"/>
       <c r="D123" s="112" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="243"/>
-      <c r="B124" s="233"/>
+      <c r="A124" s="244"/>
+      <c r="B124" s="237"/>
       <c r="C124" s="106" t="s">
         <v>419</v>
       </c>
@@ -33380,8 +33410,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="243"/>
-      <c r="B125" s="233"/>
+      <c r="A125" s="244"/>
+      <c r="B125" s="237"/>
       <c r="C125" s="106" t="s">
         <v>424</v>
       </c>
@@ -33390,8 +33420,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="243"/>
-      <c r="B126" s="233"/>
+      <c r="A126" s="244"/>
+      <c r="B126" s="237"/>
       <c r="C126" s="58" t="s">
         <v>474</v>
       </c>
@@ -33400,8 +33430,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="243"/>
-      <c r="B127" s="233"/>
+      <c r="A127" s="244"/>
+      <c r="B127" s="237"/>
       <c r="C127" s="58" t="s">
         <v>480</v>
       </c>
@@ -33410,10 +33440,10 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="242" t="s">
+      <c r="A128" s="251" t="s">
         <v>329</v>
       </c>
-      <c r="B128" s="241" t="s">
+      <c r="B128" s="252" t="s">
         <v>432</v>
       </c>
       <c r="C128" s="80" t="s">
@@ -33424,8 +33454,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="242"/>
-      <c r="B129" s="241"/>
+      <c r="A129" s="251"/>
+      <c r="B129" s="252"/>
       <c r="C129" s="106" t="s">
         <v>406</v>
       </c>
@@ -33434,42 +33464,42 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="242"/>
-      <c r="B130" s="241"/>
+      <c r="A130" s="251"/>
+      <c r="B130" s="252"/>
       <c r="C130" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="244" t="s">
+      <c r="D130" s="233" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="242"/>
-      <c r="B131" s="241"/>
+      <c r="A131" s="251"/>
+      <c r="B131" s="252"/>
       <c r="C131" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="D131" s="245"/>
+      <c r="D131" s="246"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="242"/>
-      <c r="B132" s="241"/>
+      <c r="A132" s="251"/>
+      <c r="B132" s="252"/>
       <c r="C132" s="121" t="s">
         <v>411</v>
       </c>
-      <c r="D132" s="245"/>
+      <c r="D132" s="246"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="242"/>
-      <c r="B133" s="241"/>
+      <c r="A133" s="251"/>
+      <c r="B133" s="252"/>
       <c r="C133" s="121" t="s">
         <v>412</v>
       </c>
-      <c r="D133" s="245"/>
+      <c r="D133" s="246"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="242"/>
-      <c r="B134" s="241"/>
+      <c r="A134" s="251"/>
+      <c r="B134" s="252"/>
       <c r="C134" s="138" t="s">
         <v>475</v>
       </c>
@@ -33492,10 +33522,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="252" t="s">
+      <c r="A136" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="B136" s="232" t="s">
+      <c r="B136" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C136" s="106" t="s">
@@ -33506,8 +33536,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="253"/>
-      <c r="B137" s="233"/>
+      <c r="A137" s="239"/>
+      <c r="B137" s="237"/>
       <c r="C137" s="106" t="s">
         <v>265</v>
       </c>
@@ -33516,8 +33546,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="253"/>
-      <c r="B138" s="233"/>
+      <c r="A138" s="239"/>
+      <c r="B138" s="237"/>
       <c r="C138" s="106" t="s">
         <v>264</v>
       </c>
@@ -33526,8 +33556,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="253"/>
-      <c r="B139" s="233"/>
+      <c r="A139" s="239"/>
+      <c r="B139" s="237"/>
       <c r="C139" s="112" t="s">
         <v>272</v>
       </c>
@@ -33536,8 +33566,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="253"/>
-      <c r="B140" s="233"/>
+      <c r="A140" s="239"/>
+      <c r="B140" s="237"/>
       <c r="C140" s="106" t="s">
         <v>277</v>
       </c>
@@ -33546,8 +33576,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="253"/>
-      <c r="B141" s="233"/>
+      <c r="A141" s="239"/>
+      <c r="B141" s="237"/>
       <c r="C141" s="106" t="s">
         <v>278</v>
       </c>
@@ -33556,8 +33586,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="253"/>
-      <c r="B142" s="233"/>
+      <c r="A142" s="239"/>
+      <c r="B142" s="237"/>
       <c r="C142" s="112" t="s">
         <v>283</v>
       </c>
@@ -33566,8 +33596,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="253"/>
-      <c r="B143" s="233"/>
+      <c r="A143" s="239"/>
+      <c r="B143" s="237"/>
       <c r="C143" s="112" t="s">
         <v>297</v>
       </c>
@@ -33576,8 +33606,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="253"/>
-      <c r="B144" s="233"/>
+      <c r="A144" s="239"/>
+      <c r="B144" s="237"/>
       <c r="C144" s="112" t="s">
         <v>284</v>
       </c>
@@ -33586,8 +33616,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="253"/>
-      <c r="B145" s="233"/>
+      <c r="A145" s="239"/>
+      <c r="B145" s="237"/>
       <c r="C145" s="122" t="s">
         <v>243</v>
       </c>
@@ -33596,8 +33626,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="253"/>
-      <c r="B146" s="233"/>
+      <c r="A146" s="239"/>
+      <c r="B146" s="237"/>
       <c r="C146" s="116" t="s">
         <v>306</v>
       </c>
@@ -33606,8 +33636,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="253"/>
-      <c r="B147" s="233"/>
+      <c r="A147" s="239"/>
+      <c r="B147" s="237"/>
       <c r="C147" s="106" t="s">
         <v>307</v>
       </c>
@@ -33616,8 +33646,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="253"/>
-      <c r="B148" s="233"/>
+      <c r="A148" s="239"/>
+      <c r="B148" s="237"/>
       <c r="C148" s="112" t="s">
         <v>308</v>
       </c>
@@ -33626,8 +33656,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="253"/>
-      <c r="B149" s="233"/>
+      <c r="A149" s="239"/>
+      <c r="B149" s="237"/>
       <c r="C149" s="112" t="s">
         <v>310</v>
       </c>
@@ -33636,8 +33666,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="253"/>
-      <c r="B150" s="233"/>
+      <c r="A150" s="239"/>
+      <c r="B150" s="237"/>
       <c r="C150" s="112" t="s">
         <v>263</v>
       </c>
@@ -33646,8 +33676,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="253"/>
-      <c r="B151" s="233"/>
+      <c r="A151" s="239"/>
+      <c r="B151" s="237"/>
       <c r="C151" s="106" t="s">
         <v>313</v>
       </c>
@@ -33656,8 +33686,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="253"/>
-      <c r="B152" s="233"/>
+      <c r="A152" s="239"/>
+      <c r="B152" s="237"/>
       <c r="C152" s="112" t="s">
         <v>278</v>
       </c>
@@ -33666,8 +33696,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="253"/>
-      <c r="B153" s="233"/>
+      <c r="A153" s="239"/>
+      <c r="B153" s="237"/>
       <c r="C153" s="112" t="s">
         <v>314</v>
       </c>
@@ -33676,16 +33706,16 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="253"/>
-      <c r="B154" s="233"/>
+      <c r="A154" s="239"/>
+      <c r="B154" s="237"/>
       <c r="C154" s="106"/>
       <c r="D154" s="97" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="253"/>
-      <c r="B155" s="233"/>
+      <c r="A155" s="239"/>
+      <c r="B155" s="237"/>
       <c r="C155" s="112" t="s">
         <v>317</v>
       </c>
@@ -33694,8 +33724,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="253"/>
-      <c r="B156" s="233"/>
+      <c r="A156" s="239"/>
+      <c r="B156" s="237"/>
       <c r="C156" s="112" t="s">
         <v>263</v>
       </c>
@@ -33704,8 +33734,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="253"/>
-      <c r="B157" s="233"/>
+      <c r="A157" s="239"/>
+      <c r="B157" s="237"/>
       <c r="C157" s="112" t="s">
         <v>334</v>
       </c>
@@ -33714,8 +33744,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="253"/>
-      <c r="B158" s="233"/>
+      <c r="A158" s="239"/>
+      <c r="B158" s="237"/>
       <c r="C158" s="112" t="s">
         <v>335</v>
       </c>
@@ -33724,8 +33754,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="253"/>
-      <c r="B159" s="233"/>
+      <c r="A159" s="239"/>
+      <c r="B159" s="237"/>
       <c r="C159" s="112" t="s">
         <v>319</v>
       </c>
@@ -33734,8 +33764,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="253"/>
-      <c r="B160" s="233"/>
+      <c r="A160" s="239"/>
+      <c r="B160" s="237"/>
       <c r="C160" s="117" t="s">
         <v>340</v>
       </c>
@@ -33744,8 +33774,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="253"/>
-      <c r="B161" s="233"/>
+      <c r="A161" s="239"/>
+      <c r="B161" s="237"/>
       <c r="C161" s="112" t="s">
         <v>333</v>
       </c>
@@ -33754,8 +33784,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="253"/>
-      <c r="B162" s="233"/>
+      <c r="A162" s="239"/>
+      <c r="B162" s="237"/>
       <c r="C162" s="112" t="s">
         <v>348</v>
       </c>
@@ -33764,8 +33794,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="253"/>
-      <c r="B163" s="233"/>
+      <c r="A163" s="239"/>
+      <c r="B163" s="237"/>
       <c r="C163" s="101" t="s">
         <v>351</v>
       </c>
@@ -33774,8 +33804,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="253"/>
-      <c r="B164" s="233"/>
+      <c r="A164" s="239"/>
+      <c r="B164" s="237"/>
       <c r="C164" s="112" t="s">
         <v>352</v>
       </c>
@@ -33784,8 +33814,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="253"/>
-      <c r="B165" s="233"/>
+      <c r="A165" s="239"/>
+      <c r="B165" s="237"/>
       <c r="C165" s="112" t="s">
         <v>353</v>
       </c>
@@ -33794,8 +33824,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="253"/>
-      <c r="B166" s="233"/>
+      <c r="A166" s="239"/>
+      <c r="B166" s="237"/>
       <c r="C166" s="112" t="s">
         <v>359</v>
       </c>
@@ -33804,8 +33834,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="253"/>
-      <c r="B167" s="233"/>
+      <c r="A167" s="239"/>
+      <c r="B167" s="237"/>
       <c r="C167" s="112" t="s">
         <v>361</v>
       </c>
@@ -33814,8 +33844,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="253"/>
-      <c r="B168" s="233"/>
+      <c r="A168" s="239"/>
+      <c r="B168" s="237"/>
       <c r="C168" s="112" t="s">
         <v>367</v>
       </c>
@@ -33824,8 +33854,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="253"/>
-      <c r="B169" s="233"/>
+      <c r="A169" s="239"/>
+      <c r="B169" s="237"/>
       <c r="C169" s="112" t="s">
         <v>359</v>
       </c>
@@ -33834,8 +33864,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="253"/>
-      <c r="B170" s="233"/>
+      <c r="A170" s="239"/>
+      <c r="B170" s="237"/>
       <c r="C170" s="117" t="s">
         <v>380</v>
       </c>
@@ -33844,8 +33874,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="253"/>
-      <c r="B171" s="233"/>
+      <c r="A171" s="239"/>
+      <c r="B171" s="237"/>
       <c r="C171" s="106" t="s">
         <v>384</v>
       </c>
@@ -33854,8 +33884,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="253"/>
-      <c r="B172" s="233"/>
+      <c r="A172" s="239"/>
+      <c r="B172" s="237"/>
       <c r="C172" s="106" t="s">
         <v>387</v>
       </c>
@@ -33864,8 +33894,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="253"/>
-      <c r="B173" s="233"/>
+      <c r="A173" s="239"/>
+      <c r="B173" s="237"/>
       <c r="C173" s="106" t="s">
         <v>388</v>
       </c>
@@ -33874,8 +33904,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="253"/>
-      <c r="B174" s="233"/>
+      <c r="A174" s="239"/>
+      <c r="B174" s="237"/>
       <c r="C174" s="106" t="s">
         <v>389</v>
       </c>
@@ -33884,8 +33914,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="253"/>
-      <c r="B175" s="233"/>
+      <c r="A175" s="239"/>
+      <c r="B175" s="237"/>
       <c r="C175" s="106" t="s">
         <v>390</v>
       </c>
@@ -33894,8 +33924,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="253"/>
-      <c r="B176" s="233"/>
+      <c r="A176" s="239"/>
+      <c r="B176" s="237"/>
       <c r="C176" s="106" t="s">
         <v>391</v>
       </c>
@@ -33904,8 +33934,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="253"/>
-      <c r="B177" s="233"/>
+      <c r="A177" s="239"/>
+      <c r="B177" s="237"/>
       <c r="C177" s="106" t="s">
         <v>394</v>
       </c>
@@ -33914,8 +33944,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="253"/>
-      <c r="B178" s="233"/>
+      <c r="A178" s="239"/>
+      <c r="B178" s="237"/>
       <c r="C178" s="106" t="s">
         <v>404</v>
       </c>
@@ -33924,8 +33954,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="253"/>
-      <c r="B179" s="233"/>
+      <c r="A179" s="239"/>
+      <c r="B179" s="237"/>
       <c r="C179" s="106" t="s">
         <v>405</v>
       </c>
@@ -33934,8 +33964,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="253"/>
-      <c r="B180" s="233"/>
+      <c r="A180" s="239"/>
+      <c r="B180" s="237"/>
       <c r="C180" s="106" t="s">
         <v>422</v>
       </c>
@@ -33944,8 +33974,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="253"/>
-      <c r="B181" s="233"/>
+      <c r="A181" s="239"/>
+      <c r="B181" s="237"/>
       <c r="C181" s="106" t="s">
         <v>423</v>
       </c>
@@ -33954,8 +33984,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="253"/>
-      <c r="B182" s="233"/>
+      <c r="A182" s="239"/>
+      <c r="B182" s="237"/>
       <c r="C182" s="106" t="s">
         <v>426</v>
       </c>
@@ -33964,8 +33994,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="253"/>
-      <c r="B183" s="233"/>
+      <c r="A183" s="239"/>
+      <c r="B183" s="237"/>
       <c r="C183" s="58" t="s">
         <v>477</v>
       </c>
@@ -33974,8 +34004,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="253"/>
-      <c r="B184" s="233"/>
+      <c r="A184" s="239"/>
+      <c r="B184" s="237"/>
       <c r="C184" s="106" t="s">
         <v>422</v>
       </c>
@@ -33984,8 +34014,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="253"/>
-      <c r="B185" s="233"/>
+      <c r="A185" s="239"/>
+      <c r="B185" s="237"/>
       <c r="C185" s="106" t="s">
         <v>476</v>
       </c>
@@ -33994,8 +34024,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="254"/>
-      <c r="B186" s="234"/>
+      <c r="A186" s="240"/>
+      <c r="B186" s="236"/>
       <c r="C186" s="112" t="s">
         <v>333</v>
       </c>
@@ -34004,10 +34034,10 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="252" t="s">
+      <c r="A187" s="238" t="s">
         <v>416</v>
       </c>
-      <c r="B187" s="232" t="s">
+      <c r="B187" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C187" s="106" t="s">
@@ -34018,8 +34048,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="253"/>
-      <c r="B188" s="233"/>
+      <c r="A188" s="239"/>
+      <c r="B188" s="237"/>
       <c r="C188" s="58" t="s">
         <v>478</v>
       </c>
@@ -34028,8 +34058,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="254"/>
-      <c r="B189" s="234"/>
+      <c r="A189" s="240"/>
+      <c r="B189" s="236"/>
       <c r="C189" s="58" t="s">
         <v>483</v>
       </c>
@@ -34074,10 +34104,10 @@
       <c r="D192" s="104"/>
     </row>
     <row r="193" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="237" t="s">
+      <c r="A193" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="B193" s="232" t="s">
+      <c r="B193" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C193" s="106"/>
@@ -34086,8 +34116,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="243"/>
-      <c r="B194" s="233"/>
+      <c r="A194" s="244"/>
+      <c r="B194" s="237"/>
       <c r="C194" s="70" t="s">
         <v>245</v>
       </c>
@@ -34096,8 +34126,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="243"/>
-      <c r="B195" s="233"/>
+      <c r="A195" s="244"/>
+      <c r="B195" s="237"/>
       <c r="C195" s="70">
         <v>10.1</v>
       </c>
@@ -34106,8 +34136,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="243"/>
-      <c r="B196" s="233"/>
+      <c r="A196" s="244"/>
+      <c r="B196" s="237"/>
       <c r="C196" s="70">
         <v>10.199999999999999</v>
       </c>
@@ -34116,8 +34146,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="243"/>
-      <c r="B197" s="233"/>
+      <c r="A197" s="244"/>
+      <c r="B197" s="237"/>
       <c r="C197" s="98" t="s">
         <v>288</v>
       </c>
@@ -34126,8 +34156,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="243"/>
-      <c r="B198" s="233"/>
+      <c r="A198" s="244"/>
+      <c r="B198" s="237"/>
       <c r="C198" s="98" t="s">
         <v>370</v>
       </c>
@@ -34136,8 +34166,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="243"/>
-      <c r="B199" s="233"/>
+      <c r="A199" s="244"/>
+      <c r="B199" s="237"/>
       <c r="C199" s="98" t="s">
         <v>117</v>
       </c>
@@ -34146,8 +34176,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="243"/>
-      <c r="B200" s="233"/>
+      <c r="A200" s="244"/>
+      <c r="B200" s="237"/>
       <c r="C200" s="98" t="s">
         <v>417</v>
       </c>
@@ -34156,8 +34186,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="243"/>
-      <c r="B201" s="233"/>
+      <c r="A201" s="244"/>
+      <c r="B201" s="237"/>
       <c r="C201" s="98" t="s">
         <v>17</v>
       </c>
@@ -34166,8 +34196,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="238"/>
-      <c r="B202" s="234"/>
+      <c r="A202" s="245"/>
+      <c r="B202" s="236"/>
       <c r="C202" s="98" t="s">
         <v>460</v>
       </c>
@@ -34176,10 +34206,10 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="237" t="s">
+      <c r="A203" s="243" t="s">
         <v>246</v>
       </c>
-      <c r="B203" s="232" t="s">
+      <c r="B203" s="235" t="s">
         <v>432</v>
       </c>
       <c r="C203" s="98"/>
@@ -34188,8 +34218,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="243"/>
-      <c r="B204" s="233"/>
+      <c r="A204" s="244"/>
+      <c r="B204" s="237"/>
       <c r="C204" s="125" t="s">
         <v>428</v>
       </c>
@@ -34220,10 +34250,10 @@
       <c r="D206" s="127"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="237" t="s">
+      <c r="A207" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="B207" s="232" t="s">
+      <c r="B207" s="235" t="s">
         <v>266</v>
       </c>
       <c r="C207" s="128" t="s">
@@ -34234,8 +34264,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="243"/>
-      <c r="B208" s="233"/>
+      <c r="A208" s="244"/>
+      <c r="B208" s="237"/>
       <c r="C208" s="128" t="s">
         <v>260</v>
       </c>
@@ -34244,18 +34274,18 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="238"/>
-      <c r="B209" s="234"/>
+      <c r="A209" s="245"/>
+      <c r="B209" s="236"/>
       <c r="C209" s="106"/>
       <c r="D209" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="258" t="s">
+      <c r="A210" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="B210" s="232" t="s">
+      <c r="B210" s="235" t="s">
         <v>266</v>
       </c>
       <c r="C210" s="118" t="s">
@@ -34266,18 +34296,18 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="259"/>
-      <c r="B211" s="234"/>
+      <c r="A211" s="242"/>
+      <c r="B211" s="236"/>
       <c r="C211" s="118"/>
       <c r="D211" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="258" t="s">
+      <c r="A212" s="241" t="s">
         <v>286</v>
       </c>
-      <c r="B212" s="232" t="s">
+      <c r="B212" s="235" t="s">
         <v>266</v>
       </c>
       <c r="C212" s="118"/>
@@ -34286,18 +34316,18 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="259"/>
-      <c r="B213" s="234"/>
+      <c r="A213" s="242"/>
+      <c r="B213" s="236"/>
       <c r="C213" s="106"/>
       <c r="D213" s="106" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="258" t="s">
+      <c r="A214" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="B214" s="232" t="s">
+      <c r="B214" s="235" t="s">
         <v>266</v>
       </c>
       <c r="C214" s="118" t="s">
@@ -34308,8 +34338,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="259"/>
-      <c r="B215" s="234"/>
+      <c r="A215" s="242"/>
+      <c r="B215" s="236"/>
       <c r="C215" s="106"/>
       <c r="D215" s="106" t="s">
         <v>408</v>
@@ -34912,10 +34942,10 @@
       <c r="D265" s="173"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="198" t="s">
+      <c r="A266" s="196" t="s">
         <v>499</v>
       </c>
-      <c r="B266" s="218" t="s">
+      <c r="B266" s="230" t="s">
         <v>432</v>
       </c>
       <c r="C266" s="168" t="s">
@@ -34926,8 +34956,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="198"/>
-      <c r="B267" s="218"/>
+      <c r="A267" s="196"/>
+      <c r="B267" s="230"/>
       <c r="C267" s="168" t="s">
         <v>535</v>
       </c>
@@ -34950,10 +34980,10 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="209" t="s">
+      <c r="A269" s="201" t="s">
         <v>540</v>
       </c>
-      <c r="B269" s="255" t="s">
+      <c r="B269" s="231" t="s">
         <v>432</v>
       </c>
       <c r="C269" s="168" t="s">
@@ -34964,8 +34994,8 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="210"/>
-      <c r="B270" s="256"/>
+      <c r="A270" s="202"/>
+      <c r="B270" s="232"/>
       <c r="C270" s="168" t="s">
         <v>543</v>
       </c>
@@ -35114,30 +35144,30 @@
       </c>
     </row>
     <row r="281" spans="1:4" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="172" t="s">
+      <c r="A281" s="174" t="s">
+        <v>540</v>
+      </c>
+      <c r="B281" s="179" t="s">
+        <v>432</v>
+      </c>
+      <c r="C281" s="174" t="s">
+        <v>574</v>
+      </c>
+      <c r="D281" s="174" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="172" t="s">
         <v>565</v>
       </c>
-      <c r="B281" s="155"/>
-      <c r="C281" s="172"/>
-      <c r="D281" s="173"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="168" t="s">
-        <v>27</v>
-      </c>
-      <c r="B282" s="171" t="s">
-        <v>432</v>
-      </c>
-      <c r="C282" s="168" t="s">
-        <v>558</v>
-      </c>
-      <c r="D282" s="168" t="s">
-        <v>559</v>
-      </c>
+      <c r="B282" s="155"/>
+      <c r="C282" s="172"/>
+      <c r="D282" s="173"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="168" t="s">
-        <v>523</v>
+        <v>27</v>
       </c>
       <c r="B283" s="171" t="s">
         <v>432</v>
@@ -35151,7 +35181,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="168" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="B284" s="171" t="s">
         <v>432</v>
@@ -35160,12 +35190,12 @@
         <v>558</v>
       </c>
       <c r="D284" s="168" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="168" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B285" s="171" t="s">
         <v>432</v>
@@ -35174,40 +35204,40 @@
         <v>558</v>
       </c>
       <c r="D285" s="168" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" s="167" customFormat="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="168" t="s">
-        <v>563</v>
-      </c>
-      <c r="B286" s="178" t="s">
+        <v>561</v>
+      </c>
+      <c r="B286" s="171" t="s">
         <v>432</v>
       </c>
       <c r="C286" s="168" t="s">
         <v>558</v>
       </c>
       <c r="D286" s="168" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="168" t="s">
-        <v>454</v>
-      </c>
-      <c r="B287" s="177" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287" s="178" t="s">
         <v>432</v>
       </c>
       <c r="C287" s="168" t="s">
         <v>558</v>
       </c>
       <c r="D287" s="168" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="168" t="s">
-        <v>569</v>
+        <v>454</v>
       </c>
       <c r="B288" s="177" t="s">
         <v>432</v>
@@ -35216,12 +35246,12 @@
         <v>558</v>
       </c>
       <c r="D288" s="168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="168" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B289" s="177" t="s">
         <v>432</v>
@@ -35230,62 +35260,81 @@
         <v>558</v>
       </c>
       <c r="D289" s="168" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="168" t="s">
+        <v>570</v>
+      </c>
+      <c r="B290" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="C290" s="168" t="s">
+        <v>558</v>
+      </c>
+      <c r="D290" s="168" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="291" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="157"/>
-    </row>
-    <row r="292" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="157"/>
-    </row>
-    <row r="293" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="157"/>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="169" t="s">
+        <v>576</v>
+      </c>
+      <c r="B291" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="C291" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="174" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="168" t="s">
+        <v>577</v>
+      </c>
+      <c r="B292" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="C292" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="174" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="262" t="s">
+        <v>579</v>
+      </c>
+      <c r="B293" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="C293" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293" s="174" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="169" t="s">
+        <v>580</v>
+      </c>
+      <c r="B294" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="C294" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="174" t="s">
+        <v>578</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B136:B186"/>
-    <mergeCell ref="A136:A186"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="A193:A202"/>
-    <mergeCell ref="B193:B202"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A78:A95"/>
-    <mergeCell ref="B78:B95"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A96:A109"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="C96:C97"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A13:A18"/>
@@ -35302,6 +35351,48 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A27:A32"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A96:A109"/>
+    <mergeCell ref="B96:B109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="A193:A202"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A78:A95"/>
+    <mergeCell ref="B78:B95"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B136:B186"/>
+    <mergeCell ref="A136:A186"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
